--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA011524-B4D8-4C26-923A-54773994A1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6360" yWindow="5025" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>match</t>
   </si>
@@ -182,13 +188,19 @@
   </si>
   <si>
     <t>CMR-BRA</t>
+  </si>
+  <si>
+    <t>tip Paolo</t>
+  </si>
+  <si>
+    <t>score Paolo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,15 +259,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +349,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +401,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +628,14 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -599,8 +663,14 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -628,8 +698,14 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -657,8 +733,14 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -683,8 +765,14 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -709,8 +797,14 @@
       <c r="I6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -735,8 +829,14 @@
       <c r="I7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -758,8 +858,14 @@
       <c r="I8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -781,8 +887,14 @@
       <c r="I9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -804,8 +916,14 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -827,8 +945,14 @@
       <c r="I11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -850,8 +974,14 @@
       <c r="I12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -873,8 +1003,14 @@
       <c r="I13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>-1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -893,8 +1029,14 @@
       <c r="I14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -910,8 +1052,11 @@
       <c r="I15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -927,8 +1072,11 @@
       <c r="I16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -944,8 +1092,11 @@
       <c r="I17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -961,8 +1112,11 @@
       <c r="I18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -978,8 +1132,11 @@
       <c r="I19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -995,8 +1152,11 @@
       <c r="I20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1012,8 +1172,11 @@
       <c r="I21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1029,8 +1192,11 @@
       <c r="I22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1046,8 +1212,11 @@
       <c r="I23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1063,8 +1232,11 @@
       <c r="I24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1080,8 +1252,11 @@
       <c r="I25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1097,8 +1272,11 @@
       <c r="I26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1114,8 +1292,11 @@
       <c r="I27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1131,8 +1312,11 @@
       <c r="I28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1148,8 +1332,11 @@
       <c r="I29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1165,8 +1352,11 @@
       <c r="I30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1182,8 +1372,11 @@
       <c r="I31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1199,8 +1392,11 @@
       <c r="I32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1216,8 +1412,11 @@
       <c r="I33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1233,8 +1432,11 @@
       <c r="I34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1250,8 +1452,11 @@
       <c r="I35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1267,8 +1472,11 @@
       <c r="I36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1284,8 +1492,11 @@
       <c r="I37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1301,8 +1512,11 @@
       <c r="I38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1318,8 +1532,11 @@
       <c r="I39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1335,8 +1552,11 @@
       <c r="I40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1352,8 +1572,11 @@
       <c r="I41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1369,8 +1592,11 @@
       <c r="I42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1386,8 +1612,11 @@
       <c r="I43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1403,8 +1632,11 @@
       <c r="I44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1420,8 +1652,11 @@
       <c r="I45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1437,8 +1672,11 @@
       <c r="I46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1454,8 +1692,11 @@
       <c r="I47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1471,8 +1712,11 @@
       <c r="I48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1488,8 +1732,11 @@
       <c r="I49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1502,8 +1749,11 @@
       <c r="I50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1516,8 +1766,11 @@
       <c r="I51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1530,8 +1783,11 @@
       <c r="I52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1544,8 +1800,11 @@
       <c r="I53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1558,8 +1817,11 @@
       <c r="I54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1572,8 +1834,11 @@
       <c r="I55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1586,8 +1851,11 @@
       <c r="I56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1600,8 +1868,11 @@
       <c r="I57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1614,8 +1885,11 @@
       <c r="I58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1628,8 +1902,11 @@
       <c r="I59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1642,8 +1919,11 @@
       <c r="I60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1656,8 +1936,11 @@
       <c r="I61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1670,8 +1953,11 @@
       <c r="I62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1684,8 +1970,11 @@
       <c r="I63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1698,8 +1987,11 @@
       <c r="I64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="K64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1710,6 +2002,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
         <v>0</v>
       </c>
     </row>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -726,7 +726,7 @@
         <v>62</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -738,19 +738,19 @@
         <v>-1</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>-1</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>-1</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>-1</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23058685-6388-4B74-A92E-215879AAF7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -208,8 +214,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -261,22 +273,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -318,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +374,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,6 +426,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,14 +619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,10 +638,10 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -601,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -614,7 +676,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" t="b">
@@ -639,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -652,7 +714,7 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" t="b">
@@ -677,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -690,7 +752,7 @@
       <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" t="b">
@@ -715,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -728,7 +790,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" t="b">
@@ -753,14 +815,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" t="b">
@@ -785,14 +847,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" t="b">
@@ -817,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -846,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -875,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -904,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -933,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -962,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -991,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1017,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1037,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1057,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1077,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1097,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1117,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1137,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1157,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1177,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1197,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1217,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1237,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1257,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1277,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1297,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1317,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1337,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1357,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1377,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1397,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1417,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1437,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1457,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1477,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1497,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1517,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1537,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1557,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1577,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1597,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1617,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1637,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1657,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1677,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1697,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1717,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1734,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1751,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1768,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1785,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1802,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1819,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1836,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1853,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1870,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1887,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1904,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1921,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1938,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1955,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1972,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23058685-6388-4B74-A92E-215879AAF7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -214,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,18 +226,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -273,34 +261,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -342,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,27 +350,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,24 +384,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,16 +559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,10 +576,10 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -663,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -676,11 +614,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
+      <c r="E2">
+        <v>-1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -701,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -714,11 +652,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -739,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -752,11 +690,11 @@
       <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
+      <c r="E4">
+        <v>-1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -777,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -790,7 +728,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="b">
@@ -815,15 +753,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -847,15 +785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -879,13 +817,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
@@ -908,13 +849,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
@@ -937,13 +881,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
@@ -966,13 +913,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
@@ -995,13 +945,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
@@ -1024,13 +977,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
@@ -1053,13 +1009,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
@@ -1079,13 +1038,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
@@ -1099,13 +1061,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
@@ -1119,13 +1084,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
@@ -1139,13 +1107,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
@@ -1159,13 +1130,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
@@ -1179,13 +1153,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
@@ -1199,13 +1176,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
@@ -1219,13 +1199,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
@@ -1239,13 +1222,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
@@ -1259,13 +1245,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
@@ -1279,13 +1268,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
@@ -1299,13 +1291,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
@@ -1319,13 +1314,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
@@ -1339,13 +1337,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
@@ -1359,13 +1360,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
@@ -1379,13 +1383,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
       </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
@@ -1399,13 +1406,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
       </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
@@ -1419,13 +1429,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
       </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
@@ -1439,13 +1452,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
@@ -1459,13 +1475,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
@@ -1479,13 +1498,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
@@ -1499,13 +1521,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
@@ -1519,13 +1544,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
       </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
@@ -1539,13 +1567,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
       </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
@@ -1559,13 +1590,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
       </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
@@ -1579,13 +1613,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
       </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
@@ -1599,13 +1636,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
       </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
@@ -1619,13 +1659,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>51</v>
       </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
@@ -1639,13 +1682,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
       </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
@@ -1659,13 +1705,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
       </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
@@ -1679,13 +1728,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>54</v>
       </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
@@ -1699,13 +1751,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>55</v>
       </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
@@ -1719,13 +1774,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
       </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
@@ -1739,13 +1797,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
       </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
@@ -1759,13 +1820,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>58</v>
       </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
@@ -1779,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1796,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1813,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1830,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1847,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1864,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1881,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1898,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1915,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1932,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1949,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1966,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1983,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2000,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2017,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2034,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>match</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>score Paolo</t>
+  </si>
+  <si>
+    <t>tip Moritz</t>
+  </si>
+  <si>
+    <t>score Moritz</t>
   </si>
   <si>
     <t>QAT-ECU</t>
@@ -560,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,16 +606,22 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -638,16 +650,22 @@
       <c r="L2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -676,16 +694,22 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -714,16 +738,22 @@
       <c r="L4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -752,13 +782,19 @@
       <c r="L5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -784,13 +820,19 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -816,13 +858,19 @@
       <c r="L7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -848,13 +896,19 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -880,13 +934,19 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -912,13 +972,19 @@
       <c r="L10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -944,13 +1010,19 @@
       <c r="L11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -976,13 +1048,19 @@
       <c r="L12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1008,13 +1086,19 @@
       <c r="L13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1037,13 +1121,19 @@
       <c r="L14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1060,13 +1150,19 @@
       <c r="L15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1083,13 +1179,19 @@
       <c r="L16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1106,13 +1208,19 @@
       <c r="L17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1129,13 +1237,19 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1152,13 +1266,19 @@
       <c r="L19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1175,13 +1295,19 @@
       <c r="L20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1198,13 +1324,19 @@
       <c r="L21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1221,13 +1353,19 @@
       <c r="L22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>-1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1244,13 +1382,19 @@
       <c r="L23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1267,13 +1411,19 @@
       <c r="L24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1290,13 +1440,19 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -1313,13 +1469,19 @@
       <c r="L26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1336,13 +1498,19 @@
       <c r="L27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1359,13 +1527,19 @@
       <c r="L28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1382,13 +1556,19 @@
       <c r="L29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>-1</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>-1</v>
@@ -1405,13 +1585,19 @@
       <c r="L30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1428,13 +1614,19 @@
       <c r="L31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>-1</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1451,13 +1643,19 @@
       <c r="L32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1474,13 +1672,19 @@
       <c r="L33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1497,13 +1701,19 @@
       <c r="L34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1520,13 +1730,19 @@
       <c r="L35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1543,13 +1759,19 @@
       <c r="L36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -1566,13 +1788,19 @@
       <c r="L37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -1589,13 +1817,19 @@
       <c r="L38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1612,13 +1846,19 @@
       <c r="L39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -1635,13 +1875,19 @@
       <c r="L40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1658,13 +1904,19 @@
       <c r="L41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -1681,13 +1933,19 @@
       <c r="L42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1704,13 +1962,19 @@
       <c r="L43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1727,13 +1991,19 @@
       <c r="L44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>-1</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -1750,13 +2020,19 @@
       <c r="L45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>-1</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -1773,13 +2049,19 @@
       <c r="L46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -1796,13 +2078,19 @@
       <c r="L47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E48">
         <v>-1</v>
@@ -1819,13 +2107,19 @@
       <c r="L48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>-1</v>
@@ -1842,8 +2136,14 @@
       <c r="L49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>-1</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1859,8 +2159,11 @@
       <c r="L50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1876,8 +2179,11 @@
       <c r="L51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1893,8 +2199,11 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1910,8 +2219,11 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1927,8 +2239,11 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1944,8 +2259,11 @@
       <c r="L55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1961,8 +2279,11 @@
       <c r="L56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1978,8 +2299,11 @@
       <c r="L57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1995,8 +2319,11 @@
       <c r="L58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2012,8 +2339,11 @@
       <c r="L59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2029,8 +2359,11 @@
       <c r="L60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2046,8 +2379,11 @@
       <c r="L61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2063,8 +2399,11 @@
       <c r="L62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2080,8 +2419,11 @@
       <c r="L63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2097,8 +2439,11 @@
       <c r="L64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2112,6 +2457,9 @@
         <v>0</v>
       </c>
       <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="b">
         <v>0</v>
       </c>
     </row>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>match</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>score Moritz</t>
+  </si>
+  <si>
+    <t>tip Igor</t>
+  </si>
+  <si>
+    <t>score Igor</t>
+  </si>
+  <si>
+    <t>tip Joe</t>
+  </si>
+  <si>
+    <t>score Joe</t>
   </si>
   <si>
     <t>QAT-ECU</t>
@@ -566,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,16 +624,28 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -656,16 +680,28 @@
       <c r="N2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -700,16 +736,28 @@
       <c r="N3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -744,16 +792,28 @@
       <c r="N4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -788,13 +848,25 @@
       <c r="N5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -826,13 +898,25 @@
       <c r="N6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -864,13 +948,25 @@
       <c r="N7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -902,13 +998,25 @@
       <c r="N8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -940,13 +1048,25 @@
       <c r="N9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -978,13 +1098,25 @@
       <c r="N10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1016,13 +1148,25 @@
       <c r="N11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1054,13 +1198,25 @@
       <c r="N12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1092,13 +1248,25 @@
       <c r="N13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1127,13 +1295,25 @@
       <c r="N14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1156,13 +1336,25 @@
       <c r="N15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1185,13 +1377,25 @@
       <c r="N16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1214,13 +1418,25 @@
       <c r="N17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1243,13 +1459,25 @@
       <c r="N18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1272,13 +1500,25 @@
       <c r="N19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1301,13 +1541,25 @@
       <c r="N20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1330,13 +1582,25 @@
       <c r="N21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1359,13 +1623,25 @@
       <c r="N22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1388,13 +1664,25 @@
       <c r="N23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>-1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1417,13 +1705,25 @@
       <c r="N24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1446,13 +1746,25 @@
       <c r="N25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -1475,13 +1787,25 @@
       <c r="N26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1504,13 +1828,25 @@
       <c r="N27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1533,13 +1869,25 @@
       <c r="N28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1562,13 +1910,25 @@
       <c r="N29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>-1</v>
@@ -1591,13 +1951,25 @@
       <c r="N30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>-1</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1620,13 +1992,25 @@
       <c r="N31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1649,13 +2033,25 @@
       <c r="N32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1678,13 +2074,25 @@
       <c r="N33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1707,13 +2115,25 @@
       <c r="N34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1736,13 +2156,25 @@
       <c r="N35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1765,13 +2197,25 @@
       <c r="N36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>-1</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -1794,13 +2238,25 @@
       <c r="N37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>-1</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -1823,13 +2279,25 @@
       <c r="N38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1852,13 +2320,25 @@
       <c r="N39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -1881,13 +2361,25 @@
       <c r="N40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40">
+        <v>-1</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1910,13 +2402,25 @@
       <c r="N41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41">
+        <v>-1</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>-1</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -1939,13 +2443,25 @@
       <c r="N42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42">
+        <v>-1</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1968,13 +2484,25 @@
       <c r="N43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-1</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1997,13 +2525,25 @@
       <c r="N44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44">
+        <v>-1</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>-1</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -2026,13 +2566,25 @@
       <c r="N45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45">
+        <v>-1</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-1</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -2055,13 +2607,25 @@
       <c r="N46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>-1</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -2084,13 +2648,25 @@
       <c r="N47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47">
+        <v>-1</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-1</v>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>-1</v>
@@ -2113,13 +2689,25 @@
       <c r="N48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48">
+        <v>-1</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>-1</v>
@@ -2142,8 +2730,20 @@
       <c r="N49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49">
+        <v>-1</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>-1</v>
+      </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2162,8 +2762,14 @@
       <c r="N50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2182,8 +2788,14 @@
       <c r="N51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2202,8 +2814,14 @@
       <c r="N52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2222,8 +2840,14 @@
       <c r="N53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2242,8 +2866,14 @@
       <c r="N54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2262,8 +2892,14 @@
       <c r="N55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2282,8 +2918,14 @@
       <c r="N56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2302,8 +2944,14 @@
       <c r="N57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2322,8 +2970,14 @@
       <c r="N58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2342,8 +2996,14 @@
       <c r="N59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2362,8 +3022,14 @@
       <c r="N60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2382,8 +3048,14 @@
       <c r="N61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2402,8 +3074,14 @@
       <c r="N62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2422,8 +3100,14 @@
       <c r="N63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2442,8 +3126,14 @@
       <c r="N64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2460,6 +3150,12 @@
         <v>0</v>
       </c>
       <c r="N65" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="R65" t="b">
         <v>0</v>
       </c>
     </row>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CEF9B-0628-4B3A-955B-6A8E92D1B744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7275" yWindow="3810" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>match</t>
   </si>
@@ -221,13 +227,19 @@
   </si>
   <si>
     <t>10-9</t>
+  </si>
+  <si>
+    <t>tip Albert</t>
+  </si>
+  <si>
+    <t>score Albert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -275,26 +287,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -336,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,9 +427,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,6 +479,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,14 +672,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +736,14 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -692,8 +798,11 @@
       <c r="R2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -748,8 +857,11 @@
       <c r="R3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -804,8 +916,11 @@
       <c r="R4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -860,8 +975,11 @@
       <c r="R5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -910,8 +1028,11 @@
       <c r="R6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -960,8 +1081,11 @@
       <c r="R7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1010,8 +1134,11 @@
       <c r="R8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1060,8 +1187,11 @@
       <c r="R9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1110,8 +1240,11 @@
       <c r="R10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1160,8 +1293,11 @@
       <c r="R11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1210,8 +1346,11 @@
       <c r="R12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1260,8 +1399,11 @@
       <c r="R13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1307,8 +1449,11 @@
       <c r="R14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1348,8 +1493,11 @@
       <c r="R15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1389,8 +1537,11 @@
       <c r="R16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1430,8 +1581,11 @@
       <c r="R17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1471,8 +1625,11 @@
       <c r="R18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1512,8 +1669,11 @@
       <c r="R19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1553,8 +1713,11 @@
       <c r="R20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1594,8 +1757,11 @@
       <c r="R21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1635,8 +1801,11 @@
       <c r="R22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1676,8 +1845,11 @@
       <c r="R23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1717,8 +1889,11 @@
       <c r="R24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1758,8 +1933,11 @@
       <c r="R25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1799,8 +1977,11 @@
       <c r="R26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1840,8 +2021,11 @@
       <c r="R27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1881,8 +2065,11 @@
       <c r="R28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1922,8 +2109,11 @@
       <c r="R29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1963,8 +2153,11 @@
       <c r="R30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2004,8 +2197,11 @@
       <c r="R31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2045,8 +2241,11 @@
       <c r="R32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2086,8 +2285,11 @@
       <c r="R33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2127,8 +2329,11 @@
       <c r="R34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2168,8 +2373,11 @@
       <c r="R35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2209,8 +2417,11 @@
       <c r="R36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2250,8 +2461,11 @@
       <c r="R37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2291,8 +2505,11 @@
       <c r="R38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2332,8 +2549,11 @@
       <c r="R39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2373,8 +2593,11 @@
       <c r="R40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2414,8 +2637,11 @@
       <c r="R41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2455,8 +2681,11 @@
       <c r="R42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2496,8 +2725,11 @@
       <c r="R43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2537,8 +2769,11 @@
       <c r="R44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2578,8 +2813,11 @@
       <c r="R45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2619,8 +2857,11 @@
       <c r="R46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2660,8 +2901,11 @@
       <c r="R47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2701,8 +2945,11 @@
       <c r="R48" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2742,8 +2989,11 @@
       <c r="R49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2769,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2795,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2821,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2847,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2873,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2899,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2925,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2951,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2977,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3003,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3029,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3055,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3081,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3107,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3133,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3161,5 +3411,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CEF9B-0628-4B3A-955B-6A8E92D1B744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1DEF8A-65EF-4A34-8E2B-AD4449AD5AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="3810" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>match</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>score Albert</t>
+  </si>
+  <si>
+    <t>tip Marc</t>
+  </si>
+  <si>
+    <t>score Marc</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -331,6 +337,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -673,18 +685,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,8 +754,14 @@
       <c r="T1" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -801,8 +819,11 @@
       <c r="S2" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -860,8 +881,11 @@
       <c r="S3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -919,8 +943,11 @@
       <c r="S4" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -978,8 +1005,11 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U5" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1031,8 +1061,11 @@
       <c r="S6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1084,8 +1117,11 @@
       <c r="S7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1137,8 +1173,11 @@
       <c r="S8" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1190,8 +1229,11 @@
       <c r="S9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,8 +1285,11 @@
       <c r="S10" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U10" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1296,8 +1341,11 @@
       <c r="S11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1349,8 +1397,11 @@
       <c r="S12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1402,8 +1453,11 @@
       <c r="S13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1452,8 +1506,11 @@
       <c r="S14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1496,8 +1553,11 @@
       <c r="S15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,8 +1600,11 @@
       <c r="S16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1584,8 +1647,11 @@
       <c r="S17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1628,8 +1694,11 @@
       <c r="S18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1672,8 +1741,11 @@
       <c r="S19" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="S20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1760,8 +1835,11 @@
       <c r="S21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1804,8 +1882,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1848,8 +1929,11 @@
       <c r="S23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1892,8 +1976,11 @@
       <c r="S24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1936,8 +2023,11 @@
       <c r="S25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1980,8 +2070,11 @@
       <c r="S26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2024,8 +2117,11 @@
       <c r="S27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2068,8 +2164,11 @@
       <c r="S28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2112,8 +2211,11 @@
       <c r="S29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2156,8 +2258,11 @@
       <c r="S30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2200,8 +2305,11 @@
       <c r="S31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2244,8 +2352,11 @@
       <c r="S32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2288,8 +2399,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2332,8 +2446,11 @@
       <c r="S34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2376,8 +2493,11 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U35" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2420,8 +2540,11 @@
       <c r="S36" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2464,8 +2587,11 @@
       <c r="S37" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2508,8 +2634,11 @@
       <c r="S38" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U38" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2552,8 +2681,11 @@
       <c r="S39" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U39" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2596,8 +2728,11 @@
       <c r="S40" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U40" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2640,8 +2775,11 @@
       <c r="S41" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U41" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2684,8 +2822,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2728,8 +2869,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U43" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2772,8 +2916,11 @@
       <c r="S44" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U44" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2816,8 +2963,11 @@
       <c r="S45" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U45" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2860,8 +3010,11 @@
       <c r="S46" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U46" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2904,8 +3057,11 @@
       <c r="S47" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U47" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2948,8 +3104,11 @@
       <c r="S48" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2992,8 +3151,11 @@
       <c r="S49" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U49" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3019,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3045,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3071,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3097,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3123,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3149,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3175,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3201,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3227,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3253,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3279,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3305,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3331,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3357,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3383,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1DEF8A-65EF-4A34-8E2B-AD4449AD5AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF2765A-8E5A-40AD-A3C3-94C1AAD4887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>match</t>
   </si>
@@ -240,6 +240,15 @@
   <si>
     <t>score Marc</t>
   </si>
+  <si>
+    <t>tip Paulo</t>
+  </si>
+  <si>
+    <t>tip Mathias</t>
+  </si>
+  <si>
+    <t>score Mathias</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -323,11 +332,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -344,8 +368,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -696,7 +723,7 @@
     <col min="19" max="19" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,11 +784,23 @@
       <c r="U1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -822,8 +861,14 @@
       <c r="U2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -884,8 +929,14 @@
       <c r="U3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -946,8 +997,14 @@
       <c r="U4" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1008,8 +1065,14 @@
       <c r="U5" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1064,8 +1127,14 @@
       <c r="U6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1120,8 +1189,14 @@
       <c r="U7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1176,8 +1251,14 @@
       <c r="U8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1232,8 +1313,14 @@
       <c r="U9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1288,8 +1375,14 @@
       <c r="U10" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W10" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1344,8 +1437,14 @@
       <c r="U11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,8 +1499,14 @@
       <c r="U12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1456,8 +1561,14 @@
       <c r="U13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W13" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1509,8 +1620,14 @@
       <c r="U14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1556,8 +1673,14 @@
       <c r="U15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1603,8 +1726,14 @@
       <c r="U16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1650,8 +1779,14 @@
       <c r="U17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1697,8 +1832,14 @@
       <c r="U18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W18" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1744,8 +1885,14 @@
       <c r="U19" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1791,8 +1938,14 @@
       <c r="U20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1838,8 +1991,14 @@
       <c r="U21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1885,8 +2044,14 @@
       <c r="U22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1932,8 +2097,14 @@
       <c r="U23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1979,8 +2150,14 @@
       <c r="U24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2026,8 +2203,14 @@
       <c r="U25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2073,8 +2256,14 @@
       <c r="U26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2120,8 +2309,14 @@
       <c r="U27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2167,8 +2362,14 @@
       <c r="U28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2214,8 +2415,14 @@
       <c r="U29" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2261,8 +2468,14 @@
       <c r="U30" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2308,8 +2521,14 @@
       <c r="U31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2355,8 +2574,14 @@
       <c r="U32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2402,8 +2627,14 @@
       <c r="U33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2449,8 +2680,14 @@
       <c r="U34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2496,8 +2733,14 @@
       <c r="U35" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W35" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2543,8 +2786,14 @@
       <c r="U36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2590,8 +2839,14 @@
       <c r="U37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W37" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2637,8 +2892,14 @@
       <c r="U38" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W38" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2684,8 +2945,14 @@
       <c r="U39" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2731,8 +2998,14 @@
       <c r="U40" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W40" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2778,8 +3051,14 @@
       <c r="U41" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W41" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2825,8 +3104,14 @@
       <c r="U42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2872,8 +3157,14 @@
       <c r="U43" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W43" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2919,8 +3210,14 @@
       <c r="U44" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W44" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2966,8 +3263,14 @@
       <c r="U45" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W45" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3013,8 +3316,14 @@
       <c r="U46" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W46" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3060,8 +3369,14 @@
       <c r="U47" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3107,8 +3422,14 @@
       <c r="U48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3154,8 +3475,14 @@
       <c r="U49" s="5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W49" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3180,8 +3507,10 @@
       <c r="R50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W50" s="7"/>
+      <c r="Y50" s="7"/>
+    </row>
+    <row r="51" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3206,8 +3535,10 @@
       <c r="R51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W51" s="7"/>
+      <c r="Y51" s="7"/>
+    </row>
+    <row r="52" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3232,8 +3563,10 @@
       <c r="R52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W52" s="7"/>
+      <c r="Y52" s="7"/>
+    </row>
+    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3258,8 +3591,10 @@
       <c r="R53" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W53" s="7"/>
+      <c r="Y53" s="7"/>
+    </row>
+    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3284,8 +3619,10 @@
       <c r="R54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W54" s="7"/>
+      <c r="Y54" s="7"/>
+    </row>
+    <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3310,8 +3647,10 @@
       <c r="R55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W55" s="7"/>
+      <c r="Y55" s="7"/>
+    </row>
+    <row r="56" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3336,8 +3675,10 @@
       <c r="R56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W56" s="7"/>
+      <c r="Y56" s="7"/>
+    </row>
+    <row r="57" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3362,8 +3703,10 @@
       <c r="R57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W57" s="7"/>
+      <c r="Y57" s="7"/>
+    </row>
+    <row r="58" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3388,8 +3731,10 @@
       <c r="R58" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W58" s="7"/>
+      <c r="Y58" s="7"/>
+    </row>
+    <row r="59" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3414,8 +3759,10 @@
       <c r="R59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W59" s="7"/>
+      <c r="Y59" s="7"/>
+    </row>
+    <row r="60" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3440,8 +3787,10 @@
       <c r="R60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W60" s="7"/>
+      <c r="Y60" s="7"/>
+    </row>
+    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3466,8 +3815,10 @@
       <c r="R61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W61" s="7"/>
+      <c r="Y61" s="7"/>
+    </row>
+    <row r="62" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3492,8 +3843,10 @@
       <c r="R62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W62" s="7"/>
+      <c r="Y62" s="7"/>
+    </row>
+    <row r="63" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3518,8 +3871,10 @@
       <c r="R63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W63" s="7"/>
+      <c r="Y63" s="7"/>
+    </row>
+    <row r="64" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3544,8 +3899,10 @@
       <c r="R64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="W64" s="7"/>
+      <c r="Y64" s="7"/>
+    </row>
+    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3570,6 +3927,3748 @@
       <c r="R65" t="b">
         <v>0</v>
       </c>
+      <c r="W65" s="7"/>
+      <c r="Y65" s="7"/>
+    </row>
+    <row r="66" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W66" s="7"/>
+      <c r="Y66" s="7"/>
+    </row>
+    <row r="67" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W67" s="7"/>
+      <c r="Y67" s="7"/>
+    </row>
+    <row r="68" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W68" s="7"/>
+      <c r="Y68" s="7"/>
+    </row>
+    <row r="69" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W69" s="7"/>
+      <c r="Y69" s="7"/>
+    </row>
+    <row r="70" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W70" s="7"/>
+      <c r="Y70" s="7"/>
+    </row>
+    <row r="71" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W71" s="7"/>
+      <c r="Y71" s="7"/>
+    </row>
+    <row r="72" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W72" s="7"/>
+      <c r="Y72" s="7"/>
+    </row>
+    <row r="73" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W73" s="7"/>
+      <c r="Y73" s="7"/>
+    </row>
+    <row r="74" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W74" s="7"/>
+      <c r="Y74" s="7"/>
+    </row>
+    <row r="75" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W75" s="7"/>
+      <c r="Y75" s="7"/>
+    </row>
+    <row r="76" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W76" s="7"/>
+      <c r="Y76" s="7"/>
+    </row>
+    <row r="77" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W77" s="7"/>
+      <c r="Y77" s="7"/>
+    </row>
+    <row r="78" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W78" s="7"/>
+      <c r="Y78" s="7"/>
+    </row>
+    <row r="79" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W79" s="7"/>
+      <c r="Y79" s="7"/>
+    </row>
+    <row r="80" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W80" s="7"/>
+      <c r="Y80" s="7"/>
+    </row>
+    <row r="81" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W81" s="7"/>
+      <c r="Y81" s="7"/>
+    </row>
+    <row r="82" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W82" s="7"/>
+      <c r="Y82" s="7"/>
+    </row>
+    <row r="83" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W83" s="7"/>
+      <c r="Y83" s="7"/>
+    </row>
+    <row r="84" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W84" s="7"/>
+      <c r="Y84" s="7"/>
+    </row>
+    <row r="85" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W85" s="7"/>
+      <c r="Y85" s="7"/>
+    </row>
+    <row r="86" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W86" s="7"/>
+      <c r="Y86" s="7"/>
+    </row>
+    <row r="87" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W87" s="7"/>
+      <c r="Y87" s="7"/>
+    </row>
+    <row r="88" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W88" s="7"/>
+      <c r="Y88" s="7"/>
+    </row>
+    <row r="89" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W89" s="7"/>
+      <c r="Y89" s="7"/>
+    </row>
+    <row r="90" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W90" s="7"/>
+      <c r="Y90" s="7"/>
+    </row>
+    <row r="91" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W91" s="7"/>
+      <c r="Y91" s="7"/>
+    </row>
+    <row r="92" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W92" s="7"/>
+      <c r="Y92" s="7"/>
+    </row>
+    <row r="93" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W93" s="7"/>
+      <c r="Y93" s="7"/>
+    </row>
+    <row r="94" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W94" s="7"/>
+      <c r="Y94" s="7"/>
+    </row>
+    <row r="95" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W95" s="7"/>
+      <c r="Y95" s="7"/>
+    </row>
+    <row r="96" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W96" s="7"/>
+      <c r="Y96" s="7"/>
+    </row>
+    <row r="97" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W97" s="7"/>
+      <c r="Y97" s="7"/>
+    </row>
+    <row r="98" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W98" s="7"/>
+      <c r="Y98" s="7"/>
+    </row>
+    <row r="99" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W99" s="7"/>
+      <c r="Y99" s="7"/>
+    </row>
+    <row r="100" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W100" s="7"/>
+      <c r="Y100" s="7"/>
+    </row>
+    <row r="101" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W101" s="7"/>
+      <c r="Y101" s="7"/>
+    </row>
+    <row r="102" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W102" s="7"/>
+      <c r="Y102" s="7"/>
+    </row>
+    <row r="103" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W103" s="7"/>
+      <c r="Y103" s="7"/>
+    </row>
+    <row r="104" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W104" s="7"/>
+      <c r="Y104" s="7"/>
+    </row>
+    <row r="105" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W105" s="7"/>
+      <c r="Y105" s="7"/>
+    </row>
+    <row r="106" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W106" s="7"/>
+      <c r="Y106" s="7"/>
+    </row>
+    <row r="107" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W107" s="7"/>
+      <c r="Y107" s="7"/>
+    </row>
+    <row r="108" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W108" s="7"/>
+      <c r="Y108" s="7"/>
+    </row>
+    <row r="109" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W109" s="7"/>
+      <c r="Y109" s="7"/>
+    </row>
+    <row r="110" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W110" s="7"/>
+      <c r="Y110" s="7"/>
+    </row>
+    <row r="111" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W111" s="7"/>
+      <c r="Y111" s="7"/>
+    </row>
+    <row r="112" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W112" s="7"/>
+      <c r="Y112" s="7"/>
+    </row>
+    <row r="113" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W113" s="7"/>
+      <c r="Y113" s="7"/>
+    </row>
+    <row r="114" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W114" s="7"/>
+      <c r="Y114" s="7"/>
+    </row>
+    <row r="115" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W115" s="7"/>
+      <c r="Y115" s="7"/>
+    </row>
+    <row r="116" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W116" s="7"/>
+      <c r="Y116" s="7"/>
+    </row>
+    <row r="117" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W117" s="7"/>
+      <c r="Y117" s="7"/>
+    </row>
+    <row r="118" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W118" s="7"/>
+      <c r="Y118" s="7"/>
+    </row>
+    <row r="119" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W119" s="7"/>
+      <c r="Y119" s="7"/>
+    </row>
+    <row r="120" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W120" s="7"/>
+      <c r="Y120" s="7"/>
+    </row>
+    <row r="121" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W121" s="7"/>
+      <c r="Y121" s="7"/>
+    </row>
+    <row r="122" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W122" s="7"/>
+      <c r="Y122" s="7"/>
+    </row>
+    <row r="123" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W123" s="7"/>
+      <c r="Y123" s="7"/>
+    </row>
+    <row r="124" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W124" s="7"/>
+      <c r="Y124" s="7"/>
+    </row>
+    <row r="125" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W125" s="7"/>
+      <c r="Y125" s="7"/>
+    </row>
+    <row r="126" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W126" s="7"/>
+      <c r="Y126" s="7"/>
+    </row>
+    <row r="127" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W127" s="7"/>
+      <c r="Y127" s="7"/>
+    </row>
+    <row r="128" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W128" s="7"/>
+      <c r="Y128" s="7"/>
+    </row>
+    <row r="129" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W129" s="7"/>
+      <c r="Y129" s="7"/>
+    </row>
+    <row r="130" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W130" s="7"/>
+      <c r="Y130" s="7"/>
+    </row>
+    <row r="131" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W131" s="7"/>
+      <c r="Y131" s="7"/>
+    </row>
+    <row r="132" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W132" s="7"/>
+      <c r="Y132" s="7"/>
+    </row>
+    <row r="133" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W133" s="7"/>
+      <c r="Y133" s="7"/>
+    </row>
+    <row r="134" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W134" s="7"/>
+      <c r="Y134" s="7"/>
+    </row>
+    <row r="135" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W135" s="7"/>
+      <c r="Y135" s="7"/>
+    </row>
+    <row r="136" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W136" s="7"/>
+      <c r="Y136" s="7"/>
+    </row>
+    <row r="137" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W137" s="7"/>
+      <c r="Y137" s="7"/>
+    </row>
+    <row r="138" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W138" s="7"/>
+      <c r="Y138" s="7"/>
+    </row>
+    <row r="139" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W139" s="7"/>
+      <c r="Y139" s="7"/>
+    </row>
+    <row r="140" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W140" s="7"/>
+      <c r="Y140" s="7"/>
+    </row>
+    <row r="141" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W141" s="7"/>
+      <c r="Y141" s="7"/>
+    </row>
+    <row r="142" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W142" s="7"/>
+      <c r="Y142" s="7"/>
+    </row>
+    <row r="143" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W143" s="7"/>
+      <c r="Y143" s="7"/>
+    </row>
+    <row r="144" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W144" s="7"/>
+      <c r="Y144" s="7"/>
+    </row>
+    <row r="145" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W145" s="7"/>
+      <c r="Y145" s="7"/>
+    </row>
+    <row r="146" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W146" s="7"/>
+      <c r="Y146" s="7"/>
+    </row>
+    <row r="147" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W147" s="7"/>
+      <c r="Y147" s="7"/>
+    </row>
+    <row r="148" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W148" s="7"/>
+      <c r="Y148" s="7"/>
+    </row>
+    <row r="149" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W149" s="7"/>
+      <c r="Y149" s="7"/>
+    </row>
+    <row r="150" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W150" s="7"/>
+      <c r="Y150" s="7"/>
+    </row>
+    <row r="151" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W151" s="7"/>
+      <c r="Y151" s="7"/>
+    </row>
+    <row r="152" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W152" s="7"/>
+      <c r="Y152" s="7"/>
+    </row>
+    <row r="153" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W153" s="7"/>
+      <c r="Y153" s="7"/>
+    </row>
+    <row r="154" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W154" s="7"/>
+      <c r="Y154" s="7"/>
+    </row>
+    <row r="155" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W155" s="7"/>
+      <c r="Y155" s="7"/>
+    </row>
+    <row r="156" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W156" s="7"/>
+      <c r="Y156" s="7"/>
+    </row>
+    <row r="157" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W157" s="7"/>
+      <c r="Y157" s="7"/>
+    </row>
+    <row r="158" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W158" s="7"/>
+      <c r="Y158" s="7"/>
+    </row>
+    <row r="159" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W159" s="7"/>
+      <c r="Y159" s="7"/>
+    </row>
+    <row r="160" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W160" s="7"/>
+      <c r="Y160" s="7"/>
+    </row>
+    <row r="161" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W161" s="7"/>
+      <c r="Y161" s="7"/>
+    </row>
+    <row r="162" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W162" s="7"/>
+      <c r="Y162" s="7"/>
+    </row>
+    <row r="163" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W163" s="7"/>
+      <c r="Y163" s="7"/>
+    </row>
+    <row r="164" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W164" s="7"/>
+      <c r="Y164" s="7"/>
+    </row>
+    <row r="165" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W165" s="7"/>
+      <c r="Y165" s="7"/>
+    </row>
+    <row r="166" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W166" s="7"/>
+      <c r="Y166" s="7"/>
+    </row>
+    <row r="167" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W167" s="7"/>
+      <c r="Y167" s="7"/>
+    </row>
+    <row r="168" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W168" s="7"/>
+      <c r="Y168" s="7"/>
+    </row>
+    <row r="169" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W169" s="7"/>
+      <c r="Y169" s="7"/>
+    </row>
+    <row r="170" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W170" s="7"/>
+      <c r="Y170" s="7"/>
+    </row>
+    <row r="171" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W171" s="7"/>
+      <c r="Y171" s="7"/>
+    </row>
+    <row r="172" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W172" s="7"/>
+      <c r="Y172" s="7"/>
+    </row>
+    <row r="173" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W173" s="7"/>
+      <c r="Y173" s="7"/>
+    </row>
+    <row r="174" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W174" s="7"/>
+      <c r="Y174" s="7"/>
+    </row>
+    <row r="175" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W175" s="7"/>
+      <c r="Y175" s="7"/>
+    </row>
+    <row r="176" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W176" s="7"/>
+      <c r="Y176" s="7"/>
+    </row>
+    <row r="177" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W177" s="7"/>
+      <c r="Y177" s="7"/>
+    </row>
+    <row r="178" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W178" s="7"/>
+      <c r="Y178" s="7"/>
+    </row>
+    <row r="179" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W179" s="7"/>
+      <c r="Y179" s="7"/>
+    </row>
+    <row r="180" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W180" s="7"/>
+      <c r="Y180" s="7"/>
+    </row>
+    <row r="181" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W181" s="7"/>
+      <c r="Y181" s="7"/>
+    </row>
+    <row r="182" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W182" s="7"/>
+      <c r="Y182" s="7"/>
+    </row>
+    <row r="183" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W183" s="7"/>
+      <c r="Y183" s="7"/>
+    </row>
+    <row r="184" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W184" s="7"/>
+      <c r="Y184" s="7"/>
+    </row>
+    <row r="185" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W185" s="7"/>
+      <c r="Y185" s="7"/>
+    </row>
+    <row r="186" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W186" s="7"/>
+      <c r="Y186" s="7"/>
+    </row>
+    <row r="187" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W187" s="7"/>
+      <c r="Y187" s="7"/>
+    </row>
+    <row r="188" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W188" s="7"/>
+      <c r="Y188" s="7"/>
+    </row>
+    <row r="189" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W189" s="7"/>
+      <c r="Y189" s="7"/>
+    </row>
+    <row r="190" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W190" s="7"/>
+      <c r="Y190" s="7"/>
+    </row>
+    <row r="191" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W191" s="7"/>
+      <c r="Y191" s="7"/>
+    </row>
+    <row r="192" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W192" s="7"/>
+      <c r="Y192" s="7"/>
+    </row>
+    <row r="193" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W193" s="7"/>
+      <c r="Y193" s="7"/>
+    </row>
+    <row r="194" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W194" s="7"/>
+      <c r="Y194" s="7"/>
+    </row>
+    <row r="195" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W195" s="7"/>
+      <c r="Y195" s="7"/>
+    </row>
+    <row r="196" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W196" s="7"/>
+      <c r="Y196" s="7"/>
+    </row>
+    <row r="197" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W197" s="7"/>
+      <c r="Y197" s="7"/>
+    </row>
+    <row r="198" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W198" s="7"/>
+      <c r="Y198" s="7"/>
+    </row>
+    <row r="199" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W199" s="7"/>
+      <c r="Y199" s="7"/>
+    </row>
+    <row r="200" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W200" s="7"/>
+      <c r="Y200" s="7"/>
+    </row>
+    <row r="201" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W201" s="7"/>
+      <c r="Y201" s="7"/>
+    </row>
+    <row r="202" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W202" s="7"/>
+      <c r="Y202" s="7"/>
+    </row>
+    <row r="203" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W203" s="7"/>
+      <c r="Y203" s="7"/>
+    </row>
+    <row r="204" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W204" s="7"/>
+      <c r="Y204" s="7"/>
+    </row>
+    <row r="205" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W205" s="7"/>
+      <c r="Y205" s="7"/>
+    </row>
+    <row r="206" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W206" s="7"/>
+      <c r="Y206" s="7"/>
+    </row>
+    <row r="207" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W207" s="7"/>
+      <c r="Y207" s="7"/>
+    </row>
+    <row r="208" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W208" s="7"/>
+      <c r="Y208" s="7"/>
+    </row>
+    <row r="209" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W209" s="7"/>
+      <c r="Y209" s="7"/>
+    </row>
+    <row r="210" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W210" s="7"/>
+      <c r="Y210" s="7"/>
+    </row>
+    <row r="211" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W211" s="7"/>
+      <c r="Y211" s="7"/>
+    </row>
+    <row r="212" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W212" s="7"/>
+      <c r="Y212" s="7"/>
+    </row>
+    <row r="213" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W213" s="7"/>
+      <c r="Y213" s="7"/>
+    </row>
+    <row r="214" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W214" s="7"/>
+      <c r="Y214" s="7"/>
+    </row>
+    <row r="215" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W215" s="7"/>
+      <c r="Y215" s="7"/>
+    </row>
+    <row r="216" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W216" s="7"/>
+      <c r="Y216" s="7"/>
+    </row>
+    <row r="217" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W217" s="7"/>
+      <c r="Y217" s="7"/>
+    </row>
+    <row r="218" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W218" s="7"/>
+      <c r="Y218" s="7"/>
+    </row>
+    <row r="219" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W219" s="7"/>
+      <c r="Y219" s="7"/>
+    </row>
+    <row r="220" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W220" s="7"/>
+      <c r="Y220" s="7"/>
+    </row>
+    <row r="221" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W221" s="7"/>
+      <c r="Y221" s="7"/>
+    </row>
+    <row r="222" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W222" s="7"/>
+      <c r="Y222" s="7"/>
+    </row>
+    <row r="223" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W223" s="7"/>
+      <c r="Y223" s="7"/>
+    </row>
+    <row r="224" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W224" s="7"/>
+      <c r="Y224" s="7"/>
+    </row>
+    <row r="225" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W225" s="7"/>
+      <c r="Y225" s="7"/>
+    </row>
+    <row r="226" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W226" s="7"/>
+      <c r="Y226" s="7"/>
+    </row>
+    <row r="227" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W227" s="7"/>
+      <c r="Y227" s="7"/>
+    </row>
+    <row r="228" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W228" s="7"/>
+      <c r="Y228" s="7"/>
+    </row>
+    <row r="229" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W229" s="7"/>
+      <c r="Y229" s="7"/>
+    </row>
+    <row r="230" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W230" s="7"/>
+      <c r="Y230" s="7"/>
+    </row>
+    <row r="231" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W231" s="7"/>
+      <c r="Y231" s="7"/>
+    </row>
+    <row r="232" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W232" s="7"/>
+      <c r="Y232" s="7"/>
+    </row>
+    <row r="233" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W233" s="7"/>
+      <c r="Y233" s="7"/>
+    </row>
+    <row r="234" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W234" s="7"/>
+      <c r="Y234" s="7"/>
+    </row>
+    <row r="235" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W235" s="7"/>
+      <c r="Y235" s="7"/>
+    </row>
+    <row r="236" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W236" s="7"/>
+      <c r="Y236" s="7"/>
+    </row>
+    <row r="237" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W237" s="7"/>
+      <c r="Y237" s="7"/>
+    </row>
+    <row r="238" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W238" s="7"/>
+      <c r="Y238" s="7"/>
+    </row>
+    <row r="239" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W239" s="7"/>
+      <c r="Y239" s="7"/>
+    </row>
+    <row r="240" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W240" s="7"/>
+      <c r="Y240" s="7"/>
+    </row>
+    <row r="241" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W241" s="7"/>
+      <c r="Y241" s="7"/>
+    </row>
+    <row r="242" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W242" s="7"/>
+      <c r="Y242" s="7"/>
+    </row>
+    <row r="243" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W243" s="7"/>
+      <c r="Y243" s="7"/>
+    </row>
+    <row r="244" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W244" s="7"/>
+      <c r="Y244" s="7"/>
+    </row>
+    <row r="245" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W245" s="7"/>
+      <c r="Y245" s="7"/>
+    </row>
+    <row r="246" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W246" s="7"/>
+      <c r="Y246" s="7"/>
+    </row>
+    <row r="247" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W247" s="7"/>
+      <c r="Y247" s="7"/>
+    </row>
+    <row r="248" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W248" s="7"/>
+      <c r="Y248" s="7"/>
+    </row>
+    <row r="249" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W249" s="7"/>
+      <c r="Y249" s="7"/>
+    </row>
+    <row r="250" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W250" s="7"/>
+      <c r="Y250" s="7"/>
+    </row>
+    <row r="251" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W251" s="7"/>
+      <c r="Y251" s="7"/>
+    </row>
+    <row r="252" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W252" s="7"/>
+      <c r="Y252" s="7"/>
+    </row>
+    <row r="253" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W253" s="7"/>
+      <c r="Y253" s="7"/>
+    </row>
+    <row r="254" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W254" s="7"/>
+      <c r="Y254" s="7"/>
+    </row>
+    <row r="255" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W255" s="7"/>
+      <c r="Y255" s="7"/>
+    </row>
+    <row r="256" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W256" s="7"/>
+      <c r="Y256" s="7"/>
+    </row>
+    <row r="257" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W257" s="7"/>
+      <c r="Y257" s="7"/>
+    </row>
+    <row r="258" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W258" s="7"/>
+      <c r="Y258" s="7"/>
+    </row>
+    <row r="259" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W259" s="7"/>
+      <c r="Y259" s="7"/>
+    </row>
+    <row r="260" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W260" s="7"/>
+      <c r="Y260" s="7"/>
+    </row>
+    <row r="261" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W261" s="7"/>
+      <c r="Y261" s="7"/>
+    </row>
+    <row r="262" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W262" s="7"/>
+      <c r="Y262" s="7"/>
+    </row>
+    <row r="263" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W263" s="7"/>
+      <c r="Y263" s="7"/>
+    </row>
+    <row r="264" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W264" s="7"/>
+      <c r="Y264" s="7"/>
+    </row>
+    <row r="265" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W265" s="7"/>
+      <c r="Y265" s="7"/>
+    </row>
+    <row r="266" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W266" s="7"/>
+      <c r="Y266" s="7"/>
+    </row>
+    <row r="267" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W267" s="7"/>
+      <c r="Y267" s="7"/>
+    </row>
+    <row r="268" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W268" s="7"/>
+      <c r="Y268" s="7"/>
+    </row>
+    <row r="269" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W269" s="7"/>
+      <c r="Y269" s="7"/>
+    </row>
+    <row r="270" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W270" s="7"/>
+      <c r="Y270" s="7"/>
+    </row>
+    <row r="271" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W271" s="7"/>
+      <c r="Y271" s="7"/>
+    </row>
+    <row r="272" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W272" s="7"/>
+      <c r="Y272" s="7"/>
+    </row>
+    <row r="273" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W273" s="7"/>
+      <c r="Y273" s="7"/>
+    </row>
+    <row r="274" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W274" s="7"/>
+      <c r="Y274" s="7"/>
+    </row>
+    <row r="275" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W275" s="7"/>
+      <c r="Y275" s="7"/>
+    </row>
+    <row r="276" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W276" s="7"/>
+      <c r="Y276" s="7"/>
+    </row>
+    <row r="277" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W277" s="7"/>
+      <c r="Y277" s="7"/>
+    </row>
+    <row r="278" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W278" s="7"/>
+      <c r="Y278" s="7"/>
+    </row>
+    <row r="279" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W279" s="7"/>
+      <c r="Y279" s="7"/>
+    </row>
+    <row r="280" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W280" s="7"/>
+      <c r="Y280" s="7"/>
+    </row>
+    <row r="281" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W281" s="7"/>
+      <c r="Y281" s="7"/>
+    </row>
+    <row r="282" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W282" s="7"/>
+      <c r="Y282" s="7"/>
+    </row>
+    <row r="283" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W283" s="7"/>
+      <c r="Y283" s="7"/>
+    </row>
+    <row r="284" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W284" s="7"/>
+      <c r="Y284" s="7"/>
+    </row>
+    <row r="285" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W285" s="7"/>
+      <c r="Y285" s="7"/>
+    </row>
+    <row r="286" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W286" s="7"/>
+      <c r="Y286" s="7"/>
+    </row>
+    <row r="287" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W287" s="7"/>
+      <c r="Y287" s="7"/>
+    </row>
+    <row r="288" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W288" s="7"/>
+      <c r="Y288" s="7"/>
+    </row>
+    <row r="289" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W289" s="7"/>
+      <c r="Y289" s="7"/>
+    </row>
+    <row r="290" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W290" s="7"/>
+      <c r="Y290" s="7"/>
+    </row>
+    <row r="291" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W291" s="7"/>
+      <c r="Y291" s="7"/>
+    </row>
+    <row r="292" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W292" s="7"/>
+      <c r="Y292" s="7"/>
+    </row>
+    <row r="293" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W293" s="7"/>
+      <c r="Y293" s="7"/>
+    </row>
+    <row r="294" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W294" s="7"/>
+      <c r="Y294" s="7"/>
+    </row>
+    <row r="295" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W295" s="7"/>
+      <c r="Y295" s="7"/>
+    </row>
+    <row r="296" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W296" s="7"/>
+      <c r="Y296" s="7"/>
+    </row>
+    <row r="297" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W297" s="7"/>
+      <c r="Y297" s="7"/>
+    </row>
+    <row r="298" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W298" s="7"/>
+      <c r="Y298" s="7"/>
+    </row>
+    <row r="299" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W299" s="7"/>
+      <c r="Y299" s="7"/>
+    </row>
+    <row r="300" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W300" s="7"/>
+      <c r="Y300" s="7"/>
+    </row>
+    <row r="301" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W301" s="7"/>
+      <c r="Y301" s="7"/>
+    </row>
+    <row r="302" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W302" s="7"/>
+      <c r="Y302" s="7"/>
+    </row>
+    <row r="303" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W303" s="7"/>
+      <c r="Y303" s="7"/>
+    </row>
+    <row r="304" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W304" s="7"/>
+      <c r="Y304" s="7"/>
+    </row>
+    <row r="305" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W305" s="7"/>
+      <c r="Y305" s="7"/>
+    </row>
+    <row r="306" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W306" s="7"/>
+      <c r="Y306" s="7"/>
+    </row>
+    <row r="307" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W307" s="7"/>
+      <c r="Y307" s="7"/>
+    </row>
+    <row r="308" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W308" s="7"/>
+      <c r="Y308" s="7"/>
+    </row>
+    <row r="309" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W309" s="7"/>
+      <c r="Y309" s="7"/>
+    </row>
+    <row r="310" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W310" s="7"/>
+      <c r="Y310" s="7"/>
+    </row>
+    <row r="311" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W311" s="7"/>
+      <c r="Y311" s="7"/>
+    </row>
+    <row r="312" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W312" s="7"/>
+      <c r="Y312" s="7"/>
+    </row>
+    <row r="313" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W313" s="7"/>
+      <c r="Y313" s="7"/>
+    </row>
+    <row r="314" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W314" s="7"/>
+      <c r="Y314" s="7"/>
+    </row>
+    <row r="315" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W315" s="7"/>
+      <c r="Y315" s="7"/>
+    </row>
+    <row r="316" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W316" s="7"/>
+      <c r="Y316" s="7"/>
+    </row>
+    <row r="317" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W317" s="7"/>
+      <c r="Y317" s="7"/>
+    </row>
+    <row r="318" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W318" s="7"/>
+      <c r="Y318" s="7"/>
+    </row>
+    <row r="319" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W319" s="7"/>
+      <c r="Y319" s="7"/>
+    </row>
+    <row r="320" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W320" s="7"/>
+      <c r="Y320" s="7"/>
+    </row>
+    <row r="321" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W321" s="7"/>
+      <c r="Y321" s="7"/>
+    </row>
+    <row r="322" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W322" s="7"/>
+      <c r="Y322" s="7"/>
+    </row>
+    <row r="323" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W323" s="7"/>
+      <c r="Y323" s="7"/>
+    </row>
+    <row r="324" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W324" s="7"/>
+      <c r="Y324" s="7"/>
+    </row>
+    <row r="325" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W325" s="7"/>
+      <c r="Y325" s="7"/>
+    </row>
+    <row r="326" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W326" s="7"/>
+      <c r="Y326" s="7"/>
+    </row>
+    <row r="327" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W327" s="7"/>
+      <c r="Y327" s="7"/>
+    </row>
+    <row r="328" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W328" s="7"/>
+      <c r="Y328" s="7"/>
+    </row>
+    <row r="329" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W329" s="7"/>
+      <c r="Y329" s="7"/>
+    </row>
+    <row r="330" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W330" s="7"/>
+      <c r="Y330" s="7"/>
+    </row>
+    <row r="331" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W331" s="7"/>
+      <c r="Y331" s="7"/>
+    </row>
+    <row r="332" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W332" s="7"/>
+      <c r="Y332" s="7"/>
+    </row>
+    <row r="333" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W333" s="7"/>
+      <c r="Y333" s="7"/>
+    </row>
+    <row r="334" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W334" s="7"/>
+      <c r="Y334" s="7"/>
+    </row>
+    <row r="335" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W335" s="7"/>
+      <c r="Y335" s="7"/>
+    </row>
+    <row r="336" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W336" s="7"/>
+      <c r="Y336" s="7"/>
+    </row>
+    <row r="337" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W337" s="7"/>
+      <c r="Y337" s="7"/>
+    </row>
+    <row r="338" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W338" s="7"/>
+      <c r="Y338" s="7"/>
+    </row>
+    <row r="339" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W339" s="7"/>
+      <c r="Y339" s="7"/>
+    </row>
+    <row r="340" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W340" s="7"/>
+      <c r="Y340" s="7"/>
+    </row>
+    <row r="341" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W341" s="7"/>
+      <c r="Y341" s="7"/>
+    </row>
+    <row r="342" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W342" s="7"/>
+      <c r="Y342" s="7"/>
+    </row>
+    <row r="343" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W343" s="7"/>
+      <c r="Y343" s="7"/>
+    </row>
+    <row r="344" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W344" s="7"/>
+      <c r="Y344" s="7"/>
+    </row>
+    <row r="345" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W345" s="7"/>
+      <c r="Y345" s="7"/>
+    </row>
+    <row r="346" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W346" s="7"/>
+      <c r="Y346" s="7"/>
+    </row>
+    <row r="347" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W347" s="7"/>
+      <c r="Y347" s="7"/>
+    </row>
+    <row r="348" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W348" s="7"/>
+      <c r="Y348" s="7"/>
+    </row>
+    <row r="349" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W349" s="7"/>
+      <c r="Y349" s="7"/>
+    </row>
+    <row r="350" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W350" s="7"/>
+      <c r="Y350" s="7"/>
+    </row>
+    <row r="351" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W351" s="7"/>
+      <c r="Y351" s="7"/>
+    </row>
+    <row r="352" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W352" s="7"/>
+      <c r="Y352" s="7"/>
+    </row>
+    <row r="353" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W353" s="7"/>
+      <c r="Y353" s="7"/>
+    </row>
+    <row r="354" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W354" s="7"/>
+      <c r="Y354" s="7"/>
+    </row>
+    <row r="355" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W355" s="7"/>
+      <c r="Y355" s="7"/>
+    </row>
+    <row r="356" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W356" s="7"/>
+      <c r="Y356" s="7"/>
+    </row>
+    <row r="357" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W357" s="7"/>
+      <c r="Y357" s="7"/>
+    </row>
+    <row r="358" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W358" s="7"/>
+      <c r="Y358" s="7"/>
+    </row>
+    <row r="359" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W359" s="7"/>
+      <c r="Y359" s="7"/>
+    </row>
+    <row r="360" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W360" s="7"/>
+      <c r="Y360" s="7"/>
+    </row>
+    <row r="361" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W361" s="7"/>
+      <c r="Y361" s="7"/>
+    </row>
+    <row r="362" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W362" s="7"/>
+      <c r="Y362" s="7"/>
+    </row>
+    <row r="363" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W363" s="7"/>
+      <c r="Y363" s="7"/>
+    </row>
+    <row r="364" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W364" s="7"/>
+      <c r="Y364" s="7"/>
+    </row>
+    <row r="365" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W365" s="7"/>
+      <c r="Y365" s="7"/>
+    </row>
+    <row r="366" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W366" s="7"/>
+      <c r="Y366" s="7"/>
+    </row>
+    <row r="367" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W367" s="7"/>
+      <c r="Y367" s="7"/>
+    </row>
+    <row r="368" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W368" s="7"/>
+      <c r="Y368" s="7"/>
+    </row>
+    <row r="369" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W369" s="7"/>
+      <c r="Y369" s="7"/>
+    </row>
+    <row r="370" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W370" s="7"/>
+      <c r="Y370" s="7"/>
+    </row>
+    <row r="371" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W371" s="7"/>
+      <c r="Y371" s="7"/>
+    </row>
+    <row r="372" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W372" s="7"/>
+      <c r="Y372" s="7"/>
+    </row>
+    <row r="373" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W373" s="7"/>
+      <c r="Y373" s="7"/>
+    </row>
+    <row r="374" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W374" s="7"/>
+      <c r="Y374" s="7"/>
+    </row>
+    <row r="375" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W375" s="7"/>
+      <c r="Y375" s="7"/>
+    </row>
+    <row r="376" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W376" s="7"/>
+      <c r="Y376" s="7"/>
+    </row>
+    <row r="377" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W377" s="7"/>
+      <c r="Y377" s="7"/>
+    </row>
+    <row r="378" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W378" s="7"/>
+      <c r="Y378" s="7"/>
+    </row>
+    <row r="379" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W379" s="7"/>
+      <c r="Y379" s="7"/>
+    </row>
+    <row r="380" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W380" s="7"/>
+      <c r="Y380" s="7"/>
+    </row>
+    <row r="381" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W381" s="7"/>
+      <c r="Y381" s="7"/>
+    </row>
+    <row r="382" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W382" s="7"/>
+      <c r="Y382" s="7"/>
+    </row>
+    <row r="383" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W383" s="7"/>
+      <c r="Y383" s="7"/>
+    </row>
+    <row r="384" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W384" s="7"/>
+      <c r="Y384" s="7"/>
+    </row>
+    <row r="385" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W385" s="7"/>
+      <c r="Y385" s="7"/>
+    </row>
+    <row r="386" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W386" s="7"/>
+      <c r="Y386" s="7"/>
+    </row>
+    <row r="387" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W387" s="7"/>
+      <c r="Y387" s="7"/>
+    </row>
+    <row r="388" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W388" s="7"/>
+      <c r="Y388" s="7"/>
+    </row>
+    <row r="389" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W389" s="7"/>
+      <c r="Y389" s="7"/>
+    </row>
+    <row r="390" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W390" s="7"/>
+      <c r="Y390" s="7"/>
+    </row>
+    <row r="391" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W391" s="7"/>
+      <c r="Y391" s="7"/>
+    </row>
+    <row r="392" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W392" s="7"/>
+      <c r="Y392" s="7"/>
+    </row>
+    <row r="393" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W393" s="7"/>
+      <c r="Y393" s="7"/>
+    </row>
+    <row r="394" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W394" s="7"/>
+      <c r="Y394" s="7"/>
+    </row>
+    <row r="395" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W395" s="7"/>
+      <c r="Y395" s="7"/>
+    </row>
+    <row r="396" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W396" s="7"/>
+      <c r="Y396" s="7"/>
+    </row>
+    <row r="397" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W397" s="7"/>
+      <c r="Y397" s="7"/>
+    </row>
+    <row r="398" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W398" s="7"/>
+      <c r="Y398" s="7"/>
+    </row>
+    <row r="399" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W399" s="7"/>
+      <c r="Y399" s="7"/>
+    </row>
+    <row r="400" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W400" s="7"/>
+      <c r="Y400" s="7"/>
+    </row>
+    <row r="401" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W401" s="7"/>
+      <c r="Y401" s="7"/>
+    </row>
+    <row r="402" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W402" s="7"/>
+      <c r="Y402" s="7"/>
+    </row>
+    <row r="403" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W403" s="7"/>
+      <c r="Y403" s="7"/>
+    </row>
+    <row r="404" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W404" s="7"/>
+      <c r="Y404" s="7"/>
+    </row>
+    <row r="405" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W405" s="7"/>
+      <c r="Y405" s="7"/>
+    </row>
+    <row r="406" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W406" s="7"/>
+      <c r="Y406" s="7"/>
+    </row>
+    <row r="407" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W407" s="7"/>
+      <c r="Y407" s="7"/>
+    </row>
+    <row r="408" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W408" s="7"/>
+      <c r="Y408" s="7"/>
+    </row>
+    <row r="409" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W409" s="7"/>
+      <c r="Y409" s="7"/>
+    </row>
+    <row r="410" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W410" s="7"/>
+      <c r="Y410" s="7"/>
+    </row>
+    <row r="411" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W411" s="7"/>
+      <c r="Y411" s="7"/>
+    </row>
+    <row r="412" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W412" s="7"/>
+      <c r="Y412" s="7"/>
+    </row>
+    <row r="413" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W413" s="7"/>
+      <c r="Y413" s="7"/>
+    </row>
+    <row r="414" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W414" s="7"/>
+      <c r="Y414" s="7"/>
+    </row>
+    <row r="415" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W415" s="7"/>
+      <c r="Y415" s="7"/>
+    </row>
+    <row r="416" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W416" s="7"/>
+      <c r="Y416" s="7"/>
+    </row>
+    <row r="417" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W417" s="7"/>
+      <c r="Y417" s="7"/>
+    </row>
+    <row r="418" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W418" s="7"/>
+      <c r="Y418" s="7"/>
+    </row>
+    <row r="419" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W419" s="7"/>
+      <c r="Y419" s="7"/>
+    </row>
+    <row r="420" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W420" s="7"/>
+      <c r="Y420" s="7"/>
+    </row>
+    <row r="421" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W421" s="7"/>
+      <c r="Y421" s="7"/>
+    </row>
+    <row r="422" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W422" s="7"/>
+      <c r="Y422" s="7"/>
+    </row>
+    <row r="423" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W423" s="7"/>
+      <c r="Y423" s="7"/>
+    </row>
+    <row r="424" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W424" s="7"/>
+      <c r="Y424" s="7"/>
+    </row>
+    <row r="425" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W425" s="7"/>
+      <c r="Y425" s="7"/>
+    </row>
+    <row r="426" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W426" s="7"/>
+      <c r="Y426" s="7"/>
+    </row>
+    <row r="427" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W427" s="7"/>
+      <c r="Y427" s="7"/>
+    </row>
+    <row r="428" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W428" s="7"/>
+      <c r="Y428" s="7"/>
+    </row>
+    <row r="429" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W429" s="7"/>
+      <c r="Y429" s="7"/>
+    </row>
+    <row r="430" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W430" s="7"/>
+      <c r="Y430" s="7"/>
+    </row>
+    <row r="431" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W431" s="7"/>
+      <c r="Y431" s="7"/>
+    </row>
+    <row r="432" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W432" s="7"/>
+      <c r="Y432" s="7"/>
+    </row>
+    <row r="433" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W433" s="7"/>
+      <c r="Y433" s="7"/>
+    </row>
+    <row r="434" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W434" s="7"/>
+      <c r="Y434" s="7"/>
+    </row>
+    <row r="435" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W435" s="7"/>
+      <c r="Y435" s="7"/>
+    </row>
+    <row r="436" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W436" s="7"/>
+      <c r="Y436" s="7"/>
+    </row>
+    <row r="437" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W437" s="7"/>
+      <c r="Y437" s="7"/>
+    </row>
+    <row r="438" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W438" s="7"/>
+      <c r="Y438" s="7"/>
+    </row>
+    <row r="439" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W439" s="7"/>
+      <c r="Y439" s="7"/>
+    </row>
+    <row r="440" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W440" s="7"/>
+      <c r="Y440" s="7"/>
+    </row>
+    <row r="441" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W441" s="7"/>
+      <c r="Y441" s="7"/>
+    </row>
+    <row r="442" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W442" s="7"/>
+      <c r="Y442" s="7"/>
+    </row>
+    <row r="443" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W443" s="7"/>
+      <c r="Y443" s="7"/>
+    </row>
+    <row r="444" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W444" s="7"/>
+      <c r="Y444" s="7"/>
+    </row>
+    <row r="445" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W445" s="7"/>
+      <c r="Y445" s="7"/>
+    </row>
+    <row r="446" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W446" s="7"/>
+      <c r="Y446" s="7"/>
+    </row>
+    <row r="447" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W447" s="7"/>
+      <c r="Y447" s="7"/>
+    </row>
+    <row r="448" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W448" s="7"/>
+      <c r="Y448" s="7"/>
+    </row>
+    <row r="449" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W449" s="7"/>
+      <c r="Y449" s="7"/>
+    </row>
+    <row r="450" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W450" s="7"/>
+      <c r="Y450" s="7"/>
+    </row>
+    <row r="451" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W451" s="7"/>
+      <c r="Y451" s="7"/>
+    </row>
+    <row r="452" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W452" s="7"/>
+      <c r="Y452" s="7"/>
+    </row>
+    <row r="453" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W453" s="7"/>
+      <c r="Y453" s="7"/>
+    </row>
+    <row r="454" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W454" s="7"/>
+      <c r="Y454" s="7"/>
+    </row>
+    <row r="455" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W455" s="7"/>
+      <c r="Y455" s="7"/>
+    </row>
+    <row r="456" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W456" s="7"/>
+      <c r="Y456" s="7"/>
+    </row>
+    <row r="457" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W457" s="7"/>
+      <c r="Y457" s="7"/>
+    </row>
+    <row r="458" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W458" s="7"/>
+      <c r="Y458" s="7"/>
+    </row>
+    <row r="459" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W459" s="7"/>
+      <c r="Y459" s="7"/>
+    </row>
+    <row r="460" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W460" s="7"/>
+      <c r="Y460" s="7"/>
+    </row>
+    <row r="461" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W461" s="7"/>
+      <c r="Y461" s="7"/>
+    </row>
+    <row r="462" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W462" s="7"/>
+      <c r="Y462" s="7"/>
+    </row>
+    <row r="463" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W463" s="7"/>
+      <c r="Y463" s="7"/>
+    </row>
+    <row r="464" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W464" s="7"/>
+      <c r="Y464" s="7"/>
+    </row>
+    <row r="465" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W465" s="7"/>
+      <c r="Y465" s="7"/>
+    </row>
+    <row r="466" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W466" s="7"/>
+      <c r="Y466" s="7"/>
+    </row>
+    <row r="467" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W467" s="7"/>
+      <c r="Y467" s="7"/>
+    </row>
+    <row r="468" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W468" s="7"/>
+      <c r="Y468" s="7"/>
+    </row>
+    <row r="469" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W469" s="7"/>
+      <c r="Y469" s="7"/>
+    </row>
+    <row r="470" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W470" s="7"/>
+      <c r="Y470" s="7"/>
+    </row>
+    <row r="471" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W471" s="7"/>
+      <c r="Y471" s="7"/>
+    </row>
+    <row r="472" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W472" s="7"/>
+      <c r="Y472" s="7"/>
+    </row>
+    <row r="473" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W473" s="7"/>
+      <c r="Y473" s="7"/>
+    </row>
+    <row r="474" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W474" s="7"/>
+      <c r="Y474" s="7"/>
+    </row>
+    <row r="475" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W475" s="7"/>
+      <c r="Y475" s="7"/>
+    </row>
+    <row r="476" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W476" s="7"/>
+      <c r="Y476" s="7"/>
+    </row>
+    <row r="477" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W477" s="7"/>
+      <c r="Y477" s="7"/>
+    </row>
+    <row r="478" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W478" s="7"/>
+      <c r="Y478" s="7"/>
+    </row>
+    <row r="479" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W479" s="7"/>
+      <c r="Y479" s="7"/>
+    </row>
+    <row r="480" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W480" s="7"/>
+      <c r="Y480" s="7"/>
+    </row>
+    <row r="481" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W481" s="7"/>
+      <c r="Y481" s="7"/>
+    </row>
+    <row r="482" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W482" s="7"/>
+      <c r="Y482" s="7"/>
+    </row>
+    <row r="483" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W483" s="7"/>
+      <c r="Y483" s="7"/>
+    </row>
+    <row r="484" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W484" s="7"/>
+      <c r="Y484" s="7"/>
+    </row>
+    <row r="485" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W485" s="7"/>
+      <c r="Y485" s="7"/>
+    </row>
+    <row r="486" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W486" s="7"/>
+      <c r="Y486" s="7"/>
+    </row>
+    <row r="487" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W487" s="7"/>
+      <c r="Y487" s="7"/>
+    </row>
+    <row r="488" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W488" s="7"/>
+      <c r="Y488" s="7"/>
+    </row>
+    <row r="489" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W489" s="7"/>
+      <c r="Y489" s="7"/>
+    </row>
+    <row r="490" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W490" s="7"/>
+      <c r="Y490" s="7"/>
+    </row>
+    <row r="491" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W491" s="7"/>
+      <c r="Y491" s="7"/>
+    </row>
+    <row r="492" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W492" s="7"/>
+      <c r="Y492" s="7"/>
+    </row>
+    <row r="493" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W493" s="7"/>
+      <c r="Y493" s="7"/>
+    </row>
+    <row r="494" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W494" s="7"/>
+      <c r="Y494" s="7"/>
+    </row>
+    <row r="495" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W495" s="7"/>
+      <c r="Y495" s="7"/>
+    </row>
+    <row r="496" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W496" s="7"/>
+      <c r="Y496" s="7"/>
+    </row>
+    <row r="497" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W497" s="7"/>
+      <c r="Y497" s="7"/>
+    </row>
+    <row r="498" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W498" s="7"/>
+      <c r="Y498" s="7"/>
+    </row>
+    <row r="499" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W499" s="7"/>
+      <c r="Y499" s="7"/>
+    </row>
+    <row r="500" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W500" s="7"/>
+      <c r="Y500" s="7"/>
+    </row>
+    <row r="501" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W501" s="7"/>
+      <c r="Y501" s="7"/>
+    </row>
+    <row r="502" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W502" s="7"/>
+      <c r="Y502" s="7"/>
+    </row>
+    <row r="503" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W503" s="7"/>
+      <c r="Y503" s="7"/>
+    </row>
+    <row r="504" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W504" s="7"/>
+      <c r="Y504" s="7"/>
+    </row>
+    <row r="505" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W505" s="7"/>
+      <c r="Y505" s="7"/>
+    </row>
+    <row r="506" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W506" s="7"/>
+      <c r="Y506" s="7"/>
+    </row>
+    <row r="507" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W507" s="7"/>
+      <c r="Y507" s="7"/>
+    </row>
+    <row r="508" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W508" s="7"/>
+      <c r="Y508" s="7"/>
+    </row>
+    <row r="509" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W509" s="7"/>
+      <c r="Y509" s="7"/>
+    </row>
+    <row r="510" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W510" s="7"/>
+      <c r="Y510" s="7"/>
+    </row>
+    <row r="511" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W511" s="7"/>
+      <c r="Y511" s="7"/>
+    </row>
+    <row r="512" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W512" s="7"/>
+      <c r="Y512" s="7"/>
+    </row>
+    <row r="513" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W513" s="7"/>
+      <c r="Y513" s="7"/>
+    </row>
+    <row r="514" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W514" s="7"/>
+      <c r="Y514" s="7"/>
+    </row>
+    <row r="515" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W515" s="7"/>
+      <c r="Y515" s="7"/>
+    </row>
+    <row r="516" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W516" s="7"/>
+      <c r="Y516" s="7"/>
+    </row>
+    <row r="517" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W517" s="7"/>
+      <c r="Y517" s="7"/>
+    </row>
+    <row r="518" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W518" s="7"/>
+      <c r="Y518" s="7"/>
+    </row>
+    <row r="519" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W519" s="7"/>
+      <c r="Y519" s="7"/>
+    </row>
+    <row r="520" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W520" s="7"/>
+      <c r="Y520" s="7"/>
+    </row>
+    <row r="521" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W521" s="7"/>
+      <c r="Y521" s="7"/>
+    </row>
+    <row r="522" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W522" s="7"/>
+      <c r="Y522" s="7"/>
+    </row>
+    <row r="523" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W523" s="7"/>
+      <c r="Y523" s="7"/>
+    </row>
+    <row r="524" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W524" s="7"/>
+      <c r="Y524" s="7"/>
+    </row>
+    <row r="525" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W525" s="7"/>
+      <c r="Y525" s="7"/>
+    </row>
+    <row r="526" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W526" s="7"/>
+      <c r="Y526" s="7"/>
+    </row>
+    <row r="527" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W527" s="7"/>
+      <c r="Y527" s="7"/>
+    </row>
+    <row r="528" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W528" s="7"/>
+      <c r="Y528" s="7"/>
+    </row>
+    <row r="529" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W529" s="7"/>
+      <c r="Y529" s="7"/>
+    </row>
+    <row r="530" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W530" s="7"/>
+      <c r="Y530" s="7"/>
+    </row>
+    <row r="531" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W531" s="7"/>
+      <c r="Y531" s="7"/>
+    </row>
+    <row r="532" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W532" s="7"/>
+      <c r="Y532" s="7"/>
+    </row>
+    <row r="533" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W533" s="7"/>
+      <c r="Y533" s="7"/>
+    </row>
+    <row r="534" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W534" s="7"/>
+      <c r="Y534" s="7"/>
+    </row>
+    <row r="535" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W535" s="7"/>
+      <c r="Y535" s="7"/>
+    </row>
+    <row r="536" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W536" s="7"/>
+      <c r="Y536" s="7"/>
+    </row>
+    <row r="537" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W537" s="7"/>
+      <c r="Y537" s="7"/>
+    </row>
+    <row r="538" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W538" s="7"/>
+      <c r="Y538" s="7"/>
+    </row>
+    <row r="539" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W539" s="7"/>
+      <c r="Y539" s="7"/>
+    </row>
+    <row r="540" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W540" s="7"/>
+      <c r="Y540" s="7"/>
+    </row>
+    <row r="541" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W541" s="7"/>
+      <c r="Y541" s="7"/>
+    </row>
+    <row r="542" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W542" s="7"/>
+      <c r="Y542" s="7"/>
+    </row>
+    <row r="543" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W543" s="7"/>
+      <c r="Y543" s="7"/>
+    </row>
+    <row r="544" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W544" s="7"/>
+      <c r="Y544" s="7"/>
+    </row>
+    <row r="545" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W545" s="7"/>
+      <c r="Y545" s="7"/>
+    </row>
+    <row r="546" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W546" s="7"/>
+      <c r="Y546" s="7"/>
+    </row>
+    <row r="547" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W547" s="7"/>
+      <c r="Y547" s="7"/>
+    </row>
+    <row r="548" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W548" s="7"/>
+      <c r="Y548" s="7"/>
+    </row>
+    <row r="549" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W549" s="7"/>
+      <c r="Y549" s="7"/>
+    </row>
+    <row r="550" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W550" s="7"/>
+      <c r="Y550" s="7"/>
+    </row>
+    <row r="551" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W551" s="7"/>
+      <c r="Y551" s="7"/>
+    </row>
+    <row r="552" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W552" s="7"/>
+      <c r="Y552" s="7"/>
+    </row>
+    <row r="553" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W553" s="7"/>
+      <c r="Y553" s="7"/>
+    </row>
+    <row r="554" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W554" s="7"/>
+      <c r="Y554" s="7"/>
+    </row>
+    <row r="555" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W555" s="7"/>
+      <c r="Y555" s="7"/>
+    </row>
+    <row r="556" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W556" s="7"/>
+      <c r="Y556" s="7"/>
+    </row>
+    <row r="557" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W557" s="7"/>
+      <c r="Y557" s="7"/>
+    </row>
+    <row r="558" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W558" s="7"/>
+      <c r="Y558" s="7"/>
+    </row>
+    <row r="559" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W559" s="7"/>
+      <c r="Y559" s="7"/>
+    </row>
+    <row r="560" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W560" s="7"/>
+      <c r="Y560" s="7"/>
+    </row>
+    <row r="561" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W561" s="7"/>
+      <c r="Y561" s="7"/>
+    </row>
+    <row r="562" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W562" s="7"/>
+      <c r="Y562" s="7"/>
+    </row>
+    <row r="563" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W563" s="7"/>
+      <c r="Y563" s="7"/>
+    </row>
+    <row r="564" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W564" s="7"/>
+      <c r="Y564" s="7"/>
+    </row>
+    <row r="565" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W565" s="7"/>
+      <c r="Y565" s="7"/>
+    </row>
+    <row r="566" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W566" s="7"/>
+      <c r="Y566" s="7"/>
+    </row>
+    <row r="567" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W567" s="7"/>
+      <c r="Y567" s="7"/>
+    </row>
+    <row r="568" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W568" s="7"/>
+      <c r="Y568" s="7"/>
+    </row>
+    <row r="569" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W569" s="7"/>
+      <c r="Y569" s="7"/>
+    </row>
+    <row r="570" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W570" s="7"/>
+      <c r="Y570" s="7"/>
+    </row>
+    <row r="571" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W571" s="7"/>
+      <c r="Y571" s="7"/>
+    </row>
+    <row r="572" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W572" s="7"/>
+      <c r="Y572" s="7"/>
+    </row>
+    <row r="573" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W573" s="7"/>
+      <c r="Y573" s="7"/>
+    </row>
+    <row r="574" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W574" s="7"/>
+      <c r="Y574" s="7"/>
+    </row>
+    <row r="575" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W575" s="7"/>
+      <c r="Y575" s="7"/>
+    </row>
+    <row r="576" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W576" s="7"/>
+      <c r="Y576" s="7"/>
+    </row>
+    <row r="577" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W577" s="7"/>
+      <c r="Y577" s="7"/>
+    </row>
+    <row r="578" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W578" s="7"/>
+      <c r="Y578" s="7"/>
+    </row>
+    <row r="579" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W579" s="7"/>
+      <c r="Y579" s="7"/>
+    </row>
+    <row r="580" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W580" s="7"/>
+      <c r="Y580" s="7"/>
+    </row>
+    <row r="581" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W581" s="7"/>
+      <c r="Y581" s="7"/>
+    </row>
+    <row r="582" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W582" s="7"/>
+      <c r="Y582" s="7"/>
+    </row>
+    <row r="583" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W583" s="7"/>
+      <c r="Y583" s="7"/>
+    </row>
+    <row r="584" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W584" s="7"/>
+      <c r="Y584" s="7"/>
+    </row>
+    <row r="585" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W585" s="7"/>
+      <c r="Y585" s="7"/>
+    </row>
+    <row r="586" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W586" s="7"/>
+      <c r="Y586" s="7"/>
+    </row>
+    <row r="587" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W587" s="7"/>
+      <c r="Y587" s="7"/>
+    </row>
+    <row r="588" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W588" s="7"/>
+      <c r="Y588" s="7"/>
+    </row>
+    <row r="589" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W589" s="7"/>
+      <c r="Y589" s="7"/>
+    </row>
+    <row r="590" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W590" s="7"/>
+      <c r="Y590" s="7"/>
+    </row>
+    <row r="591" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W591" s="7"/>
+      <c r="Y591" s="7"/>
+    </row>
+    <row r="592" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W592" s="7"/>
+      <c r="Y592" s="7"/>
+    </row>
+    <row r="593" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W593" s="7"/>
+      <c r="Y593" s="7"/>
+    </row>
+    <row r="594" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W594" s="7"/>
+      <c r="Y594" s="7"/>
+    </row>
+    <row r="595" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W595" s="7"/>
+      <c r="Y595" s="7"/>
+    </row>
+    <row r="596" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W596" s="7"/>
+      <c r="Y596" s="7"/>
+    </row>
+    <row r="597" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W597" s="7"/>
+      <c r="Y597" s="7"/>
+    </row>
+    <row r="598" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W598" s="7"/>
+      <c r="Y598" s="7"/>
+    </row>
+    <row r="599" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W599" s="7"/>
+      <c r="Y599" s="7"/>
+    </row>
+    <row r="600" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W600" s="7"/>
+      <c r="Y600" s="7"/>
+    </row>
+    <row r="601" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W601" s="7"/>
+      <c r="Y601" s="7"/>
+    </row>
+    <row r="602" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W602" s="7"/>
+      <c r="Y602" s="7"/>
+    </row>
+    <row r="603" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W603" s="7"/>
+      <c r="Y603" s="7"/>
+    </row>
+    <row r="604" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W604" s="7"/>
+      <c r="Y604" s="7"/>
+    </row>
+    <row r="605" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W605" s="7"/>
+      <c r="Y605" s="7"/>
+    </row>
+    <row r="606" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W606" s="7"/>
+      <c r="Y606" s="7"/>
+    </row>
+    <row r="607" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W607" s="7"/>
+      <c r="Y607" s="7"/>
+    </row>
+    <row r="608" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W608" s="7"/>
+      <c r="Y608" s="7"/>
+    </row>
+    <row r="609" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W609" s="7"/>
+      <c r="Y609" s="7"/>
+    </row>
+    <row r="610" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W610" s="7"/>
+      <c r="Y610" s="7"/>
+    </row>
+    <row r="611" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W611" s="7"/>
+      <c r="Y611" s="7"/>
+    </row>
+    <row r="612" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W612" s="7"/>
+      <c r="Y612" s="7"/>
+    </row>
+    <row r="613" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W613" s="7"/>
+      <c r="Y613" s="7"/>
+    </row>
+    <row r="614" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W614" s="7"/>
+      <c r="Y614" s="7"/>
+    </row>
+    <row r="615" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W615" s="7"/>
+      <c r="Y615" s="7"/>
+    </row>
+    <row r="616" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W616" s="7"/>
+      <c r="Y616" s="7"/>
+    </row>
+    <row r="617" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W617" s="7"/>
+      <c r="Y617" s="7"/>
+    </row>
+    <row r="618" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W618" s="7"/>
+      <c r="Y618" s="7"/>
+    </row>
+    <row r="619" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W619" s="7"/>
+      <c r="Y619" s="7"/>
+    </row>
+    <row r="620" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W620" s="7"/>
+      <c r="Y620" s="7"/>
+    </row>
+    <row r="621" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W621" s="7"/>
+      <c r="Y621" s="7"/>
+    </row>
+    <row r="622" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W622" s="7"/>
+      <c r="Y622" s="7"/>
+    </row>
+    <row r="623" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W623" s="7"/>
+      <c r="Y623" s="7"/>
+    </row>
+    <row r="624" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W624" s="7"/>
+      <c r="Y624" s="7"/>
+    </row>
+    <row r="625" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W625" s="7"/>
+      <c r="Y625" s="7"/>
+    </row>
+    <row r="626" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W626" s="7"/>
+      <c r="Y626" s="7"/>
+    </row>
+    <row r="627" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W627" s="7"/>
+      <c r="Y627" s="7"/>
+    </row>
+    <row r="628" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W628" s="7"/>
+      <c r="Y628" s="7"/>
+    </row>
+    <row r="629" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W629" s="7"/>
+      <c r="Y629" s="7"/>
+    </row>
+    <row r="630" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W630" s="7"/>
+      <c r="Y630" s="7"/>
+    </row>
+    <row r="631" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W631" s="7"/>
+      <c r="Y631" s="7"/>
+    </row>
+    <row r="632" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W632" s="7"/>
+      <c r="Y632" s="7"/>
+    </row>
+    <row r="633" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W633" s="7"/>
+      <c r="Y633" s="7"/>
+    </row>
+    <row r="634" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W634" s="7"/>
+      <c r="Y634" s="7"/>
+    </row>
+    <row r="635" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W635" s="7"/>
+      <c r="Y635" s="7"/>
+    </row>
+    <row r="636" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W636" s="7"/>
+      <c r="Y636" s="7"/>
+    </row>
+    <row r="637" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W637" s="7"/>
+      <c r="Y637" s="7"/>
+    </row>
+    <row r="638" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W638" s="7"/>
+      <c r="Y638" s="7"/>
+    </row>
+    <row r="639" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W639" s="7"/>
+      <c r="Y639" s="7"/>
+    </row>
+    <row r="640" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W640" s="7"/>
+      <c r="Y640" s="7"/>
+    </row>
+    <row r="641" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W641" s="7"/>
+      <c r="Y641" s="7"/>
+    </row>
+    <row r="642" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W642" s="7"/>
+      <c r="Y642" s="7"/>
+    </row>
+    <row r="643" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W643" s="7"/>
+      <c r="Y643" s="7"/>
+    </row>
+    <row r="644" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W644" s="7"/>
+      <c r="Y644" s="7"/>
+    </row>
+    <row r="645" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W645" s="7"/>
+      <c r="Y645" s="7"/>
+    </row>
+    <row r="646" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W646" s="7"/>
+      <c r="Y646" s="7"/>
+    </row>
+    <row r="647" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W647" s="7"/>
+      <c r="Y647" s="7"/>
+    </row>
+    <row r="648" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W648" s="7"/>
+      <c r="Y648" s="7"/>
+    </row>
+    <row r="649" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W649" s="7"/>
+      <c r="Y649" s="7"/>
+    </row>
+    <row r="650" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W650" s="7"/>
+      <c r="Y650" s="7"/>
+    </row>
+    <row r="651" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W651" s="7"/>
+      <c r="Y651" s="7"/>
+    </row>
+    <row r="652" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W652" s="7"/>
+      <c r="Y652" s="7"/>
+    </row>
+    <row r="653" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W653" s="7"/>
+      <c r="Y653" s="7"/>
+    </row>
+    <row r="654" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W654" s="7"/>
+      <c r="Y654" s="7"/>
+    </row>
+    <row r="655" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W655" s="7"/>
+      <c r="Y655" s="7"/>
+    </row>
+    <row r="656" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W656" s="7"/>
+      <c r="Y656" s="7"/>
+    </row>
+    <row r="657" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W657" s="7"/>
+      <c r="Y657" s="7"/>
+    </row>
+    <row r="658" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W658" s="7"/>
+      <c r="Y658" s="7"/>
+    </row>
+    <row r="659" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W659" s="7"/>
+      <c r="Y659" s="7"/>
+    </row>
+    <row r="660" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W660" s="7"/>
+      <c r="Y660" s="7"/>
+    </row>
+    <row r="661" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W661" s="7"/>
+      <c r="Y661" s="7"/>
+    </row>
+    <row r="662" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W662" s="7"/>
+      <c r="Y662" s="7"/>
+    </row>
+    <row r="663" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W663" s="7"/>
+      <c r="Y663" s="7"/>
+    </row>
+    <row r="664" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W664" s="7"/>
+      <c r="Y664" s="7"/>
+    </row>
+    <row r="665" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W665" s="7"/>
+      <c r="Y665" s="7"/>
+    </row>
+    <row r="666" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W666" s="7"/>
+      <c r="Y666" s="7"/>
+    </row>
+    <row r="667" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W667" s="7"/>
+      <c r="Y667" s="7"/>
+    </row>
+    <row r="668" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W668" s="7"/>
+      <c r="Y668" s="7"/>
+    </row>
+    <row r="669" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W669" s="7"/>
+      <c r="Y669" s="7"/>
+    </row>
+    <row r="670" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W670" s="7"/>
+      <c r="Y670" s="7"/>
+    </row>
+    <row r="671" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W671" s="7"/>
+      <c r="Y671" s="7"/>
+    </row>
+    <row r="672" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W672" s="7"/>
+      <c r="Y672" s="7"/>
+    </row>
+    <row r="673" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W673" s="7"/>
+      <c r="Y673" s="7"/>
+    </row>
+    <row r="674" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W674" s="7"/>
+      <c r="Y674" s="7"/>
+    </row>
+    <row r="675" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W675" s="7"/>
+      <c r="Y675" s="7"/>
+    </row>
+    <row r="676" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W676" s="7"/>
+      <c r="Y676" s="7"/>
+    </row>
+    <row r="677" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W677" s="7"/>
+      <c r="Y677" s="7"/>
+    </row>
+    <row r="678" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W678" s="7"/>
+      <c r="Y678" s="7"/>
+    </row>
+    <row r="679" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W679" s="7"/>
+      <c r="Y679" s="7"/>
+    </row>
+    <row r="680" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W680" s="7"/>
+      <c r="Y680" s="7"/>
+    </row>
+    <row r="681" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W681" s="7"/>
+      <c r="Y681" s="7"/>
+    </row>
+    <row r="682" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W682" s="7"/>
+      <c r="Y682" s="7"/>
+    </row>
+    <row r="683" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W683" s="7"/>
+      <c r="Y683" s="7"/>
+    </row>
+    <row r="684" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W684" s="7"/>
+      <c r="Y684" s="7"/>
+    </row>
+    <row r="685" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W685" s="7"/>
+      <c r="Y685" s="7"/>
+    </row>
+    <row r="686" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W686" s="7"/>
+      <c r="Y686" s="7"/>
+    </row>
+    <row r="687" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W687" s="7"/>
+      <c r="Y687" s="7"/>
+    </row>
+    <row r="688" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W688" s="7"/>
+      <c r="Y688" s="7"/>
+    </row>
+    <row r="689" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W689" s="7"/>
+      <c r="Y689" s="7"/>
+    </row>
+    <row r="690" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W690" s="7"/>
+      <c r="Y690" s="7"/>
+    </row>
+    <row r="691" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W691" s="7"/>
+      <c r="Y691" s="7"/>
+    </row>
+    <row r="692" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W692" s="7"/>
+      <c r="Y692" s="7"/>
+    </row>
+    <row r="693" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W693" s="7"/>
+      <c r="Y693" s="7"/>
+    </row>
+    <row r="694" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W694" s="7"/>
+      <c r="Y694" s="7"/>
+    </row>
+    <row r="695" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W695" s="7"/>
+      <c r="Y695" s="7"/>
+    </row>
+    <row r="696" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W696" s="7"/>
+      <c r="Y696" s="7"/>
+    </row>
+    <row r="697" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W697" s="7"/>
+      <c r="Y697" s="7"/>
+    </row>
+    <row r="698" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W698" s="7"/>
+      <c r="Y698" s="7"/>
+    </row>
+    <row r="699" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W699" s="7"/>
+      <c r="Y699" s="7"/>
+    </row>
+    <row r="700" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W700" s="7"/>
+      <c r="Y700" s="7"/>
+    </row>
+    <row r="701" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W701" s="7"/>
+      <c r="Y701" s="7"/>
+    </row>
+    <row r="702" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W702" s="7"/>
+      <c r="Y702" s="7"/>
+    </row>
+    <row r="703" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W703" s="7"/>
+      <c r="Y703" s="7"/>
+    </row>
+    <row r="704" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W704" s="7"/>
+      <c r="Y704" s="7"/>
+    </row>
+    <row r="705" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W705" s="7"/>
+      <c r="Y705" s="7"/>
+    </row>
+    <row r="706" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W706" s="7"/>
+      <c r="Y706" s="7"/>
+    </row>
+    <row r="707" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W707" s="7"/>
+      <c r="Y707" s="7"/>
+    </row>
+    <row r="708" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W708" s="7"/>
+      <c r="Y708" s="7"/>
+    </row>
+    <row r="709" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W709" s="7"/>
+      <c r="Y709" s="7"/>
+    </row>
+    <row r="710" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W710" s="7"/>
+      <c r="Y710" s="7"/>
+    </row>
+    <row r="711" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W711" s="7"/>
+      <c r="Y711" s="7"/>
+    </row>
+    <row r="712" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W712" s="7"/>
+      <c r="Y712" s="7"/>
+    </row>
+    <row r="713" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W713" s="7"/>
+      <c r="Y713" s="7"/>
+    </row>
+    <row r="714" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W714" s="7"/>
+      <c r="Y714" s="7"/>
+    </row>
+    <row r="715" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W715" s="7"/>
+      <c r="Y715" s="7"/>
+    </row>
+    <row r="716" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W716" s="7"/>
+      <c r="Y716" s="7"/>
+    </row>
+    <row r="717" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W717" s="7"/>
+      <c r="Y717" s="7"/>
+    </row>
+    <row r="718" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W718" s="7"/>
+      <c r="Y718" s="7"/>
+    </row>
+    <row r="719" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W719" s="7"/>
+      <c r="Y719" s="7"/>
+    </row>
+    <row r="720" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W720" s="7"/>
+      <c r="Y720" s="7"/>
+    </row>
+    <row r="721" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W721" s="7"/>
+      <c r="Y721" s="7"/>
+    </row>
+    <row r="722" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W722" s="7"/>
+      <c r="Y722" s="7"/>
+    </row>
+    <row r="723" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W723" s="7"/>
+      <c r="Y723" s="7"/>
+    </row>
+    <row r="724" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W724" s="7"/>
+      <c r="Y724" s="7"/>
+    </row>
+    <row r="725" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W725" s="7"/>
+      <c r="Y725" s="7"/>
+    </row>
+    <row r="726" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W726" s="7"/>
+      <c r="Y726" s="7"/>
+    </row>
+    <row r="727" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W727" s="7"/>
+      <c r="Y727" s="7"/>
+    </row>
+    <row r="728" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W728" s="7"/>
+      <c r="Y728" s="7"/>
+    </row>
+    <row r="729" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W729" s="7"/>
+      <c r="Y729" s="7"/>
+    </row>
+    <row r="730" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W730" s="7"/>
+      <c r="Y730" s="7"/>
+    </row>
+    <row r="731" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W731" s="7"/>
+      <c r="Y731" s="7"/>
+    </row>
+    <row r="732" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W732" s="7"/>
+      <c r="Y732" s="7"/>
+    </row>
+    <row r="733" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W733" s="7"/>
+      <c r="Y733" s="7"/>
+    </row>
+    <row r="734" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W734" s="7"/>
+      <c r="Y734" s="7"/>
+    </row>
+    <row r="735" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W735" s="7"/>
+      <c r="Y735" s="7"/>
+    </row>
+    <row r="736" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W736" s="7"/>
+      <c r="Y736" s="7"/>
+    </row>
+    <row r="737" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W737" s="7"/>
+      <c r="Y737" s="7"/>
+    </row>
+    <row r="738" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W738" s="7"/>
+      <c r="Y738" s="7"/>
+    </row>
+    <row r="739" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W739" s="7"/>
+      <c r="Y739" s="7"/>
+    </row>
+    <row r="740" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W740" s="7"/>
+      <c r="Y740" s="7"/>
+    </row>
+    <row r="741" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W741" s="7"/>
+      <c r="Y741" s="7"/>
+    </row>
+    <row r="742" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W742" s="7"/>
+      <c r="Y742" s="7"/>
+    </row>
+    <row r="743" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W743" s="7"/>
+      <c r="Y743" s="7"/>
+    </row>
+    <row r="744" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W744" s="7"/>
+      <c r="Y744" s="7"/>
+    </row>
+    <row r="745" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W745" s="7"/>
+      <c r="Y745" s="7"/>
+    </row>
+    <row r="746" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W746" s="7"/>
+      <c r="Y746" s="7"/>
+    </row>
+    <row r="747" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W747" s="7"/>
+      <c r="Y747" s="7"/>
+    </row>
+    <row r="748" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W748" s="7"/>
+      <c r="Y748" s="7"/>
+    </row>
+    <row r="749" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W749" s="7"/>
+      <c r="Y749" s="7"/>
+    </row>
+    <row r="750" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W750" s="7"/>
+      <c r="Y750" s="7"/>
+    </row>
+    <row r="751" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W751" s="7"/>
+      <c r="Y751" s="7"/>
+    </row>
+    <row r="752" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W752" s="7"/>
+      <c r="Y752" s="7"/>
+    </row>
+    <row r="753" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W753" s="7"/>
+      <c r="Y753" s="7"/>
+    </row>
+    <row r="754" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W754" s="7"/>
+      <c r="Y754" s="7"/>
+    </row>
+    <row r="755" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W755" s="7"/>
+      <c r="Y755" s="7"/>
+    </row>
+    <row r="756" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W756" s="7"/>
+      <c r="Y756" s="7"/>
+    </row>
+    <row r="757" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W757" s="7"/>
+      <c r="Y757" s="7"/>
+    </row>
+    <row r="758" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W758" s="7"/>
+      <c r="Y758" s="7"/>
+    </row>
+    <row r="759" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W759" s="7"/>
+      <c r="Y759" s="7"/>
+    </row>
+    <row r="760" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W760" s="7"/>
+      <c r="Y760" s="7"/>
+    </row>
+    <row r="761" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W761" s="7"/>
+      <c r="Y761" s="7"/>
+    </row>
+    <row r="762" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W762" s="7"/>
+      <c r="Y762" s="7"/>
+    </row>
+    <row r="763" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W763" s="7"/>
+      <c r="Y763" s="7"/>
+    </row>
+    <row r="764" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W764" s="7"/>
+      <c r="Y764" s="7"/>
+    </row>
+    <row r="765" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W765" s="7"/>
+      <c r="Y765" s="7"/>
+    </row>
+    <row r="766" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W766" s="7"/>
+      <c r="Y766" s="7"/>
+    </row>
+    <row r="767" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W767" s="7"/>
+      <c r="Y767" s="7"/>
+    </row>
+    <row r="768" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W768" s="7"/>
+      <c r="Y768" s="7"/>
+    </row>
+    <row r="769" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W769" s="7"/>
+      <c r="Y769" s="7"/>
+    </row>
+    <row r="770" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W770" s="7"/>
+      <c r="Y770" s="7"/>
+    </row>
+    <row r="771" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W771" s="7"/>
+      <c r="Y771" s="7"/>
+    </row>
+    <row r="772" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W772" s="7"/>
+      <c r="Y772" s="7"/>
+    </row>
+    <row r="773" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W773" s="7"/>
+      <c r="Y773" s="7"/>
+    </row>
+    <row r="774" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W774" s="7"/>
+      <c r="Y774" s="7"/>
+    </row>
+    <row r="775" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W775" s="7"/>
+      <c r="Y775" s="7"/>
+    </row>
+    <row r="776" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W776" s="7"/>
+      <c r="Y776" s="7"/>
+    </row>
+    <row r="777" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W777" s="7"/>
+      <c r="Y777" s="7"/>
+    </row>
+    <row r="778" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W778" s="7"/>
+      <c r="Y778" s="7"/>
+    </row>
+    <row r="779" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W779" s="7"/>
+      <c r="Y779" s="7"/>
+    </row>
+    <row r="780" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W780" s="7"/>
+      <c r="Y780" s="7"/>
+    </row>
+    <row r="781" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W781" s="7"/>
+      <c r="Y781" s="7"/>
+    </row>
+    <row r="782" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W782" s="7"/>
+      <c r="Y782" s="7"/>
+    </row>
+    <row r="783" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W783" s="7"/>
+      <c r="Y783" s="7"/>
+    </row>
+    <row r="784" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W784" s="7"/>
+      <c r="Y784" s="7"/>
+    </row>
+    <row r="785" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W785" s="7"/>
+      <c r="Y785" s="7"/>
+    </row>
+    <row r="786" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W786" s="7"/>
+      <c r="Y786" s="7"/>
+    </row>
+    <row r="787" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W787" s="7"/>
+      <c r="Y787" s="7"/>
+    </row>
+    <row r="788" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W788" s="7"/>
+      <c r="Y788" s="7"/>
+    </row>
+    <row r="789" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W789" s="7"/>
+      <c r="Y789" s="7"/>
+    </row>
+    <row r="790" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W790" s="7"/>
+      <c r="Y790" s="7"/>
+    </row>
+    <row r="791" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W791" s="7"/>
+      <c r="Y791" s="7"/>
+    </row>
+    <row r="792" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W792" s="7"/>
+      <c r="Y792" s="7"/>
+    </row>
+    <row r="793" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W793" s="7"/>
+      <c r="Y793" s="7"/>
+    </row>
+    <row r="794" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W794" s="7"/>
+      <c r="Y794" s="7"/>
+    </row>
+    <row r="795" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W795" s="7"/>
+      <c r="Y795" s="7"/>
+    </row>
+    <row r="796" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W796" s="7"/>
+      <c r="Y796" s="7"/>
+    </row>
+    <row r="797" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W797" s="7"/>
+      <c r="Y797" s="7"/>
+    </row>
+    <row r="798" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W798" s="7"/>
+      <c r="Y798" s="7"/>
+    </row>
+    <row r="799" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W799" s="7"/>
+      <c r="Y799" s="7"/>
+    </row>
+    <row r="800" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W800" s="7"/>
+      <c r="Y800" s="7"/>
+    </row>
+    <row r="801" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W801" s="7"/>
+      <c r="Y801" s="7"/>
+    </row>
+    <row r="802" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W802" s="7"/>
+      <c r="Y802" s="7"/>
+    </row>
+    <row r="803" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W803" s="7"/>
+      <c r="Y803" s="7"/>
+    </row>
+    <row r="804" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W804" s="7"/>
+      <c r="Y804" s="7"/>
+    </row>
+    <row r="805" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W805" s="7"/>
+      <c r="Y805" s="7"/>
+    </row>
+    <row r="806" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W806" s="7"/>
+      <c r="Y806" s="7"/>
+    </row>
+    <row r="807" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W807" s="7"/>
+      <c r="Y807" s="7"/>
+    </row>
+    <row r="808" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W808" s="7"/>
+      <c r="Y808" s="7"/>
+    </row>
+    <row r="809" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W809" s="7"/>
+      <c r="Y809" s="7"/>
+    </row>
+    <row r="810" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W810" s="7"/>
+      <c r="Y810" s="7"/>
+    </row>
+    <row r="811" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W811" s="7"/>
+      <c r="Y811" s="7"/>
+    </row>
+    <row r="812" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W812" s="7"/>
+      <c r="Y812" s="7"/>
+    </row>
+    <row r="813" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W813" s="7"/>
+      <c r="Y813" s="7"/>
+    </row>
+    <row r="814" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W814" s="7"/>
+      <c r="Y814" s="7"/>
+    </row>
+    <row r="815" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W815" s="7"/>
+      <c r="Y815" s="7"/>
+    </row>
+    <row r="816" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W816" s="7"/>
+      <c r="Y816" s="7"/>
+    </row>
+    <row r="817" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W817" s="7"/>
+      <c r="Y817" s="7"/>
+    </row>
+    <row r="818" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W818" s="7"/>
+      <c r="Y818" s="7"/>
+    </row>
+    <row r="819" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W819" s="7"/>
+      <c r="Y819" s="7"/>
+    </row>
+    <row r="820" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W820" s="7"/>
+      <c r="Y820" s="7"/>
+    </row>
+    <row r="821" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W821" s="7"/>
+      <c r="Y821" s="7"/>
+    </row>
+    <row r="822" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W822" s="7"/>
+      <c r="Y822" s="7"/>
+    </row>
+    <row r="823" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W823" s="7"/>
+      <c r="Y823" s="7"/>
+    </row>
+    <row r="824" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W824" s="7"/>
+      <c r="Y824" s="7"/>
+    </row>
+    <row r="825" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W825" s="7"/>
+      <c r="Y825" s="7"/>
+    </row>
+    <row r="826" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W826" s="7"/>
+      <c r="Y826" s="7"/>
+    </row>
+    <row r="827" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W827" s="7"/>
+      <c r="Y827" s="7"/>
+    </row>
+    <row r="828" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W828" s="7"/>
+      <c r="Y828" s="7"/>
+    </row>
+    <row r="829" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W829" s="7"/>
+      <c r="Y829" s="7"/>
+    </row>
+    <row r="830" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W830" s="7"/>
+      <c r="Y830" s="7"/>
+    </row>
+    <row r="831" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W831" s="7"/>
+      <c r="Y831" s="7"/>
+    </row>
+    <row r="832" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W832" s="7"/>
+      <c r="Y832" s="7"/>
+    </row>
+    <row r="833" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W833" s="7"/>
+      <c r="Y833" s="7"/>
+    </row>
+    <row r="834" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W834" s="7"/>
+      <c r="Y834" s="7"/>
+    </row>
+    <row r="835" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W835" s="7"/>
+      <c r="Y835" s="7"/>
+    </row>
+    <row r="836" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W836" s="7"/>
+      <c r="Y836" s="7"/>
+    </row>
+    <row r="837" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W837" s="7"/>
+      <c r="Y837" s="7"/>
+    </row>
+    <row r="838" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W838" s="7"/>
+      <c r="Y838" s="7"/>
+    </row>
+    <row r="839" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W839" s="7"/>
+      <c r="Y839" s="7"/>
+    </row>
+    <row r="840" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W840" s="7"/>
+      <c r="Y840" s="7"/>
+    </row>
+    <row r="841" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W841" s="7"/>
+      <c r="Y841" s="7"/>
+    </row>
+    <row r="842" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W842" s="7"/>
+      <c r="Y842" s="7"/>
+    </row>
+    <row r="843" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W843" s="7"/>
+      <c r="Y843" s="7"/>
+    </row>
+    <row r="844" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W844" s="7"/>
+      <c r="Y844" s="7"/>
+    </row>
+    <row r="845" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W845" s="7"/>
+      <c r="Y845" s="7"/>
+    </row>
+    <row r="846" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W846" s="7"/>
+      <c r="Y846" s="7"/>
+    </row>
+    <row r="847" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W847" s="7"/>
+      <c r="Y847" s="7"/>
+    </row>
+    <row r="848" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W848" s="7"/>
+      <c r="Y848" s="7"/>
+    </row>
+    <row r="849" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W849" s="7"/>
+      <c r="Y849" s="7"/>
+    </row>
+    <row r="850" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W850" s="7"/>
+      <c r="Y850" s="7"/>
+    </row>
+    <row r="851" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W851" s="7"/>
+      <c r="Y851" s="7"/>
+    </row>
+    <row r="852" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W852" s="7"/>
+      <c r="Y852" s="7"/>
+    </row>
+    <row r="853" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W853" s="7"/>
+      <c r="Y853" s="7"/>
+    </row>
+    <row r="854" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W854" s="7"/>
+      <c r="Y854" s="7"/>
+    </row>
+    <row r="855" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W855" s="7"/>
+      <c r="Y855" s="7"/>
+    </row>
+    <row r="856" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W856" s="7"/>
+      <c r="Y856" s="7"/>
+    </row>
+    <row r="857" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W857" s="7"/>
+      <c r="Y857" s="7"/>
+    </row>
+    <row r="858" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W858" s="7"/>
+      <c r="Y858" s="7"/>
+    </row>
+    <row r="859" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W859" s="7"/>
+      <c r="Y859" s="7"/>
+    </row>
+    <row r="860" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W860" s="7"/>
+      <c r="Y860" s="7"/>
+    </row>
+    <row r="861" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W861" s="7"/>
+      <c r="Y861" s="7"/>
+    </row>
+    <row r="862" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W862" s="7"/>
+      <c r="Y862" s="7"/>
+    </row>
+    <row r="863" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W863" s="7"/>
+      <c r="Y863" s="7"/>
+    </row>
+    <row r="864" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W864" s="7"/>
+      <c r="Y864" s="7"/>
+    </row>
+    <row r="865" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W865" s="7"/>
+      <c r="Y865" s="7"/>
+    </row>
+    <row r="866" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W866" s="7"/>
+      <c r="Y866" s="7"/>
+    </row>
+    <row r="867" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W867" s="7"/>
+      <c r="Y867" s="7"/>
+    </row>
+    <row r="868" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W868" s="7"/>
+      <c r="Y868" s="7"/>
+    </row>
+    <row r="869" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W869" s="7"/>
+      <c r="Y869" s="7"/>
+    </row>
+    <row r="870" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W870" s="7"/>
+      <c r="Y870" s="7"/>
+    </row>
+    <row r="871" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W871" s="7"/>
+      <c r="Y871" s="7"/>
+    </row>
+    <row r="872" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W872" s="7"/>
+      <c r="Y872" s="7"/>
+    </row>
+    <row r="873" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W873" s="7"/>
+      <c r="Y873" s="7"/>
+    </row>
+    <row r="874" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W874" s="7"/>
+      <c r="Y874" s="7"/>
+    </row>
+    <row r="875" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W875" s="7"/>
+      <c r="Y875" s="7"/>
+    </row>
+    <row r="876" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W876" s="7"/>
+      <c r="Y876" s="7"/>
+    </row>
+    <row r="877" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W877" s="7"/>
+      <c r="Y877" s="7"/>
+    </row>
+    <row r="878" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W878" s="7"/>
+      <c r="Y878" s="7"/>
+    </row>
+    <row r="879" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W879" s="7"/>
+      <c r="Y879" s="7"/>
+    </row>
+    <row r="880" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W880" s="7"/>
+      <c r="Y880" s="7"/>
+    </row>
+    <row r="881" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W881" s="7"/>
+      <c r="Y881" s="7"/>
+    </row>
+    <row r="882" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W882" s="7"/>
+      <c r="Y882" s="7"/>
+    </row>
+    <row r="883" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W883" s="7"/>
+      <c r="Y883" s="7"/>
+    </row>
+    <row r="884" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W884" s="7"/>
+      <c r="Y884" s="7"/>
+    </row>
+    <row r="885" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W885" s="7"/>
+      <c r="Y885" s="7"/>
+    </row>
+    <row r="886" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W886" s="7"/>
+      <c r="Y886" s="7"/>
+    </row>
+    <row r="887" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W887" s="7"/>
+      <c r="Y887" s="7"/>
+    </row>
+    <row r="888" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W888" s="7"/>
+      <c r="Y888" s="7"/>
+    </row>
+    <row r="889" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W889" s="7"/>
+      <c r="Y889" s="7"/>
+    </row>
+    <row r="890" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W890" s="7"/>
+      <c r="Y890" s="7"/>
+    </row>
+    <row r="891" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W891" s="7"/>
+      <c r="Y891" s="7"/>
+    </row>
+    <row r="892" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W892" s="7"/>
+      <c r="Y892" s="7"/>
+    </row>
+    <row r="893" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W893" s="7"/>
+      <c r="Y893" s="7"/>
+    </row>
+    <row r="894" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W894" s="7"/>
+      <c r="Y894" s="7"/>
+    </row>
+    <row r="895" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W895" s="7"/>
+      <c r="Y895" s="7"/>
+    </row>
+    <row r="896" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W896" s="7"/>
+      <c r="Y896" s="7"/>
+    </row>
+    <row r="897" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W897" s="7"/>
+      <c r="Y897" s="7"/>
+    </row>
+    <row r="898" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W898" s="7"/>
+      <c r="Y898" s="7"/>
+    </row>
+    <row r="899" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W899" s="7"/>
+      <c r="Y899" s="7"/>
+    </row>
+    <row r="900" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W900" s="7"/>
+      <c r="Y900" s="7"/>
+    </row>
+    <row r="901" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W901" s="7"/>
+      <c r="Y901" s="7"/>
+    </row>
+    <row r="902" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W902" s="7"/>
+      <c r="Y902" s="7"/>
+    </row>
+    <row r="903" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W903" s="7"/>
+      <c r="Y903" s="7"/>
+    </row>
+    <row r="904" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W904" s="7"/>
+      <c r="Y904" s="7"/>
+    </row>
+    <row r="905" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W905" s="7"/>
+      <c r="Y905" s="7"/>
+    </row>
+    <row r="906" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W906" s="7"/>
+      <c r="Y906" s="7"/>
+    </row>
+    <row r="907" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W907" s="7"/>
+      <c r="Y907" s="7"/>
+    </row>
+    <row r="908" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W908" s="7"/>
+      <c r="Y908" s="7"/>
+    </row>
+    <row r="909" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W909" s="7"/>
+      <c r="Y909" s="7"/>
+    </row>
+    <row r="910" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W910" s="7"/>
+      <c r="Y910" s="7"/>
+    </row>
+    <row r="911" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W911" s="7"/>
+      <c r="Y911" s="7"/>
+    </row>
+    <row r="912" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W912" s="7"/>
+      <c r="Y912" s="7"/>
+    </row>
+    <row r="913" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W913" s="7"/>
+      <c r="Y913" s="7"/>
+    </row>
+    <row r="914" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W914" s="7"/>
+      <c r="Y914" s="7"/>
+    </row>
+    <row r="915" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W915" s="7"/>
+      <c r="Y915" s="7"/>
+    </row>
+    <row r="916" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W916" s="7"/>
+      <c r="Y916" s="7"/>
+    </row>
+    <row r="917" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W917" s="7"/>
+      <c r="Y917" s="7"/>
+    </row>
+    <row r="918" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W918" s="7"/>
+      <c r="Y918" s="7"/>
+    </row>
+    <row r="919" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W919" s="7"/>
+      <c r="Y919" s="7"/>
+    </row>
+    <row r="920" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W920" s="7"/>
+      <c r="Y920" s="7"/>
+    </row>
+    <row r="921" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W921" s="7"/>
+      <c r="Y921" s="7"/>
+    </row>
+    <row r="922" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W922" s="7"/>
+      <c r="Y922" s="7"/>
+    </row>
+    <row r="923" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W923" s="7"/>
+      <c r="Y923" s="7"/>
+    </row>
+    <row r="924" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W924" s="7"/>
+      <c r="Y924" s="7"/>
+    </row>
+    <row r="925" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W925" s="7"/>
+      <c r="Y925" s="7"/>
+    </row>
+    <row r="926" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W926" s="7"/>
+      <c r="Y926" s="7"/>
+    </row>
+    <row r="927" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W927" s="7"/>
+      <c r="Y927" s="7"/>
+    </row>
+    <row r="928" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W928" s="7"/>
+      <c r="Y928" s="7"/>
+    </row>
+    <row r="929" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W929" s="7"/>
+      <c r="Y929" s="7"/>
+    </row>
+    <row r="930" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W930" s="7"/>
+      <c r="Y930" s="7"/>
+    </row>
+    <row r="931" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W931" s="7"/>
+      <c r="Y931" s="7"/>
+    </row>
+    <row r="932" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W932" s="7"/>
+      <c r="Y932" s="7"/>
+    </row>
+    <row r="933" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W933" s="7"/>
+      <c r="Y933" s="7"/>
+    </row>
+    <row r="934" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W934" s="7"/>
+      <c r="Y934" s="7"/>
+    </row>
+    <row r="935" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W935" s="7"/>
+      <c r="Y935" s="7"/>
+    </row>
+    <row r="936" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W936" s="7"/>
+      <c r="Y936" s="7"/>
+    </row>
+    <row r="937" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W937" s="7"/>
+      <c r="Y937" s="7"/>
+    </row>
+    <row r="938" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W938" s="7"/>
+      <c r="Y938" s="7"/>
+    </row>
+    <row r="939" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W939" s="7"/>
+      <c r="Y939" s="7"/>
+    </row>
+    <row r="940" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W940" s="7"/>
+      <c r="Y940" s="7"/>
+    </row>
+    <row r="941" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W941" s="7"/>
+      <c r="Y941" s="7"/>
+    </row>
+    <row r="942" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W942" s="7"/>
+      <c r="Y942" s="7"/>
+    </row>
+    <row r="943" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W943" s="7"/>
+      <c r="Y943" s="7"/>
+    </row>
+    <row r="944" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W944" s="7"/>
+      <c r="Y944" s="7"/>
+    </row>
+    <row r="945" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W945" s="7"/>
+      <c r="Y945" s="7"/>
+    </row>
+    <row r="946" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W946" s="7"/>
+      <c r="Y946" s="7"/>
+    </row>
+    <row r="947" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W947" s="7"/>
+      <c r="Y947" s="7"/>
+    </row>
+    <row r="948" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W948" s="7"/>
+      <c r="Y948" s="7"/>
+    </row>
+    <row r="949" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W949" s="7"/>
+      <c r="Y949" s="7"/>
+    </row>
+    <row r="950" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W950" s="7"/>
+      <c r="Y950" s="7"/>
+    </row>
+    <row r="951" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W951" s="7"/>
+      <c r="Y951" s="7"/>
+    </row>
+    <row r="952" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W952" s="7"/>
+      <c r="Y952" s="7"/>
+    </row>
+    <row r="953" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W953" s="7"/>
+      <c r="Y953" s="7"/>
+    </row>
+    <row r="954" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W954" s="7"/>
+      <c r="Y954" s="7"/>
+    </row>
+    <row r="955" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W955" s="7"/>
+      <c r="Y955" s="7"/>
+    </row>
+    <row r="956" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W956" s="7"/>
+      <c r="Y956" s="7"/>
+    </row>
+    <row r="957" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W957" s="7"/>
+      <c r="Y957" s="7"/>
+    </row>
+    <row r="958" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W958" s="7"/>
+      <c r="Y958" s="7"/>
+    </row>
+    <row r="959" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W959" s="7"/>
+      <c r="Y959" s="7"/>
+    </row>
+    <row r="960" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W960" s="7"/>
+      <c r="Y960" s="7"/>
+    </row>
+    <row r="961" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W961" s="7"/>
+      <c r="Y961" s="7"/>
+    </row>
+    <row r="962" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W962" s="7"/>
+      <c r="Y962" s="7"/>
+    </row>
+    <row r="963" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W963" s="7"/>
+      <c r="Y963" s="7"/>
+    </row>
+    <row r="964" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W964" s="7"/>
+      <c r="Y964" s="7"/>
+    </row>
+    <row r="965" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W965" s="7"/>
+      <c r="Y965" s="7"/>
+    </row>
+    <row r="966" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W966" s="7"/>
+      <c r="Y966" s="7"/>
+    </row>
+    <row r="967" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W967" s="7"/>
+      <c r="Y967" s="7"/>
+    </row>
+    <row r="968" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W968" s="7"/>
+      <c r="Y968" s="7"/>
+    </row>
+    <row r="969" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W969" s="7"/>
+      <c r="Y969" s="7"/>
+    </row>
+    <row r="970" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W970" s="7"/>
+      <c r="Y970" s="7"/>
+    </row>
+    <row r="971" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W971" s="7"/>
+      <c r="Y971" s="7"/>
+    </row>
+    <row r="972" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W972" s="7"/>
+      <c r="Y972" s="7"/>
+    </row>
+    <row r="973" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W973" s="7"/>
+      <c r="Y973" s="7"/>
+    </row>
+    <row r="974" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W974" s="7"/>
+      <c r="Y974" s="7"/>
+    </row>
+    <row r="975" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W975" s="7"/>
+      <c r="Y975" s="7"/>
+    </row>
+    <row r="976" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W976" s="7"/>
+      <c r="Y976" s="7"/>
+    </row>
+    <row r="977" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W977" s="7"/>
+      <c r="Y977" s="7"/>
+    </row>
+    <row r="978" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W978" s="7"/>
+      <c r="Y978" s="7"/>
+    </row>
+    <row r="979" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W979" s="7"/>
+      <c r="Y979" s="7"/>
+    </row>
+    <row r="980" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W980" s="7"/>
+      <c r="Y980" s="7"/>
+    </row>
+    <row r="981" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W981" s="7"/>
+      <c r="Y981" s="7"/>
+    </row>
+    <row r="982" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W982" s="7"/>
+      <c r="Y982" s="7"/>
+    </row>
+    <row r="983" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W983" s="7"/>
+      <c r="Y983" s="7"/>
+    </row>
+    <row r="984" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W984" s="7"/>
+      <c r="Y984" s="7"/>
+    </row>
+    <row r="985" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W985" s="7"/>
+      <c r="Y985" s="7"/>
+    </row>
+    <row r="986" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W986" s="7"/>
+      <c r="Y986" s="7"/>
+    </row>
+    <row r="987" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W987" s="7"/>
+      <c r="Y987" s="7"/>
+    </row>
+    <row r="988" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W988" s="7"/>
+      <c r="Y988" s="7"/>
+    </row>
+    <row r="989" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W989" s="7"/>
+      <c r="Y989" s="7"/>
+    </row>
+    <row r="990" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W990" s="7"/>
+      <c r="Y990" s="7"/>
+    </row>
+    <row r="991" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W991" s="7"/>
+      <c r="Y991" s="7"/>
+    </row>
+    <row r="992" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W992" s="7"/>
+      <c r="Y992" s="7"/>
+    </row>
+    <row r="993" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W993" s="7"/>
+      <c r="Y993" s="7"/>
+    </row>
+    <row r="994" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W994" s="7"/>
+      <c r="Y994" s="7"/>
+    </row>
+    <row r="995" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W995" s="7"/>
+      <c r="Y995" s="7"/>
+    </row>
+    <row r="996" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W996" s="7"/>
+      <c r="Y996" s="7"/>
+    </row>
+    <row r="997" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W997" s="7"/>
+      <c r="Y997" s="7"/>
+    </row>
+    <row r="998" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W998" s="7"/>
+      <c r="Y998" s="7"/>
+    </row>
+    <row r="999" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W999" s="7"/>
+      <c r="Y999" s="7"/>
+    </row>
+    <row r="1000" spans="23:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W1000" s="7"/>
+      <c r="Y1000" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF2765A-8E5A-40AD-A3C3-94C1AAD4887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9751D4F-12CC-4301-A8C3-2D4E4048E2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>match</t>
   </si>
@@ -215,18 +215,6 @@
   </si>
   <si>
     <t>CMR-BRA</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>10-9</t>
   </si>
   <si>
     <t>tip Albert</t>
@@ -714,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,28 +764,28 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="X1" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Z1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -807,12 +795,6 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>-1</v>
       </c>
@@ -874,12 +856,6 @@
       </c>
       <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -943,12 +919,6 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
       <c r="E4">
         <v>-1</v>
       </c>
@@ -1010,12 +980,6 @@
       </c>
       <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -253,7 +253,7 @@
     <t>CMR-BRA</t>
   </si>
   <si>
-    <t>0-0</t>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
@@ -723,31 +723,31 @@
         <v>79</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2">
         <v>-1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>-1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>-1</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>-1</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -759,19 +759,19 @@
         <v>-1</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>-1</v>
       </c>
       <c r="R2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>-1</v>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -783,31 +783,31 @@
         <v>0</v>
       </c>
       <c r="X2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>-1</v>
       </c>
       <c r="AF2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:32">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>match</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>0-2</t>
+  </si>
+  <si>
+    <t>6-2</t>
   </si>
 </sst>
 </file>
@@ -817,17 +820,23 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -839,67 +848,67 @@
         <v>1</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
         <v>1</v>
       </c>
       <c r="Z3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
       <c r="AD3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
         <v>1</v>
       </c>
       <c r="AF3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:32">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C06B34A-E911-4812-8FDF-64F522CECA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>match</t>
   </si>
@@ -35,12 +41,6 @@
   </si>
   <si>
     <t>score Tom</t>
-  </si>
-  <si>
-    <t>tip Chris</t>
-  </si>
-  <si>
-    <t>score Chris</t>
   </si>
   <si>
     <t>tip Paulo</t>
@@ -262,8 +262,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,15 +322,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,9 +412,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,6 +464,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,14 +657,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,120 +754,108 @@
       <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>-1</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>-1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>-1</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>-1</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>-1</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -839,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -904,19 +938,13 @@
       <c r="AD3" t="b">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -979,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="b">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB4" t="b">
         <v>0</v>
@@ -996,19 +1024,13 @@
       <c r="AD4" t="b">
         <v>0</v>
       </c>
-      <c r="AE4">
-        <v>-1</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1029,37 +1051,37 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="b">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V5" t="b">
         <v>0</v>
@@ -1077,30 +1099,24 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="b">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1115,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -1180,19 +1196,13 @@
       <c r="AD6" t="b">
         <v>0</v>
       </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1207,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -1225,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -1272,19 +1282,13 @@
       <c r="AD7" t="b">
         <v>0</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1299,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1323,25 +1327,25 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R8" t="b">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V8" t="b">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -1364,19 +1368,13 @@
       <c r="AD8" t="b">
         <v>0</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1391,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -1456,19 +1454,13 @@
       <c r="AD9" t="b">
         <v>0</v>
       </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -1489,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1537,30 +1529,24 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="b">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
-      <c r="AE10">
-        <v>-1</v>
-      </c>
-      <c r="AF10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1575,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1587,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -1635,24 +1621,18 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1667,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1697,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="b">
         <v>0</v>
@@ -1732,19 +1712,13 @@
       <c r="AD12" t="b">
         <v>0</v>
       </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1765,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1824,19 +1798,13 @@
       <c r="AD13" t="b">
         <v>0</v>
       </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1851,25 +1819,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -1899,36 +1867,30 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="b">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="b">
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1942,23 +1904,26 @@
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -1970,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="b">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="b">
         <v>0</v>
@@ -2005,19 +1970,13 @@
       <c r="AD15" t="b">
         <v>0</v>
       </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2031,6 +1990,9 @@
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -2094,19 +2056,13 @@
       <c r="AD16" t="b">
         <v>0</v>
       </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2120,6 +2076,9 @@
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
@@ -2166,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="b">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="b">
         <v>0</v>
@@ -2183,19 +2142,13 @@
       <c r="AD17" t="b">
         <v>0</v>
       </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2209,6 +2162,9 @@
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -2219,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2243,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="b">
         <v>0</v>
@@ -2255,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="b">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="b">
         <v>0</v>
@@ -2272,19 +2228,13 @@
       <c r="AD18" t="b">
         <v>0</v>
       </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2298,11 +2248,14 @@
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2320,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -2338,42 +2291,36 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z19" t="b">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="b">
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
-      <c r="AE19">
-        <v>-1</v>
-      </c>
-      <c r="AF19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2387,6 +2334,9 @@
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -2450,19 +2400,13 @@
       <c r="AD20" t="b">
         <v>0</v>
       </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2476,6 +2420,9 @@
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -2486,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="b">
         <v>0</v>
@@ -2539,19 +2486,13 @@
       <c r="AD21" t="b">
         <v>0</v>
       </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -2565,23 +2506,26 @@
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
         <v>0</v>
@@ -2593,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -2611,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="b">
         <v>0</v>
@@ -2623,24 +2567,18 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
-      <c r="AE22">
-        <v>-1</v>
-      </c>
-      <c r="AF22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2654,23 +2592,26 @@
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P23" t="b">
         <v>0</v>
@@ -2706,30 +2647,24 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="b">
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2743,6 +2678,9 @@
       <c r="H24" t="b">
         <v>0</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
@@ -2753,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -2783,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -2795,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="b">
         <v>0</v>
@@ -2806,19 +2744,13 @@
       <c r="AD24" t="b">
         <v>0</v>
       </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2832,6 +2764,9 @@
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
@@ -2878,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="b">
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="b">
         <v>0</v>
@@ -2895,19 +2830,13 @@
       <c r="AD25" t="b">
         <v>0</v>
       </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -2921,11 +2850,14 @@
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2937,66 +2869,60 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="b">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="b">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="b">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="b">
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3010,6 +2936,9 @@
       <c r="H27" t="b">
         <v>0</v>
       </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -3073,19 +3002,13 @@
       <c r="AD27" t="b">
         <v>0</v>
       </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3099,6 +3022,9 @@
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
@@ -3162,19 +3088,13 @@
       <c r="AD28" t="b">
         <v>0</v>
       </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32">
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3188,17 +3108,20 @@
       <c r="H29" t="b">
         <v>0</v>
       </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3216,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T29" t="b">
         <v>0</v>
@@ -3228,19 +3151,19 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z29" t="b">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="b">
         <v>0</v>
@@ -3251,19 +3174,13 @@
       <c r="AD29" t="b">
         <v>0</v>
       </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32">
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>-1</v>
@@ -3277,6 +3194,9 @@
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -3293,19 +3213,19 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R30" t="b">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T30" t="b">
         <v>0</v>
@@ -3329,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="b">
         <v>0</v>
@@ -3340,19 +3260,13 @@
       <c r="AD30" t="b">
         <v>0</v>
       </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32">
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3366,17 +3280,20 @@
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -3388,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="b">
         <v>0</v>
@@ -3400,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="b">
         <v>0</v>
@@ -3412,36 +3329,30 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z31" t="b">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="b">
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3455,6 +3366,9 @@
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
@@ -3507,30 +3421,24 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB32" t="b">
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32">
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3544,6 +3452,9 @@
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -3566,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="b">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="b">
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
@@ -3590,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z33" t="b">
         <v>0</v>
@@ -3602,24 +3513,18 @@
         <v>0</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32">
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3633,6 +3538,9 @@
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -3696,19 +3604,13 @@
       <c r="AD34" t="b">
         <v>0</v>
       </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32">
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3722,17 +3624,20 @@
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35">
+        <v>-1</v>
+      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3750,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T35" t="b">
         <v>0</v>
@@ -3762,42 +3667,36 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z35" t="b">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="b">
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
-      <c r="AE35">
-        <v>-1</v>
-      </c>
-      <c r="AF35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32">
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3811,6 +3710,9 @@
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -3821,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3839,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="b">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V36" t="b">
         <v>0</v>
@@ -3857,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="b">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB36" t="b">
         <v>0</v>
@@ -3874,19 +3776,13 @@
       <c r="AD36" t="b">
         <v>0</v>
       </c>
-      <c r="AE36">
-        <v>-1</v>
-      </c>
-      <c r="AF36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32">
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>-1</v>
@@ -3900,6 +3796,9 @@
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
@@ -3910,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P37" t="b">
         <v>0</v>
@@ -3928,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="S37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="b">
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -3963,19 +3862,13 @@
       <c r="AD37" t="b">
         <v>0</v>
       </c>
-      <c r="AE37">
-        <v>-1</v>
-      </c>
-      <c r="AF37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32">
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-1</v>
@@ -3989,6 +3882,9 @@
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
@@ -3999,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
@@ -4052,19 +3948,13 @@
       <c r="AD38" t="b">
         <v>0</v>
       </c>
-      <c r="AE38">
-        <v>-1</v>
-      </c>
-      <c r="AF38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32">
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4078,11 +3968,14 @@
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -4141,19 +4034,13 @@
       <c r="AD39" t="b">
         <v>0</v>
       </c>
-      <c r="AE39">
-        <v>-1</v>
-      </c>
-      <c r="AF39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32">
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-1</v>
@@ -4167,17 +4054,20 @@
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40">
+        <v>-1</v>
+      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="b">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -4201,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X40" t="b">
         <v>0</v>
@@ -4219,30 +4109,24 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="b">
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
-      <c r="AE40">
-        <v>-1</v>
-      </c>
-      <c r="AF40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32">
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -4256,6 +4140,9 @@
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41">
+        <v>-1</v>
+      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
@@ -4319,19 +4206,13 @@
       <c r="AD41" t="b">
         <v>0</v>
       </c>
-      <c r="AE41">
-        <v>-1</v>
-      </c>
-      <c r="AF41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32">
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>-1</v>
@@ -4345,6 +4226,9 @@
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
@@ -4355,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
@@ -4379,25 +4263,25 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" t="b">
         <v>0</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="b">
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z42" t="b">
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="b">
         <v>0</v>
@@ -4408,19 +4292,13 @@
       <c r="AD42" t="b">
         <v>0</v>
       </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32">
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4434,59 +4312,62 @@
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43">
+        <v>-1</v>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="b">
         <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T43" t="b">
         <v>0</v>
       </c>
       <c r="U43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V43" t="b">
         <v>0</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X43" t="b">
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="b">
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43" t="b">
         <v>0</v>
@@ -4497,19 +4378,13 @@
       <c r="AD43" t="b">
         <v>0</v>
       </c>
-      <c r="AE43">
-        <v>-1</v>
-      </c>
-      <c r="AF43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32">
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4523,6 +4398,9 @@
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44">
+        <v>-1</v>
+      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
@@ -4586,19 +4464,13 @@
       <c r="AD44" t="b">
         <v>0</v>
       </c>
-      <c r="AE44">
-        <v>-1</v>
-      </c>
-      <c r="AF44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32">
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -4612,6 +4484,9 @@
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45">
+        <v>-1</v>
+      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
@@ -4675,19 +4550,13 @@
       <c r="AD45" t="b">
         <v>0</v>
       </c>
-      <c r="AE45">
-        <v>-1</v>
-      </c>
-      <c r="AF45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32">
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -4701,11 +4570,14 @@
       <c r="H46" t="b">
         <v>0</v>
       </c>
+      <c r="I46">
+        <v>-1</v>
+      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L46" t="b">
         <v>0</v>
@@ -4717,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
@@ -4764,19 +4636,13 @@
       <c r="AD46" t="b">
         <v>0</v>
       </c>
-      <c r="AE46">
-        <v>-1</v>
-      </c>
-      <c r="AF46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32">
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -4790,17 +4656,20 @@
       <c r="H47" t="b">
         <v>0</v>
       </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4853,19 +4722,13 @@
       <c r="AD47" t="b">
         <v>0</v>
       </c>
-      <c r="AE47">
-        <v>-1</v>
-      </c>
-      <c r="AF47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32">
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>-1</v>
@@ -4879,6 +4742,9 @@
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
@@ -4889,25 +4755,25 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
       </c>
       <c r="O48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R48" t="b">
         <v>0</v>
       </c>
       <c r="S48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="b">
         <v>0</v>
@@ -4931,30 +4797,24 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB48" t="b">
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32">
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-1</v>
@@ -4968,6 +4828,9 @@
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49">
+        <v>-1</v>
+      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
@@ -5031,14 +4894,8 @@
       <c r="AD49" t="b">
         <v>0</v>
       </c>
-      <c r="AE49">
-        <v>-1</v>
-      </c>
-      <c r="AF49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32">
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5081,11 +4938,8 @@
       <c r="AD50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32">
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5128,11 +4982,8 @@
       <c r="AD51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32">
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5175,11 +5026,8 @@
       <c r="AD52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32">
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5222,11 +5070,8 @@
       <c r="AD53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32">
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5269,11 +5114,8 @@
       <c r="AD54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32">
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5316,11 +5158,8 @@
       <c r="AD55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32">
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5363,11 +5202,8 @@
       <c r="AD56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32">
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5410,11 +5246,8 @@
       <c r="AD57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32">
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5457,11 +5290,8 @@
       <c r="AD58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32">
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5504,11 +5334,8 @@
       <c r="AD59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32">
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5551,11 +5378,8 @@
       <c r="AD60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32">
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5598,11 +5422,8 @@
       <c r="AD61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32">
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5645,11 +5466,8 @@
       <c r="AD62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32">
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5692,11 +5510,8 @@
       <c r="AD63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32">
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5739,11 +5554,8 @@
       <c r="AD64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32">
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5784,9 +5596,6 @@
         <v>0</v>
       </c>
       <c r="AD65" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="b">
         <v>0</v>
       </c>
     </row>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C06B34A-E911-4812-8FDF-64F522CECA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>match</t>
   </si>
@@ -257,13 +251,16 @@
   </si>
   <si>
     <t>6-2</t>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,23 +319,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -380,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,27 +401,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,24 +435,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,16 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -847,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -939,72 +890,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
       <c r="E4">
         <v>-1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>-1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>-1</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>-1</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>-1</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>-1</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>-1</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>-1</v>
       </c>
       <c r="T4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>-1</v>
       </c>
       <c r="V4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1016,22 +973,28 @@
         <v>-1</v>
       </c>
       <c r="AB4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>-1</v>
       </c>
       <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -1042,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -1072,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>-1</v>
@@ -1102,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -1111,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1197,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1283,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1369,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1455,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1541,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1627,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1713,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1799,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1885,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1971,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2057,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2143,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2229,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2315,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2401,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2487,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2573,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2659,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2745,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2831,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2917,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3003,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3089,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3175,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3261,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3347,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3433,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3519,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3605,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3691,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3777,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3863,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3949,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4035,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4121,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4207,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4293,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4379,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4465,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4551,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4637,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4723,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4809,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4895,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4939,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4983,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5027,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5071,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5115,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5159,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5203,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5247,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5291,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5335,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5379,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5423,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5467,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5511,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5555,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>match</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
   </si>
 </sst>
 </file>
@@ -1081,6 +1084,12 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>match</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>1-2</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>4-1</t>
   </si>
 </sst>
 </file>
@@ -1176,6 +1182,12 @@
       <c r="B7" t="s">
         <v>34</v>
       </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1262,11 +1274,17 @@
       <c r="B8" t="s">
         <v>35</v>
       </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1308,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>-1</v>
@@ -1320,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1348,83 +1366,89 @@
       <c r="B9" t="s">
         <v>36</v>
       </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
       <c r="V9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
       <c r="Z9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>1</v>
       </c>
       <c r="AB9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>1</v>
       </c>
       <c r="AD9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:30">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>match</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>4-1</t>
+  </si>
+  <si>
+    <t>7-0</t>
+  </si>
+  <si>
+    <t>1-0</t>
   </si>
 </sst>
 </file>
@@ -1458,6 +1464,12 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10">
         <v>-1</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1544,6 +1556,12 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -1630,47 +1648,53 @@
       <c r="B12" t="s">
         <v>39</v>
       </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1682,31 +1706,31 @@
         <v>1</v>
       </c>
       <c r="V12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>1</v>
       </c>
       <c r="Z12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <v>1</v>
       </c>
       <c r="AD12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1716,17 +1740,23 @@
       <c r="B13" t="s">
         <v>40</v>
       </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1744,55 +1774,55 @@
         <v>1</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
       <c r="V13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
       </c>
       <c r="X13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
       <c r="Z13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <v>1</v>
       </c>
       <c r="AD13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:30">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>match</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>1-0</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-0</t>
   </si>
 </sst>
 </file>
@@ -1832,17 +1838,23 @@
       <c r="B14" t="s">
         <v>41</v>
       </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1854,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1866,31 +1878,31 @@
         <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="X14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1902,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="AB14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -1918,6 +1930,12 @@
       <c r="B15" t="s">
         <v>42</v>
       </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1964,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -2004,83 +2022,89 @@
       <c r="B16" t="s">
         <v>43</v>
       </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>1</v>
       </c>
       <c r="V16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
       <c r="AD16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2090,65 +2114,71 @@
       <c r="B17" t="s">
         <v>44</v>
       </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
       <c r="V17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2160,13 +2190,13 @@
         <v>1</v>
       </c>
       <c r="AB17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>1</v>
       </c>
       <c r="AD17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:30">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>match</t>
   </si>
@@ -2206,6 +2206,12 @@
       <c r="B18" t="s">
         <v>45</v>
       </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
       <c r="E18">
         <v>1</v>
       </c>
@@ -2222,13 +2228,13 @@
         <v>-1</v>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>-1</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720F95E9-F193-47D7-948E-20F633F5BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DD0972-CF57-4C9C-B995-54649A344BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -800,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DD0972-CF57-4C9C-B995-54649A344BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>match</t>
   </si>
@@ -287,13 +281,16 @@
   </si>
   <si>
     <t>2-0</t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,23 +349,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,27 +431,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,24 +465,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,16 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -877,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -969,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1061,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1153,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1245,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1337,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1429,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1521,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1613,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1705,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1797,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1889,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1981,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2073,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2165,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2257,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2349,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2441,13 +2392,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
       <c r="E20">
         <v>0</v>
       </c>
@@ -2464,7 +2421,7 @@
         <v>-1</v>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2488,19 +2445,19 @@
         <v>-1</v>
       </c>
       <c r="R20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
         <v>-1</v>
       </c>
       <c r="T20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>-1</v>
       </c>
       <c r="V20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2512,7 +2469,7 @@
         <v>-1</v>
       </c>
       <c r="Z20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2524,16 +2481,22 @@
         <v>-1</v>
       </c>
       <c r="AD20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -2613,13 +2576,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
@@ -2648,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2699,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2785,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2871,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2957,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3043,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3129,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3215,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3301,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3387,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3473,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3559,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3645,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3731,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3817,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3903,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -3989,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4075,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4161,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4247,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4333,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4419,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4505,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4591,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4677,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4763,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4849,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -4935,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5021,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5107,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5151,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5195,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5239,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5283,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5327,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5371,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5415,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5459,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5503,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5547,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5591,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5635,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5679,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5723,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5767,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC0E2B-4421-4377-9834-C86E148D862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -289,8 +295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,15 +355,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -399,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,9 +445,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,6 +497,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,14 +690,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -753,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -828,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -920,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1012,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1104,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1196,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1288,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1380,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1472,7 +1524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1564,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1656,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1748,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1840,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1932,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2024,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2116,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2208,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2300,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2392,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2484,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2576,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2668,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2754,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2840,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2926,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3012,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3098,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3184,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3270,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3356,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3442,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3528,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3614,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3700,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3786,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3872,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -3958,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4044,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4130,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4216,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4302,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4388,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4474,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4560,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4646,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4732,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4818,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -4904,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -4990,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5076,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5120,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5164,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5208,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5252,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5296,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5340,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5384,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5428,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5472,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5516,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5560,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5604,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5648,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5692,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5736,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC0E2B-4421-4377-9834-C86E148D862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>match</t>
   </si>
@@ -290,13 +284,19 @@
   </si>
   <si>
     <t>1-3</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>2-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,23 +355,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -413,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,27 +437,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,24 +471,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,16 +646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -880,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -972,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1064,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1156,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1248,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1340,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1432,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1524,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1616,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1708,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1800,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1892,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1984,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2076,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2168,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2260,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2352,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2444,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2536,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2628,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2720,24 +2674,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
       <c r="E23">
         <v>-1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>-1</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2749,7 +2709,7 @@
         <v>-1</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -2779,13 +2739,13 @@
         <v>-1</v>
       </c>
       <c r="V23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2803,27 +2763,33 @@
         <v>-1</v>
       </c>
       <c r="AD23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2835,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2847,37 +2813,37 @@
         <v>1</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
       <c r="V24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -2889,39 +2855,45 @@
         <v>1</v>
       </c>
       <c r="AD24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2933,25 +2905,25 @@
         <v>1</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
         <v>1</v>
       </c>
       <c r="V25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -2969,81 +2941,87 @@
         <v>1</v>
       </c>
       <c r="AB25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>1</v>
       </c>
       <c r="AD25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
       <c r="R26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
       <c r="V26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>1</v>
       </c>
       <c r="X26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3055,27 +3033,33 @@
         <v>1</v>
       </c>
       <c r="AB26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>1</v>
       </c>
       <c r="AD26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
       <c r="E27">
         <v>-1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3087,7 +3071,7 @@
         <v>-1</v>
       </c>
       <c r="J27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3150,13 +3134,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
       <c r="E28">
         <v>1</v>
       </c>
@@ -3236,104 +3226,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>1</v>
       </c>
       <c r="T29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>1</v>
       </c>
       <c r="V29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>1</v>
       </c>
       <c r="X29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>1</v>
       </c>
       <c r="Z29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>1</v>
       </c>
       <c r="AB29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>1</v>
       </c>
       <c r="AD29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3408,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3494,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3580,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3924,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4096,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4268,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4354,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4526,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4612,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4698,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -4956,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5260,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5304,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5744,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5788,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>match</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>2-1</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-3</t>
   </si>
 </sst>
 </file>
@@ -3417,6 +3423,12 @@
       <c r="B31" t="s">
         <v>59</v>
       </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
         <v>-1</v>
       </c>
@@ -3433,19 +3445,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>-1</v>
@@ -3487,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="AB31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>0</v>
       </c>
       <c r="AD31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3503,6 +3515,12 @@
       <c r="B32" t="s">
         <v>60</v>
       </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
       <c r="E32">
         <v>0</v>
       </c>
@@ -3525,7 +3543,7 @@
         <v>-1</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3567,7 +3585,7 @@
         <v>-1</v>
       </c>
       <c r="Z32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -3589,71 +3607,77 @@
       <c r="B33" t="s">
         <v>61</v>
       </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>1</v>
       </c>
       <c r="X33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3665,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="AD33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3675,41 +3699,47 @@
       <c r="B34" t="s">
         <v>62</v>
       </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3721,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="T34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
   <si>
     <t>match</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>2-3</t>
+  </si>
+  <si>
+    <t>0-3</t>
   </si>
 </sst>
 </file>
@@ -3791,83 +3794,89 @@
       <c r="B35" t="s">
         <v>63</v>
       </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>1</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>1</v>
       </c>
       <c r="R35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>1</v>
       </c>
       <c r="V35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
         <v>1</v>
       </c>
       <c r="X35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>1</v>
       </c>
       <c r="Z35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>1</v>
       </c>
       <c r="AB35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>1</v>
       </c>
       <c r="AD35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3877,6 +3886,12 @@
       <c r="B36" t="s">
         <v>64</v>
       </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
       <c r="E36">
         <v>1</v>
       </c>
@@ -3893,7 +3908,7 @@
         <v>-1</v>
       </c>
       <c r="J36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3923,13 +3938,13 @@
         <v>-1</v>
       </c>
       <c r="T36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>-1</v>
       </c>
       <c r="V36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3941,7 +3956,7 @@
         <v>-1</v>
       </c>
       <c r="Z36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -3953,7 +3968,7 @@
         <v>-1</v>
       </c>
       <c r="AD36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3963,6 +3978,12 @@
       <c r="B37" t="s">
         <v>65</v>
       </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
       <c r="E37">
         <v>1</v>
       </c>
@@ -3973,7 +3994,7 @@
         <v>-1</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3991,19 +4012,19 @@
         <v>-1</v>
       </c>
       <c r="N37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <v>-1</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
         <v>-1</v>
       </c>
       <c r="R37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4015,13 +4036,13 @@
         <v>-1</v>
       </c>
       <c r="V37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -4033,13 +4054,13 @@
         <v>-1</v>
       </c>
       <c r="AB37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>-1</v>
       </c>
       <c r="AD37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -4049,29 +4070,35 @@
       <c r="B38" t="s">
         <v>66</v>
       </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
       <c r="E38">
         <v>-1</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>-1</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>-1</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>-1</v>
       </c>
       <c r="L38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -4083,13 +4110,13 @@
         <v>-1</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>-1</v>
       </c>
       <c r="R38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4101,31 +4128,31 @@
         <v>-1</v>
       </c>
       <c r="V38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>-1</v>
       </c>
       <c r="AD38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:30">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA513DC-E3F0-46C0-AA9A-B8B38DB69379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6960" yWindow="4245" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>match</t>
   </si>
@@ -299,13 +305,19 @@
   </si>
   <si>
     <t>0-3</t>
+  </si>
+  <si>
+    <t>NED-USA</t>
+  </si>
+  <si>
+    <t>ENG-SEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,15 +376,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -414,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +466,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,6 +518,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,14 +711,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -843,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -935,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1027,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1119,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1211,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1303,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1395,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1487,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1579,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1671,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1763,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1855,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1947,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2039,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2131,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2223,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2315,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2407,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2499,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2591,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2683,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2775,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2867,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2959,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3051,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3143,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3235,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3327,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3419,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3511,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3603,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3695,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3787,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3879,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3971,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4063,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4155,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4241,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4327,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4413,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4499,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4585,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4671,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4757,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4843,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4929,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5015,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5101,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5187,10 +5245,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
@@ -5231,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5275,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5319,10 +5380,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
@@ -5363,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5407,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5451,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5495,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5539,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5583,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5627,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5671,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5715,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5759,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5803,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5847,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85135632-6EE5-4888-95B9-3139190C7972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>match</t>
   </si>
@@ -304,8 +310,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,22 +363,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -414,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,9 +461,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,6 +513,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,14 +706,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -843,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -935,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1027,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1119,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1211,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1303,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1395,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1487,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1579,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1671,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1763,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1855,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1947,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2039,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2131,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2223,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2315,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2407,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2499,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2591,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2683,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2775,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2867,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2959,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3051,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3143,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3235,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3327,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3419,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3511,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3603,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3695,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3787,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3879,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3971,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4063,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4155,13 +4208,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E39">
         <v>-1</v>
       </c>
@@ -4241,13 +4297,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E40">
         <v>1</v>
       </c>
@@ -4327,13 +4386,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>69</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E41">
         <v>-1</v>
       </c>
@@ -4413,13 +4475,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="E42">
         <v>0</v>
       </c>
@@ -4499,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4585,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4671,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4757,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4843,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4929,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5015,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5101,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5187,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5231,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5275,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5319,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5363,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5407,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5451,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5495,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5539,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5583,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5627,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5671,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5715,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5759,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5803,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5847,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85135632-6EE5-4888-95B9-3139190C7972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>match</t>
   </si>
@@ -257,6 +251,18 @@
   </si>
   <si>
     <t>CMR-BRA</t>
+  </si>
+  <si>
+    <t>NED-USA</t>
+  </si>
+  <si>
+    <t>AUS-ARG</t>
+  </si>
+  <si>
+    <t>FRA-POL</t>
+  </si>
+  <si>
+    <t>ENG-SEN</t>
   </si>
   <si>
     <t>0-2</t>
@@ -310,8 +316,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,31 +369,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,27 +458,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,24 +492,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -706,16 +667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,7 +763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -896,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -904,7 +863,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -988,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -996,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1080,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1088,7 +1047,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1172,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1180,7 +1139,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1264,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1272,7 +1231,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1356,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1364,7 +1323,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1448,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1456,7 +1415,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1540,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1548,7 +1507,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1632,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1640,7 +1599,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1724,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1732,7 +1691,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1816,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1824,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1908,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1916,7 +1875,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2000,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2008,7 +1967,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2092,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2100,7 +2059,7 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2184,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2192,7 +2151,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2276,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2284,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2368,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2376,7 +2335,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -2460,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2468,7 +2427,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -2552,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2560,7 +2519,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2644,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2652,7 +2611,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2736,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2744,7 +2703,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2828,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2836,7 +2795,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2920,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2928,7 +2887,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3012,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3020,7 +2979,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3104,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3112,7 +3071,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -3196,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3204,7 +3163,7 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -3288,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3296,7 +3255,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3380,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3388,7 +3347,7 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3472,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3480,7 +3439,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3564,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3572,7 +3531,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -3656,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3664,7 +3623,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3748,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3756,7 +3715,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3840,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3848,7 +3807,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3932,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3940,7 +3899,7 @@
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -4024,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4032,7 +3991,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -4116,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4124,7 +4083,7 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -4208,15 +4167,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>86</v>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
         <v>-1</v>
@@ -4297,21 +4259,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>86</v>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -4386,33 +4351,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>82</v>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
       </c>
       <c r="E41">
         <v>-1</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>-1</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>-1</v>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4424,25 +4392,25 @@
         <v>-1</v>
       </c>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
         <v>-1</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>-1</v>
       </c>
       <c r="R41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>-1</v>
       </c>
       <c r="T41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -4454,13 +4422,13 @@
         <v>-1</v>
       </c>
       <c r="X41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -4472,18 +4440,21 @@
         <v>-1</v>
       </c>
       <c r="AD41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>79</v>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -4495,76 +4466,76 @@
         <v>-1</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>-1</v>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>-1</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>-1</v>
       </c>
       <c r="N42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
         <v>-1</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>-1</v>
       </c>
       <c r="R42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <v>-1</v>
       </c>
       <c r="T42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>-1</v>
       </c>
       <c r="V42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>-1</v>
       </c>
       <c r="AD42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4650,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4736,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4822,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4908,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4994,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5080,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5166,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5252,10 +5223,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
@@ -5296,10 +5270,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
@@ -5340,10 +5317,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
@@ -5384,10 +5364,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
@@ -5428,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5472,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5516,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5560,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5604,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5648,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5692,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5736,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5780,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5824,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5868,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5912,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E616B3-0522-4924-BA9D-19BD5B7B639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -316,8 +322,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,15 +382,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -426,7 +440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -458,9 +472,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,6 +524,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,14 +717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -855,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -947,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1039,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1131,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1223,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1315,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1407,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1499,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1683,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1775,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1867,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1959,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2051,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2143,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2235,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2327,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2419,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2511,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2603,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2695,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2787,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2879,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2971,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3063,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3155,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3247,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3339,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3431,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3523,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3615,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3707,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3799,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3891,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3983,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4075,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4167,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4259,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4351,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4443,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4535,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4621,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4707,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4793,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4879,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4965,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5051,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5137,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5223,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5270,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5317,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5364,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5411,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5455,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5499,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5543,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5587,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5631,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5675,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5719,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5763,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5807,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5851,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5895,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E616B3-0522-4924-BA9D-19BD5B7B639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,7 +40,7 @@
     <t>tip Paulo</t>
   </si>
   <si>
-    <t>score Paolo</t>
+    <t>score Paulo</t>
   </si>
   <si>
     <t>tip Moritz</t>
@@ -322,8 +316,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,23 +376,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -440,7 +426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,27 +458,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,24 +492,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,14 +667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -905,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -997,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1089,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1181,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1273,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1365,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1457,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1549,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1641,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1733,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1825,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1917,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2009,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2101,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2193,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2285,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2377,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2469,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2561,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2653,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2745,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2837,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2929,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3021,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3113,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3205,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3297,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3389,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3481,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3573,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3665,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3757,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3849,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3941,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4033,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4125,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4217,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4309,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4401,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4493,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4585,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4671,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4757,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4843,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4929,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5015,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5101,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5187,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5273,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5320,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5367,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5414,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5461,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5505,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5549,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5593,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5637,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5681,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5725,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5769,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5813,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5857,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5901,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5945,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>match</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>0-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
   </si>
 </sst>
 </file>
@@ -4542,11 +4545,17 @@
       <c r="B43" t="s">
         <v>71</v>
       </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
       <c r="E43">
         <v>-1</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -4570,7 +4579,7 @@
         <v>-1</v>
       </c>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4606,7 +4615,7 @@
         <v>-1</v>
       </c>
       <c r="Z43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -4628,6 +4637,12 @@
       <c r="B44" t="s">
         <v>72</v>
       </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44">
         <v>1</v>
       </c>
@@ -4656,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
         <v>-1</v>
@@ -4668,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>-1</v>
@@ -4692,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="Z44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4714,6 +4729,12 @@
       <c r="B45" t="s">
         <v>73</v>
       </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
       <c r="E45">
         <v>1</v>
       </c>
@@ -4724,73 +4745,73 @@
         <v>-1</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>-1</v>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>-1</v>
       </c>
       <c r="L45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>-1</v>
       </c>
       <c r="N45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>-1</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>-1</v>
       </c>
       <c r="R45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>-1</v>
       </c>
       <c r="T45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>-1</v>
       </c>
       <c r="V45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>-1</v>
       </c>
       <c r="AB45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>-1</v>
       </c>
       <c r="AD45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4799,6 +4820,12 @@
       </c>
       <c r="B46" t="s">
         <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="E46">
         <v>-1</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35703FC4-403A-4C50-ABBE-6D3F717DC84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>match</t>
   </si>
@@ -314,13 +320,19 @@
   </si>
   <si>
     <t>2-4</t>
+  </si>
+  <si>
+    <t>JPN-CRO</t>
+  </si>
+  <si>
+    <t>MAR-ESP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,15 +391,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,9 +481,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,6 +533,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,14 +726,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -858,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -950,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1042,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1134,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1226,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1318,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1410,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1502,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1594,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1686,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1778,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1870,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1962,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2054,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2146,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2238,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2330,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2422,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2514,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2606,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2698,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2790,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2882,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2974,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3066,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3158,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3250,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3342,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3434,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3526,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3618,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3710,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3802,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3894,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3986,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4078,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4170,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4262,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4354,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4446,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4538,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4630,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4722,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4814,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4906,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4992,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5078,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5164,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5250,13 +5308,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
       </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
@@ -5269,6 +5330,9 @@
       <c r="L51" t="b">
         <v>0</v>
       </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
       <c r="N51" t="b">
         <v>0</v>
       </c>
@@ -5297,13 +5361,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>80</v>
       </c>
+      <c r="E52">
+        <v>-1</v>
+      </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
@@ -5316,6 +5383,9 @@
       <c r="L52" t="b">
         <v>0</v>
       </c>
+      <c r="M52">
+        <v>-1</v>
+      </c>
       <c r="N52" t="b">
         <v>0</v>
       </c>
@@ -5344,13 +5414,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>81</v>
       </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
@@ -5363,6 +5436,9 @@
       <c r="L53" t="b">
         <v>0</v>
       </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
       <c r="N53" t="b">
         <v>0</v>
       </c>
@@ -5391,13 +5467,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
@@ -5410,6 +5489,9 @@
       <c r="L54" t="b">
         <v>0</v>
       </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
       <c r="N54" t="b">
         <v>0</v>
       </c>
@@ -5438,10 +5520,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
+      </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
@@ -5482,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5526,10 +5614,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
+      </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
@@ -5570,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5614,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5658,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5702,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5746,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5790,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5834,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5878,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -5922,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35703FC4-403A-4C50-ABBE-6D3F717DC84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78605A0-26E8-42D5-9970-2CD65BAC45C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="4590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,13 +729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5321,6 +5321,9 @@
       <c r="F51" t="b">
         <v>0</v>
       </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
@@ -5336,9 +5339,15 @@
       <c r="N51" t="b">
         <v>0</v>
       </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
       <c r="P51" t="b">
         <v>0</v>
       </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
       <c r="R51" t="b">
         <v>0</v>
       </c>
@@ -5361,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5374,6 +5383,9 @@
       <c r="F52" t="b">
         <v>0</v>
       </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
@@ -5389,9 +5401,15 @@
       <c r="N52" t="b">
         <v>0</v>
       </c>
+      <c r="O52">
+        <v>-1</v>
+      </c>
       <c r="P52" t="b">
         <v>0</v>
       </c>
+      <c r="Q52">
+        <v>-1</v>
+      </c>
       <c r="R52" t="b">
         <v>0</v>
       </c>
@@ -5414,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5427,6 +5445,9 @@
       <c r="F53" t="b">
         <v>0</v>
       </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
@@ -5442,9 +5463,15 @@
       <c r="N53" t="b">
         <v>0</v>
       </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
       <c r="P53" t="b">
         <v>0</v>
       </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
       <c r="R53" t="b">
         <v>0</v>
       </c>
@@ -5467,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5480,6 +5507,9 @@
       <c r="F54" t="b">
         <v>0</v>
       </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
@@ -5495,9 +5525,15 @@
       <c r="N54" t="b">
         <v>0</v>
       </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
       <c r="P54" t="b">
         <v>0</v>
       </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
       <c r="R54" t="b">
         <v>0</v>
       </c>
@@ -5520,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5533,6 +5569,9 @@
       <c r="F55" t="b">
         <v>0</v>
       </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
@@ -5548,6 +5587,9 @@
       <c r="P55" t="b">
         <v>0</v>
       </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
       <c r="R55" t="b">
         <v>0</v>
       </c>
@@ -5570,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5614,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5642,6 +5684,9 @@
       <c r="P57" t="b">
         <v>0</v>
       </c>
+      <c r="Q57">
+        <v>-1</v>
+      </c>
       <c r="R57" t="b">
         <v>0</v>
       </c>
@@ -5664,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5708,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5752,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5796,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5840,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5884,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5928,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -5972,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6016,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78605A0-26E8-42D5-9970-2CD65BAC45C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36E4B6-8FA1-49BC-833D-02566C82014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="4590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,13 +729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5354,6 +5354,9 @@
       <c r="T51" t="b">
         <v>0</v>
       </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
       <c r="V51" t="b">
         <v>0</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5416,6 +5419,9 @@
       <c r="T52" t="b">
         <v>0</v>
       </c>
+      <c r="U52">
+        <v>-1</v>
+      </c>
       <c r="V52" t="b">
         <v>0</v>
       </c>
@@ -5432,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5478,6 +5484,9 @@
       <c r="T53" t="b">
         <v>0</v>
       </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
       <c r="V53" t="b">
         <v>0</v>
       </c>
@@ -5494,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5540,6 +5549,9 @@
       <c r="T54" t="b">
         <v>0</v>
       </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
       <c r="V54" t="b">
         <v>0</v>
       </c>
@@ -5556,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5612,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5656,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5709,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5753,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5797,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5841,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5885,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5929,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5973,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6061,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36E4B6-8FA1-49BC-833D-02566C82014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>match</t>
   </si>
@@ -271,6 +265,18 @@
     <t>ENG-SEN</t>
   </si>
   <si>
+    <t>JPN-CRO</t>
+  </si>
+  <si>
+    <t>BRA-KOR</t>
+  </si>
+  <si>
+    <t>MAR-ESP</t>
+  </si>
+  <si>
+    <t>POR-SUI</t>
+  </si>
+  <si>
     <t>0-2</t>
   </si>
   <si>
@@ -322,17 +328,14 @@
     <t>2-4</t>
   </si>
   <si>
-    <t>JPN-CRO</t>
-  </si>
-  <si>
-    <t>MAR-ESP</t>
+    <t>3-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,23 +394,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,27 +476,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,24 +510,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,16 +685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -916,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -924,7 +881,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1008,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1016,7 +973,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1100,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1108,7 +1065,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1192,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1200,7 +1157,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1284,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1292,7 +1249,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1376,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1384,7 +1341,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1468,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1476,7 +1433,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1560,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1568,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1652,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1660,7 +1617,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1744,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1752,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1836,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1844,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1928,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1936,7 +1893,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2020,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2028,7 +1985,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2112,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2120,7 +2077,7 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2204,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2212,7 +2169,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2296,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2304,7 +2261,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2388,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2396,7 +2353,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -2480,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2488,7 +2445,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -2572,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2580,7 +2537,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2664,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2672,7 +2629,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2756,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2764,7 +2721,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2848,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2856,7 +2813,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2940,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2948,7 +2905,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3032,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3040,7 +2997,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3124,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3132,7 +3089,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -3216,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3224,7 +3181,7 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -3308,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3316,7 +3273,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3400,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3408,7 +3365,7 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3492,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3500,7 +3457,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3584,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3592,7 +3549,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -3676,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3684,7 +3641,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3768,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3776,7 +3733,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3860,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3868,7 +3825,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3952,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3960,7 +3917,7 @@
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -4044,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4052,7 +4009,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -4136,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4144,7 +4101,7 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -4228,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4236,7 +4193,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4320,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4328,7 +4285,7 @@
         <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4412,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4420,7 +4377,7 @@
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -4504,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4512,7 +4469,7 @@
         <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -4596,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4604,7 +4561,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -4688,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4696,7 +4653,7 @@
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4780,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4788,7 +4745,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -4872,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4880,7 +4837,7 @@
         <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4964,30 +4921,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>75</v>
       </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
       <c r="E47">
         <v>-1</v>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>-1</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>-1</v>
       </c>
       <c r="J47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -5005,58 +4968,64 @@
         <v>-1</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>-1</v>
       </c>
       <c r="R47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
         <v>-1</v>
       </c>
       <c r="T47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>-1</v>
       </c>
       <c r="V47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>-1</v>
       </c>
       <c r="AD47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>76</v>
       </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48">
         <v>-1</v>
       </c>
@@ -5079,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>-1</v>
@@ -5136,24 +5105,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
       </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
       <c r="E49">
         <v>-1</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>-1</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -5171,7 +5146,7 @@
         <v>-1</v>
       </c>
       <c r="N49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -5183,7 +5158,7 @@
         <v>-1</v>
       </c>
       <c r="R49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -5213,7 +5188,7 @@
         <v>-1</v>
       </c>
       <c r="AB49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
         <v>1</v>
@@ -5222,13 +5197,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>78</v>
       </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
       <c r="E50">
         <v>-1</v>
       </c>
@@ -5308,48 +5289,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
       </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
       <c r="J51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
       </c>
       <c r="L51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>1</v>
       </c>
       <c r="N51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="b">
         <v>0</v>
@@ -5358,63 +5351,87 @@
         <v>1</v>
       </c>
       <c r="V51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
       </c>
       <c r="X51" t="b">
         <v>0</v>
       </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
       <c r="Z51" t="b">
         <v>0</v>
       </c>
+      <c r="AA51">
+        <v>-1</v>
+      </c>
       <c r="AB51" t="b">
         <v>0</v>
       </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
       <c r="AD51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>80</v>
       </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
       <c r="E52">
         <v>-1</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>-1</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>-1</v>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>-1</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>-1</v>
       </c>
       <c r="N52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>-1</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>-1</v>
       </c>
       <c r="R52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="b">
         <v>0</v>
@@ -5423,22 +5440,34 @@
         <v>-1</v>
       </c>
       <c r="V52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
       </c>
       <c r="X52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
       </c>
       <c r="Z52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>-1</v>
       </c>
       <c r="AB52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <v>-1</v>
       </c>
       <c r="AD52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5457,9 +5486,15 @@
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
       <c r="L53" t="b">
         <v>0</v>
       </c>
@@ -5490,20 +5525,32 @@
       <c r="V53" t="b">
         <v>0</v>
       </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
       <c r="X53" t="b">
         <v>0</v>
       </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
       <c r="Z53" t="b">
         <v>0</v>
       </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
       <c r="AB53" t="b">
         <v>0</v>
       </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5522,9 +5569,15 @@
       <c r="H54" t="b">
         <v>0</v>
       </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
       <c r="L54" t="b">
         <v>0</v>
       </c>
@@ -5555,25 +5608,37 @@
       <c r="V54" t="b">
         <v>0</v>
       </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
       <c r="X54" t="b">
         <v>0</v>
       </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
       <c r="Z54" t="b">
         <v>0</v>
       </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
       <c r="AB54" t="b">
         <v>0</v>
       </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E55">
         <v>-1</v>
@@ -5582,17 +5647,26 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55">
+        <v>-1</v>
+      </c>
       <c r="L55" t="b">
         <v>0</v>
       </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
       <c r="N55" t="b">
         <v>0</v>
       </c>
@@ -5611,12 +5685,18 @@
       <c r="V55" t="b">
         <v>0</v>
       </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
       <c r="X55" t="b">
         <v>0</v>
       </c>
       <c r="Z55" t="b">
         <v>0</v>
       </c>
+      <c r="AA55">
+        <v>-1</v>
+      </c>
       <c r="AB55" t="b">
         <v>0</v>
       </c>
@@ -5624,22 +5704,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
       <c r="L56" t="b">
         <v>0</v>
       </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
       <c r="N56" t="b">
         <v>0</v>
       </c>
@@ -5655,12 +5753,18 @@
       <c r="V56" t="b">
         <v>0</v>
       </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
       <c r="X56" t="b">
         <v>0</v>
       </c>
       <c r="Z56" t="b">
         <v>0</v>
       </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
       <c r="AB56" t="b">
         <v>0</v>
       </c>
@@ -5668,12 +5772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E57">
         <v>-1</v>
@@ -5681,15 +5785,27 @@
       <c r="F57" t="b">
         <v>0</v>
       </c>
+      <c r="G57">
+        <v>-1</v>
+      </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57">
+        <v>-1</v>
+      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57">
+        <v>-1</v>
+      </c>
       <c r="L57" t="b">
         <v>0</v>
       </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
       <c r="N57" t="b">
         <v>0</v>
       </c>
@@ -5708,12 +5824,18 @@
       <c r="V57" t="b">
         <v>0</v>
       </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
       <c r="X57" t="b">
         <v>0</v>
       </c>
       <c r="Z57" t="b">
         <v>0</v>
       </c>
+      <c r="AA57">
+        <v>-1</v>
+      </c>
       <c r="AB57" t="b">
         <v>0</v>
       </c>
@@ -5721,22 +5843,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
+      </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
       <c r="L58" t="b">
         <v>0</v>
       </c>
+      <c r="M58">
+        <v>-1</v>
+      </c>
       <c r="N58" t="b">
         <v>0</v>
       </c>
@@ -5752,12 +5892,18 @@
       <c r="V58" t="b">
         <v>0</v>
       </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
       <c r="X58" t="b">
         <v>0</v>
       </c>
       <c r="Z58" t="b">
         <v>0</v>
       </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
       <c r="AB58" t="b">
         <v>0</v>
       </c>
@@ -5765,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5809,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5853,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -5897,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -5941,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -5985,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6029,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6073,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3890DB1E-D14C-4CDC-9BF6-0CD1C9812110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -334,8 +340,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,15 +400,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,9 +490,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,6 +542,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -685,14 +735,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -873,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -965,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1057,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1149,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1241,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1333,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1425,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1517,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1609,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1701,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1793,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1885,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1977,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2069,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2161,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2253,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2345,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2437,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2529,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2621,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2713,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2805,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2897,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2989,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3081,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3173,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3265,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3357,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3449,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3541,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3633,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3725,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3817,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3909,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4001,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4093,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4185,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4277,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4369,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4461,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4553,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4645,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4737,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4829,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4921,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5013,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5105,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5197,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5289,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5344,6 +5396,9 @@
       <c r="R51" t="b">
         <v>1</v>
       </c>
+      <c r="S51">
+        <v>-1</v>
+      </c>
       <c r="T51" t="b">
         <v>0</v>
       </c>
@@ -5378,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5433,6 +5488,9 @@
       <c r="R52" t="b">
         <v>1</v>
       </c>
+      <c r="S52">
+        <v>-1</v>
+      </c>
       <c r="T52" t="b">
         <v>0</v>
       </c>
@@ -5467,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5516,6 +5574,9 @@
       <c r="R53" t="b">
         <v>0</v>
       </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
       <c r="T53" t="b">
         <v>0</v>
       </c>
@@ -5550,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5599,6 +5660,9 @@
       <c r="R54" t="b">
         <v>0</v>
       </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
       <c r="T54" t="b">
         <v>0</v>
       </c>
@@ -5633,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5679,6 +5743,9 @@
       <c r="R55" t="b">
         <v>0</v>
       </c>
+      <c r="S55">
+        <v>-1</v>
+      </c>
       <c r="T55" t="b">
         <v>0</v>
       </c>
@@ -5704,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5747,6 +5814,9 @@
       <c r="R56" t="b">
         <v>0</v>
       </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
       <c r="T56" t="b">
         <v>0</v>
       </c>
@@ -5772,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5818,6 +5888,9 @@
       <c r="R57" t="b">
         <v>0</v>
       </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
       <c r="T57" t="b">
         <v>0</v>
       </c>
@@ -5843,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5886,6 +5959,9 @@
       <c r="R58" t="b">
         <v>0</v>
       </c>
+      <c r="S58">
+        <v>-1</v>
+      </c>
       <c r="T58" t="b">
         <v>0</v>
       </c>
@@ -5911,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5955,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -5999,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6043,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6087,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6131,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6175,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6219,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3890DB1E-D14C-4CDC-9BF6-0CD1C9812110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>match</t>
   </si>
@@ -335,13 +329,16 @@
   </si>
   <si>
     <t>3-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,23 +397,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,27 +479,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,24 +513,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,16 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S59" sqref="S59"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -925,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1017,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1109,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1201,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1293,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1385,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1477,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1569,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1661,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1753,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1845,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1937,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2029,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2121,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2213,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2305,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2397,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2489,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2581,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2673,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2765,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2857,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2949,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3041,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3133,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3225,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3317,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3409,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3501,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3593,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3685,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3777,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3869,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3961,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4053,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4145,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4237,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4329,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4421,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4513,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4605,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4697,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4789,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4881,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4973,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5065,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5157,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5249,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5341,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5433,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5492,7 +5443,7 @@
         <v>-1</v>
       </c>
       <c r="T52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>-1</v>
@@ -5525,179 +5476,191 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>81</v>
       </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>1</v>
       </c>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <v>1</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <v>1</v>
       </c>
       <c r="R53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
       <c r="T53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <v>1</v>
       </c>
       <c r="V53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <v>1</v>
       </c>
       <c r="X53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53">
         <v>1</v>
       </c>
       <c r="Z53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53">
         <v>1</v>
       </c>
       <c r="AB53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>1</v>
       </c>
       <c r="AD53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>82</v>
       </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>1</v>
       </c>
       <c r="R54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54">
         <v>1</v>
       </c>
       <c r="T54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>1</v>
       </c>
       <c r="V54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54">
         <v>1</v>
       </c>
       <c r="X54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>1</v>
       </c>
       <c r="Z54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54">
         <v>1</v>
       </c>
       <c r="AB54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>1</v>
       </c>
       <c r="AD54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5771,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5842,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5916,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5987,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -6031,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6075,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6119,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6163,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6207,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6251,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6295,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDDF02B-6933-4064-872A-A5CBAC10CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -337,8 +343,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,15 +403,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,9 +493,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,6 +545,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -688,14 +738,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Y59" sqref="Y59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -876,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -968,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1060,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1152,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1244,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1336,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1428,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1520,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1612,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1704,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1796,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1888,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1980,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2072,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2164,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2256,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2348,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2440,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2532,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2624,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2716,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2808,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2900,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2992,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3084,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3176,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3268,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3360,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3452,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3544,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3636,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3728,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3820,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3912,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4004,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4096,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4188,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4280,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4372,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4464,7 +4516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4556,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4648,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4740,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4832,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4924,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5016,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5108,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5200,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5292,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5384,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5476,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5568,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5660,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5697,6 +5749,9 @@
       <c r="N55" t="b">
         <v>0</v>
       </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
       <c r="P55" t="b">
         <v>0</v>
       </c>
@@ -5712,6 +5767,9 @@
       <c r="T55" t="b">
         <v>0</v>
       </c>
+      <c r="U55">
+        <v>-1</v>
+      </c>
       <c r="V55" t="b">
         <v>0</v>
       </c>
@@ -5721,6 +5779,9 @@
       <c r="X55" t="b">
         <v>0</v>
       </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
       <c r="Z55" t="b">
         <v>0</v>
       </c>
@@ -5730,11 +5791,14 @@
       <c r="AB55" t="b">
         <v>0</v>
       </c>
+      <c r="AC55">
+        <v>-1</v>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5771,9 +5835,15 @@
       <c r="N56" t="b">
         <v>0</v>
       </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
       <c r="R56" t="b">
         <v>0</v>
       </c>
@@ -5783,6 +5853,9 @@
       <c r="T56" t="b">
         <v>0</v>
       </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
       <c r="V56" t="b">
         <v>0</v>
       </c>
@@ -5792,6 +5865,9 @@
       <c r="X56" t="b">
         <v>0</v>
       </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
       <c r="Z56" t="b">
         <v>0</v>
       </c>
@@ -5801,11 +5877,14 @@
       <c r="AB56" t="b">
         <v>0</v>
       </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5842,6 +5921,9 @@
       <c r="N57" t="b">
         <v>0</v>
       </c>
+      <c r="O57">
+        <v>-1</v>
+      </c>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -5857,6 +5939,9 @@
       <c r="T57" t="b">
         <v>0</v>
       </c>
+      <c r="U57">
+        <v>-1</v>
+      </c>
       <c r="V57" t="b">
         <v>0</v>
       </c>
@@ -5866,6 +5951,9 @@
       <c r="X57" t="b">
         <v>0</v>
       </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
       <c r="Z57" t="b">
         <v>0</v>
       </c>
@@ -5875,11 +5963,14 @@
       <c r="AB57" t="b">
         <v>0</v>
       </c>
+      <c r="AC57">
+        <v>-1</v>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5916,9 +6007,15 @@
       <c r="N58" t="b">
         <v>0</v>
       </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
       <c r="P58" t="b">
         <v>0</v>
       </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
       <c r="R58" t="b">
         <v>0</v>
       </c>
@@ -5928,6 +6025,9 @@
       <c r="T58" t="b">
         <v>0</v>
       </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
       <c r="V58" t="b">
         <v>0</v>
       </c>
@@ -5937,6 +6037,9 @@
       <c r="X58" t="b">
         <v>0</v>
       </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
       <c r="Z58" t="b">
         <v>0</v>
       </c>
@@ -5946,11 +6049,14 @@
       <c r="AB58" t="b">
         <v>0</v>
       </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -5994,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6038,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6082,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6126,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6170,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6214,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6258,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDDF02B-6933-4064-872A-A5CBAC10CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>match</t>
   </si>
@@ -343,8 +337,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,23 +397,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,27 +479,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,24 +513,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -738,16 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Y59" sqref="Y59"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -928,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1020,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1112,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1204,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1296,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1388,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1480,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1572,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1664,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1756,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1848,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1940,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2032,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2124,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2216,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2308,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2400,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2492,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2584,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2676,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2768,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2860,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2952,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3044,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3136,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3228,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3320,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3412,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3504,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3596,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3688,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3780,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3872,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3964,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4056,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4148,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4240,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4332,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4424,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4516,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4608,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4700,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4792,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4884,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4976,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5068,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5160,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5252,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5344,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5436,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5528,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5620,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5712,24 +5660,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>83</v>
       </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
       <c r="E55">
         <v>-1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>-1</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -5741,7 +5695,7 @@
         <v>-1</v>
       </c>
       <c r="L55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55">
         <v>1</v>
@@ -5765,126 +5719,132 @@
         <v>-1</v>
       </c>
       <c r="T55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>-1</v>
       </c>
       <c r="V55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
         <v>-1</v>
       </c>
       <c r="AD55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>84</v>
       </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56">
         <v>1</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56">
         <v>1</v>
       </c>
       <c r="T56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
         <v>1</v>
       </c>
       <c r="V56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <v>1</v>
       </c>
       <c r="X56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>1</v>
       </c>
       <c r="Z56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>1</v>
       </c>
       <c r="AB56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>1</v>
       </c>
       <c r="AD56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5970,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6056,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -6100,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6144,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6188,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6232,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6276,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6320,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6364,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>match</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>3-0</t>
+  </si>
+  <si>
+    <t>6-1</t>
   </si>
 </sst>
 </file>
@@ -5668,7 +5671,7 @@
         <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -5851,6 +5854,12 @@
       <c r="B57" t="s">
         <v>85</v>
       </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
       <c r="E57">
         <v>-1</v>
       </c>
@@ -5879,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <v>-1</v>
@@ -5897,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="T57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <v>-1</v>
@@ -5937,6 +5946,12 @@
       <c r="B58" t="s">
         <v>86</v>
       </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
       <c r="E58">
         <v>-1</v>
       </c>
@@ -5947,19 +5962,19 @@
         <v>1</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58">
         <v>-1</v>
@@ -5971,13 +5986,13 @@
         <v>1</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>1</v>
       </c>
       <c r="R58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58">
         <v>-1</v>
@@ -5989,31 +6004,31 @@
         <v>1</v>
       </c>
       <c r="V58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>1</v>
       </c>
       <c r="X58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58">
         <v>1</v>
       </c>
       <c r="Z58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58">
         <v>1</v>
       </c>
       <c r="AB58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>1</v>
       </c>
       <c r="AD58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:30">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A9A24-8715-4095-ABF6-9D1C53E3EE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>match</t>
   </si>
@@ -335,13 +341,25 @@
   </si>
   <si>
     <t>6-1</t>
+  </si>
+  <si>
+    <t>NED-ARG</t>
+  </si>
+  <si>
+    <t>CRO-BRA</t>
+  </si>
+  <si>
+    <t>MAR-POR</t>
+  </si>
+  <si>
+    <t>ENG-FRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,22 +411,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,9 +509,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,6 +561,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -691,14 +754,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B62"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -879,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -971,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1063,7 +1128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1155,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1247,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1339,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1431,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1523,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1615,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1707,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1799,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1891,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1983,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2075,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2167,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2259,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2351,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2443,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2535,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2627,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2719,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2811,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2903,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2995,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3087,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3179,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3271,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3363,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3455,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3547,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3639,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3731,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3823,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3915,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4007,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4099,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4191,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4283,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4375,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4467,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4559,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4651,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4743,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4835,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4927,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5019,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5111,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5203,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5295,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5387,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5479,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5571,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5663,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5755,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5847,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5939,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6031,10 +6096,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
@@ -6075,10 +6146,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
@@ -6119,10 +6196,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
@@ -6163,10 +6246,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62">
+        <v>-1</v>
+      </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
@@ -6207,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6251,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6295,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6339,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A9A24-8715-4095-ABF6-9D1C53E3EE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA222C-E9A8-4C40-8324-477702707182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6118,9 +6118,15 @@
       <c r="L59" t="b">
         <v>0</v>
       </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
       <c r="N59" t="b">
         <v>0</v>
       </c>
+      <c r="O59">
+        <v>-1</v>
+      </c>
       <c r="P59" t="b">
         <v>0</v>
       </c>
@@ -6132,6 +6138,9 @@
       </c>
       <c r="V59" t="b">
         <v>0</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
       </c>
       <c r="X59" t="b">
         <v>0</v>
@@ -6168,9 +6177,15 @@
       <c r="L60" t="b">
         <v>0</v>
       </c>
+      <c r="M60">
+        <v>-1</v>
+      </c>
       <c r="N60" t="b">
         <v>0</v>
       </c>
+      <c r="O60">
+        <v>-1</v>
+      </c>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -6182,6 +6197,9 @@
       </c>
       <c r="V60" t="b">
         <v>0</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
       </c>
       <c r="X60" t="b">
         <v>0</v>
@@ -6218,9 +6236,15 @@
       <c r="L61" t="b">
         <v>0</v>
       </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
       <c r="N61" t="b">
         <v>0</v>
       </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -6232,6 +6256,9 @@
       </c>
       <c r="V61" t="b">
         <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
       </c>
       <c r="X61" t="b">
         <v>0</v>
@@ -6268,9 +6295,15 @@
       <c r="L62" t="b">
         <v>0</v>
       </c>
+      <c r="M62">
+        <v>-1</v>
+      </c>
       <c r="N62" t="b">
         <v>0</v>
       </c>
+      <c r="O62">
+        <v>-1</v>
+      </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
@@ -6282,6 +6315,9 @@
       </c>
       <c r="V62" t="b">
         <v>0</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
       </c>
       <c r="X62" t="b">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA222C-E9A8-4C40-8324-477702707182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E91097-2DA0-4EC4-80FE-1A7B1AD85431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6112,6 +6112,9 @@
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59">
+        <v>-1</v>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -6171,6 +6174,9 @@
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
@@ -6219,10 +6225,10 @@
         <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -6230,6 +6236,9 @@
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61">
+        <v>-1</v>
+      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -6237,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N61" t="b">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P61" t="b">
         <v>0</v>
@@ -6278,10 +6287,10 @@
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -6289,6 +6298,9 @@
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
@@ -6296,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P62" t="b">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E91097-2DA0-4EC4-80FE-1A7B1AD85431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA83291-11E6-4715-953B-56487BCC7921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6171,6 +6171,9 @@
       <c r="F60" t="b">
         <v>0</v>
       </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
@@ -6232,6 +6235,9 @@
       </c>
       <c r="F61" t="b">
         <v>0</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA83291-11E6-4715-953B-56487BCC7921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -283,6 +277,18 @@
     <t>POR-SUI</t>
   </si>
   <si>
+    <t>CRO-BRA</t>
+  </si>
+  <si>
+    <t>NED-ARG</t>
+  </si>
+  <si>
+    <t>MAR-POR</t>
+  </si>
+  <si>
+    <t>ENG-FRA</t>
+  </si>
+  <si>
     <t>0-2</t>
   </si>
   <si>
@@ -341,25 +347,13 @@
   </si>
   <si>
     <t>6-1</t>
-  </si>
-  <si>
-    <t>NED-ARG</t>
-  </si>
-  <si>
-    <t>CRO-BRA</t>
-  </si>
-  <si>
-    <t>MAR-POR</t>
-  </si>
-  <si>
-    <t>ENG-FRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,31 +405,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,27 +494,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,24 +528,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,16 +703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -944,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -952,7 +899,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1036,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1044,7 +991,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1128,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1136,7 +1083,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1220,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1228,7 +1175,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1312,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1320,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1404,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1412,7 +1359,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1496,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1504,7 +1451,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1588,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1596,7 +1543,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1680,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1688,7 +1635,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1772,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1780,7 +1727,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1864,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1872,7 +1819,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1956,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1964,7 +1911,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2048,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2056,7 +2003,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2140,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2148,7 +2095,7 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2232,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2240,7 +2187,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2324,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2332,7 +2279,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2416,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2424,7 +2371,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -2508,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2516,7 +2463,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -2600,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2608,7 +2555,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2692,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2700,7 +2647,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2784,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2792,7 +2739,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2876,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2884,7 +2831,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2968,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2976,7 +2923,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3060,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3068,7 +3015,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3152,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3160,7 +3107,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -3244,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3252,7 +3199,7 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -3336,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3344,7 +3291,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3428,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3436,7 +3383,7 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3520,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3528,7 +3475,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3612,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3620,7 +3567,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -3704,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3712,7 +3659,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3796,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3804,7 +3751,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3888,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3896,7 +3843,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3980,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3988,7 +3935,7 @@
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -4072,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4080,7 +4027,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -4164,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4172,7 +4119,7 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -4256,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4264,7 +4211,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4348,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4356,7 +4303,7 @@
         <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4440,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4448,7 +4395,7 @@
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -4532,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4540,7 +4487,7 @@
         <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -4624,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4632,7 +4579,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -4716,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4724,7 +4671,7 @@
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4808,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4816,7 +4763,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -4900,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4908,7 +4855,7 @@
         <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4992,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5000,7 +4947,7 @@
         <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>-1</v>
@@ -5084,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5092,7 +5039,7 @@
         <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5176,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5184,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -5268,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5276,7 +5223,7 @@
         <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5360,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5368,7 +5315,7 @@
         <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5452,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5460,7 +5407,7 @@
         <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D52">
         <v>-1</v>
@@ -5544,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5552,7 +5499,7 @@
         <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -5636,7 +5583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5644,7 +5591,7 @@
         <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5728,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5736,7 +5683,7 @@
         <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -5820,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5828,7 +5775,7 @@
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -5912,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5920,7 +5867,7 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -6004,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6012,7 +5959,7 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -6096,12 +6043,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>107</v>
+      <c r="B59" t="s">
+        <v>87</v>
       </c>
       <c r="E59">
         <v>-1</v>
@@ -6109,20 +6056,26 @@
       <c r="F59" t="b">
         <v>0</v>
       </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59">
+        <v>-1</v>
+      </c>
       <c r="L59" t="b">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -6133,12 +6086,21 @@
       <c r="P59" t="b">
         <v>0</v>
       </c>
+      <c r="Q59">
+        <v>-1</v>
+      </c>
       <c r="R59" t="b">
         <v>0</v>
       </c>
+      <c r="S59">
+        <v>-1</v>
+      </c>
       <c r="T59" t="b">
         <v>0</v>
       </c>
+      <c r="U59">
+        <v>-1</v>
+      </c>
       <c r="V59" t="b">
         <v>0</v>
       </c>
@@ -6148,22 +6110,31 @@
       <c r="X59" t="b">
         <v>0</v>
       </c>
+      <c r="Y59">
+        <v>-1</v>
+      </c>
       <c r="Z59" t="b">
         <v>0</v>
       </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
       <c r="AB59" t="b">
         <v>0</v>
       </c>
+      <c r="AC59">
+        <v>-1</v>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>108</v>
+      <c r="B60" t="s">
+        <v>88</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -6172,22 +6143,25 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
       <c r="L60" t="b">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N60" t="b">
         <v>0</v>
@@ -6198,12 +6172,21 @@
       <c r="P60" t="b">
         <v>0</v>
       </c>
+      <c r="Q60">
+        <v>-1</v>
+      </c>
       <c r="R60" t="b">
         <v>0</v>
       </c>
+      <c r="S60">
+        <v>-1</v>
+      </c>
       <c r="T60" t="b">
         <v>0</v>
       </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
       <c r="V60" t="b">
         <v>0</v>
       </c>
@@ -6213,22 +6196,31 @@
       <c r="X60" t="b">
         <v>0</v>
       </c>
+      <c r="Y60">
+        <v>-1</v>
+      </c>
       <c r="Z60" t="b">
         <v>0</v>
       </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
       <c r="AB60" t="b">
         <v>0</v>
       </c>
+      <c r="AC60">
+        <v>-1</v>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>109</v>
+      <c r="B61" t="s">
+        <v>89</v>
       </c>
       <c r="E61">
         <v>-1</v>
@@ -6248,6 +6240,9 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61">
+        <v>-1</v>
+      </c>
       <c r="L61" t="b">
         <v>0</v>
       </c>
@@ -6263,12 +6258,21 @@
       <c r="P61" t="b">
         <v>0</v>
       </c>
+      <c r="Q61">
+        <v>-1</v>
+      </c>
       <c r="R61" t="b">
         <v>0</v>
       </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
       <c r="T61" t="b">
         <v>0</v>
       </c>
+      <c r="U61">
+        <v>-1</v>
+      </c>
       <c r="V61" t="b">
         <v>0</v>
       </c>
@@ -6278,22 +6282,31 @@
       <c r="X61" t="b">
         <v>0</v>
       </c>
+      <c r="Y61">
+        <v>-1</v>
+      </c>
       <c r="Z61" t="b">
         <v>0</v>
       </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
       <c r="AB61" t="b">
         <v>0</v>
       </c>
+      <c r="AC61">
+        <v>-1</v>
+      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>110</v>
+      <c r="B62" t="s">
+        <v>90</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -6301,6 +6314,9 @@
       <c r="F62" t="b">
         <v>0</v>
       </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
@@ -6310,6 +6326,9 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
       <c r="L62" t="b">
         <v>0</v>
       </c>
@@ -6325,12 +6344,21 @@
       <c r="P62" t="b">
         <v>0</v>
       </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
       <c r="R62" t="b">
         <v>0</v>
       </c>
+      <c r="S62">
+        <v>-1</v>
+      </c>
       <c r="T62" t="b">
         <v>0</v>
       </c>
+      <c r="U62">
+        <v>-1</v>
+      </c>
       <c r="V62" t="b">
         <v>0</v>
       </c>
@@ -6340,17 +6368,26 @@
       <c r="X62" t="b">
         <v>0</v>
       </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
       <c r="Z62" t="b">
         <v>0</v>
       </c>
+      <c r="AA62">
+        <v>-1</v>
+      </c>
       <c r="AB62" t="b">
         <v>0</v>
       </c>
+      <c r="AC62">
+        <v>-1</v>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6394,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6438,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6482,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>match</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>6-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-4</t>
   </si>
 </sst>
 </file>
@@ -6050,6 +6056,12 @@
       <c r="B59" t="s">
         <v>87</v>
       </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
       <c r="E59">
         <v>-1</v>
       </c>
@@ -6066,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
         <v>-1</v>
@@ -6108,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="X59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -6136,11 +6148,17 @@
       <c r="B60" t="s">
         <v>88</v>
       </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
       <c r="E60">
         <v>-1</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6152,7 +6170,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -6170,19 +6188,19 @@
         <v>-1</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
         <v>-1</v>
       </c>
       <c r="R60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>-1</v>
       </c>
       <c r="T60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -6200,7 +6218,7 @@
         <v>-1</v>
       </c>
       <c r="Z60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60">
         <v>1</v>
@@ -6212,7 +6230,7 @@
         <v>-1</v>
       </c>
       <c r="AD60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6222,6 +6240,12 @@
       <c r="B61" t="s">
         <v>89</v>
       </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
       <c r="E61">
         <v>-1</v>
       </c>
@@ -6268,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="T61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61">
         <v>-1</v>
@@ -6280,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="X61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
@@ -6292,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="AB61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -6308,6 +6332,12 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
+      <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62">
+        <v>-1</v>
+      </c>
       <c r="E62">
         <v>1</v>
       </c>
@@ -6318,13 +6348,13 @@
         <v>-1</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>-1</v>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -6354,13 +6384,13 @@
         <v>-1</v>
       </c>
       <c r="T62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>-1</v>
       </c>
       <c r="V62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62">
         <v>1</v>
@@ -6378,13 +6408,13 @@
         <v>-1</v>
       </c>
       <c r="AB62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62">
         <v>-1</v>
       </c>
       <c r="AD62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:30">

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61637678-B754-46CB-976E-A6531EA03ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>match</t>
   </si>
@@ -353,13 +359,19 @@
   </si>
   <si>
     <t>3-4</t>
+  </si>
+  <si>
+    <t>ARG-CRO</t>
+  </si>
+  <si>
+    <t>FRA-MAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,15 +430,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,9 +520,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,6 +572,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -709,14 +765,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -897,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -989,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1081,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1173,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1265,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1357,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1449,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1541,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1633,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1725,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1817,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1909,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2001,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2093,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2185,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2277,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2369,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2461,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2553,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2645,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2737,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2829,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2921,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3013,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3105,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3197,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3289,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3381,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3473,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3565,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3657,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3749,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3841,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3933,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4025,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4117,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4209,7 +4267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4301,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4393,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4485,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4577,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4669,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4761,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4853,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4945,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5037,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5129,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5221,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5313,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5405,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5497,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5589,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5681,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5773,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5865,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5957,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6049,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -6141,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6233,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6325,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6417,10 +6475,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
@@ -6430,15 +6494,27 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
       <c r="L63" t="b">
         <v>0</v>
       </c>
+      <c r="M63">
+        <v>-1</v>
+      </c>
       <c r="N63" t="b">
         <v>0</v>
       </c>
+      <c r="O63">
+        <v>-1</v>
+      </c>
       <c r="P63" t="b">
         <v>0</v>
       </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
       <c r="R63" t="b">
         <v>0</v>
       </c>
@@ -6448,12 +6524,18 @@
       <c r="V63" t="b">
         <v>0</v>
       </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
       <c r="X63" t="b">
         <v>0</v>
       </c>
       <c r="Z63" t="b">
         <v>0</v>
       </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
       <c r="AB63" t="b">
         <v>0</v>
       </c>
@@ -6461,10 +6543,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
@@ -6474,15 +6562,27 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64">
+        <v>-1</v>
+      </c>
       <c r="L64" t="b">
         <v>0</v>
       </c>
+      <c r="M64">
+        <v>-1</v>
+      </c>
       <c r="N64" t="b">
         <v>0</v>
       </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
       <c r="R64" t="b">
         <v>0</v>
       </c>
@@ -6492,12 +6592,18 @@
       <c r="V64" t="b">
         <v>0</v>
       </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
       <c r="X64" t="b">
         <v>0</v>
       </c>
       <c r="Z64" t="b">
         <v>0</v>
       </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
       <c r="AB64" t="b">
         <v>0</v>
       </c>
@@ -6505,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6549,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61637678-B754-46CB-976E-A6531EA03ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961FBFF-25CF-4FC7-BC6B-80AE054A592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="AC65" sqref="AC65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6488,9 +6488,15 @@
       <c r="F63" t="b">
         <v>0</v>
       </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
@@ -6518,9 +6524,15 @@
       <c r="R63" t="b">
         <v>0</v>
       </c>
+      <c r="S63">
+        <v>-1</v>
+      </c>
       <c r="T63" t="b">
         <v>0</v>
       </c>
+      <c r="U63">
+        <v>-1</v>
+      </c>
       <c r="V63" t="b">
         <v>0</v>
       </c>
@@ -6530,6 +6542,9 @@
       <c r="X63" t="b">
         <v>0</v>
       </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
       <c r="Z63" t="b">
         <v>0</v>
       </c>
@@ -6538,6 +6553,9 @@
       </c>
       <c r="AB63" t="b">
         <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
       </c>
       <c r="AD63" t="b">
         <v>0</v>
@@ -6556,9 +6574,15 @@
       <c r="F64" t="b">
         <v>0</v>
       </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
@@ -6586,9 +6610,15 @@
       <c r="R64" t="b">
         <v>0</v>
       </c>
+      <c r="S64">
+        <v>-1</v>
+      </c>
       <c r="T64" t="b">
         <v>0</v>
       </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
       <c r="V64" t="b">
         <v>0</v>
       </c>
@@ -6598,6 +6628,9 @@
       <c r="X64" t="b">
         <v>0</v>
       </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
       <c r="Z64" t="b">
         <v>0</v>
       </c>
@@ -6606,6 +6639,9 @@
       </c>
       <c r="AB64" t="b">
         <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
       </c>
       <c r="AD64" t="b">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961FBFF-25CF-4FC7-BC6B-80AE054A592D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B3F25B-80D2-425D-A0DA-91B7C1760D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
   <si>
     <t>match</t>
   </si>
@@ -423,11 +423,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -769,7 +770,7 @@
   <dimension ref="A1:AD66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="AC65" sqref="AC65"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6482,6 +6483,9 @@
       <c r="B63" t="s">
         <v>113</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E63">
         <v>1</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B3F25B-80D2-425D-A0DA-91B7C1760D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8EB147-390C-4F99-A2A7-D33FEC9F39F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -770,7 +770,7 @@
   <dimension ref="A1:AD66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="Y67" sqref="Y67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6685,6 +6685,9 @@
       <c r="X65" t="b">
         <v>0</v>
       </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
       <c r="Z65" t="b">
         <v>0</v>
       </c>
@@ -6728,6 +6731,9 @@
       </c>
       <c r="X66" t="b">
         <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>-1</v>
       </c>
       <c r="Z66" t="b">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8EB147-390C-4F99-A2A7-D33FEC9F39F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -295,6 +289,12 @@
     <t>ENG-FRA</t>
   </si>
   <si>
+    <t>ARG-CRO</t>
+  </si>
+  <si>
+    <t>FRA-MAR</t>
+  </si>
+  <si>
     <t>0-2</t>
   </si>
   <si>
@@ -359,19 +359,13 @@
   </si>
   <si>
     <t>3-4</t>
-  </si>
-  <si>
-    <t>ARG-CRO</t>
-  </si>
-  <si>
-    <t>FRA-MAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,31 +417,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,27 +506,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,24 +540,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,16 +715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="Y67" sqref="Y67"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -956,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -964,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1048,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1056,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1140,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1148,7 +1095,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1232,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1240,7 +1187,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1324,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1332,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1416,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1424,7 +1371,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1508,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1516,7 +1463,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1600,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1608,7 +1555,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1692,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1700,7 +1647,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1784,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1792,7 +1739,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1876,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1884,7 +1831,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1968,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1976,7 +1923,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2060,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2068,7 +2015,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2152,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2160,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2244,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2252,7 +2199,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2336,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2344,7 +2291,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2428,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2436,7 +2383,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -2520,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2528,7 +2475,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -2612,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2620,7 +2567,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2704,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2712,7 +2659,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2796,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2804,7 +2751,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2888,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2896,7 +2843,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2980,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2988,7 +2935,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3072,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3080,7 +3027,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3164,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3172,7 +3119,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -3256,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3264,7 +3211,7 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -3348,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3356,7 +3303,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3440,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3448,7 +3395,7 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3532,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3540,7 +3487,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3624,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3632,7 +3579,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -3716,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3724,7 +3671,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3808,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3816,7 +3763,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3900,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3908,7 +3855,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3992,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4000,7 +3947,7 @@
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -4084,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4092,7 +4039,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -4176,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4184,7 +4131,7 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -4268,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4276,7 +4223,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4360,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4368,7 +4315,7 @@
         <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4452,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4460,7 +4407,7 @@
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -4544,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4552,7 +4499,7 @@
         <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -4636,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4644,7 +4591,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -4728,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4736,7 +4683,7 @@
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4820,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4828,7 +4775,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -4912,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4920,7 +4867,7 @@
         <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5004,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5012,7 +4959,7 @@
         <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D47">
         <v>-1</v>
@@ -5096,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5104,7 +5051,7 @@
         <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5188,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5196,7 +5143,7 @@
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -5280,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5288,7 +5235,7 @@
         <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5372,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5380,7 +5327,7 @@
         <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5464,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5472,7 +5419,7 @@
         <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D52">
         <v>-1</v>
@@ -5556,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5564,7 +5511,7 @@
         <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -5648,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5656,7 +5603,7 @@
         <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5740,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5748,7 +5695,7 @@
         <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -5832,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5840,7 +5787,7 @@
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -5924,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5932,7 +5879,7 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -6016,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6024,7 +5971,7 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -6108,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -6116,7 +6063,7 @@
         <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -6200,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6208,7 +6155,7 @@
         <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D60">
         <v>-1</v>
@@ -6292,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6300,7 +6247,7 @@
         <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -6384,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6392,7 +6339,7 @@
         <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D62">
         <v>-1</v>
@@ -6476,39 +6423,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
         <v>-1</v>
@@ -6526,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="R63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63">
         <v>-1</v>
@@ -6550,27 +6500,27 @@
         <v>1</v>
       </c>
       <c r="Z63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA63">
         <v>1</v>
       </c>
       <c r="AB63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>1</v>
       </c>
       <c r="AD63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -6651,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6698,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7986981A-996E-4725-982B-889831B31BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5868" yWindow="228" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>match</t>
   </si>
@@ -293,6 +299,12 @@
   </si>
   <si>
     <t>FRA-MAR</t>
+  </si>
+  <si>
+    <t>CRO-MAR</t>
+  </si>
+  <si>
+    <t>ARG-Frau</t>
   </si>
   <si>
     <t>0-2</t>
@@ -364,8 +376,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,15 +436,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,7 +494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,9 +526,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,6 +578,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -715,14 +771,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -828,82 +886,82 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -911,7 +969,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -995,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1003,7 +1061,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1087,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1095,7 +1153,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1179,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1187,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1271,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1279,7 +1337,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1363,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1371,7 +1429,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1455,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1463,7 +1521,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1547,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1555,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1639,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1647,7 +1705,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1731,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1739,7 +1797,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1823,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1831,7 +1889,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1915,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1923,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2007,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2015,7 +2073,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2099,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2107,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2191,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2199,7 +2257,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2283,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2291,7 +2349,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2375,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2383,7 +2441,7 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -2467,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2475,7 +2533,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -2559,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2567,7 +2625,7 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2651,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2659,7 +2717,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2743,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2751,7 +2809,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2835,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2843,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2927,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2935,7 +2993,7 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3019,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3027,7 +3085,7 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3111,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3119,7 +3177,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -3203,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3211,7 +3269,7 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -3295,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3303,7 +3361,7 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3387,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3395,7 +3453,7 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3479,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3487,7 +3545,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3571,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3579,7 +3637,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -3663,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3671,7 +3729,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3755,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3763,7 +3821,7 @@
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3847,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3855,7 +3913,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3939,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3947,7 +4005,7 @@
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -4031,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4039,7 +4097,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -4123,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4131,7 +4189,7 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -4215,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4223,7 +4281,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4307,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4315,7 +4373,7 @@
         <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4399,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4407,7 +4465,7 @@
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -4491,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4499,7 +4557,7 @@
         <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -4583,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4591,7 +4649,7 @@
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -4675,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4683,7 +4741,7 @@
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4767,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4775,7 +4833,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -4859,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4867,7 +4925,7 @@
         <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4951,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -4959,7 +5017,7 @@
         <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D47">
         <v>-1</v>
@@ -5043,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5051,7 +5109,7 @@
         <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5135,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5143,7 +5201,7 @@
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -5227,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5235,7 +5293,7 @@
         <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5319,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5327,7 +5385,7 @@
         <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5411,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5419,7 +5477,7 @@
         <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D52">
         <v>-1</v>
@@ -5503,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5511,7 +5569,7 @@
         <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -5595,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5603,7 +5661,7 @@
         <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -5687,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5695,7 +5753,7 @@
         <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -5779,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5787,7 +5845,7 @@
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -5871,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5879,7 +5937,7 @@
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -5963,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -5971,7 +6029,7 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -6055,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -6063,7 +6121,7 @@
         <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -6147,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6155,7 +6213,7 @@
         <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D60">
         <v>-1</v>
@@ -6239,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6247,7 +6305,7 @@
         <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -6331,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6339,7 +6397,7 @@
         <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D62">
         <v>-1</v>
@@ -6423,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6431,7 +6489,7 @@
         <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -6515,30 +6573,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>92</v>
       </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
         <v>-1</v>
@@ -6556,13 +6620,13 @@
         <v>1</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
         <v>1</v>
       </c>
       <c r="R64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64">
         <v>-1</v>
@@ -6574,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="V64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6586,25 +6650,28 @@
         <v>1</v>
       </c>
       <c r="Z64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA64">
         <v>1</v>
       </c>
       <c r="AB64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
         <v>1</v>
       </c>
       <c r="AD64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
@@ -6648,9 +6715,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7986981A-996E-4725-982B-889831B31BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="228" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -304,7 +298,7 @@
     <t>CRO-MAR</t>
   </si>
   <si>
-    <t>ARG-Frau</t>
+    <t>ARG-FRA</t>
   </si>
   <si>
     <t>0-2</t>
@@ -376,8 +370,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,23 +430,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,27 +512,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,24 +546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,16 +721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -961,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1053,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1145,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1237,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1329,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1421,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1513,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1605,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1697,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1789,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1881,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1973,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2065,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2157,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2249,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2341,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2433,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2525,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2617,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2709,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2801,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2893,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2985,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3077,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3169,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3261,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3353,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3445,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3537,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3629,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3721,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3813,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3905,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3997,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4089,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4181,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4273,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4365,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4457,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4549,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4641,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4733,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4825,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4917,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -5009,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5101,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5193,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5285,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5377,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5469,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5561,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5653,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5745,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5837,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5929,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -6021,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6113,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -6205,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6297,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6389,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6481,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6573,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6665,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -6715,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA9F305-FF15-42C1-A6E5-994013BEAD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -370,8 +376,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,15 +436,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,7 +494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,9 +526,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,6 +578,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,14 +771,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -909,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1001,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1093,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1185,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1277,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1369,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1461,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1553,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1645,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1737,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1829,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1921,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2013,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2105,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2197,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2289,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2381,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2473,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2565,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2657,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2749,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2841,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2933,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3025,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3117,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3209,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3301,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3393,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3485,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3577,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3669,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3761,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3853,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3945,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4037,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4129,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4221,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4313,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4405,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4497,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4589,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4681,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4773,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4865,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -4957,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5049,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5141,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5233,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5325,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5417,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5509,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5601,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5693,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5785,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5877,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -5969,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6061,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -6153,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6245,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6337,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6429,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6521,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6613,13 +6665,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
+      <c r="E65">
+        <v>-1</v>
+      </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
@@ -6663,12 +6718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>

--- a/backend/database.xlsx
+++ b/backend/database.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\GitHub\WorldCupBettings\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA9F305-FF15-42C1-A6E5-994013BEAD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t>match</t>
   </si>
@@ -376,8 +370,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,23 +430,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,27 +512,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,24 +546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -771,16 +721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -961,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1053,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1145,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1237,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1329,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1421,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1513,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1605,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1697,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1789,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1881,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1973,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2065,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2157,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2249,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2341,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2433,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2525,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2617,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2709,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2801,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2893,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2985,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -3077,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -3169,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -3261,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3353,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3445,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -3537,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -3629,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -3721,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -3813,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -3905,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -3997,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -4089,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -4181,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -4273,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -4365,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -4457,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -4549,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -4641,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -4733,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -4825,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -4917,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -5009,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -5101,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -5193,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -5285,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -5377,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -5469,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -5561,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -5653,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -5745,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -5837,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -5929,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -6021,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -6113,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -6205,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -6297,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -6389,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -6481,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -6573,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -6665,42 +6613,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
+      <c r="C65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
       <c r="E65">
         <v>-1</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
       <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
       <c r="L65" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
       </c>
       <c r="N65" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>-1</v>
       </c>
       <c r="R65" t="b">
         <v>0</v>
       </c>
+      <c r="S65">
+        <v>-1</v>
+      </c>
       <c r="T65" t="b">
         <v>0</v>
       </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
       <c r="V65" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>-1</v>
       </c>
       <c r="X65" t="b">
         <v>0</v>
@@ -6709,54 +6690,93 @@
         <v>1</v>
       </c>
       <c r="Z65" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
       </c>
       <c r="AB65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC65">
         <v>0</v>
       </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30">
       <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
       </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
       <c r="E66">
         <v>-1</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
       <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
       <c r="L66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>-1</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
       </c>
+      <c r="O66">
+        <v>-1</v>
+      </c>
       <c r="P66" t="b">
         <v>0</v>
       </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
       <c r="R66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
       </c>
       <c r="T66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
       </c>
       <c r="V66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>1</v>
       </c>
       <c r="X66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6764,11 +6784,17 @@
       <c r="Z66" t="b">
         <v>0</v>
       </c>
+      <c r="AA66">
+        <v>-1</v>
+      </c>
       <c r="AB66" t="b">
         <v>0</v>
       </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
       <c r="AD66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
